--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>103</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
+          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-02 09:01</t>
+          <t>11-03 08:54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1241811394.html</t>
+          <t>/news,300332,1242334790.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境11月01日获深股通增持1.71万股</t>
+          <t>天壕环境11月02日获深股通增持48.01万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-02 07:54</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1241801859.html</t>
+          <t>/news,300332,1242326444.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
+          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-02 09:01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1241305451.html</t>
+          <t>/news,300332,1241811394.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境10月31日被深股通减持30.15万股</t>
+          <t>天壕环境11月01日获深股通增持1.71万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 07:54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1241297004.html</t>
+          <t>/news,300332,1241801859.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
+          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,51 +605,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10-31 09:10</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1240801149.html</t>
+          <t>/news,300332,1241305451.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
+          <t>天壕环境10月31日被深股通减持30.15万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10-30 15:04</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1240711492.html</t>
+          <t>/news,300332,1241297004.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,93 +659,93 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>10-31 09:10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1240706711.html</t>
+          <t>/news,300332,1240801149.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境10月28日被深股通减持108.43万股</t>
+          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>10-30 15:04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1240600533.html</t>
+          <t>/news,300332,1240711492.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
+          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1240465048.html</t>
+          <t>/news,300332,1240706711.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
+          <t>天壕环境10月28日被深股通减持108.43万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,61 +765,61 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-28 09:10</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1240061867.html</t>
+          <t>/news,300332,1240600533.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>930</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天壕环境10月27日被深股通减持84.17万股</t>
+          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-28 07:46</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1240047233.html</t>
+          <t>/news,300332,1240465048.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境接受76家机构调研！</t>
+          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-27 17:02</t>
+          <t>10-28 09:10</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1239887493.html</t>
+          <t>/news,300332,1240061867.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境10月27日被深股通减持84.17万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-27 16:53</t>
+          <t>10-28 07:46</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1239955885.html</t>
+          <t>/news,300332,1240047233.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
+          <t>天壕环境接受76家机构调研！</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-27 09:03</t>
+          <t>10-27 17:02</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1239508715.html</t>
+          <t>/news,300332,1239887493.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天壕环境10月26日被深股通减持70.43万股</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-27 07:49</t>
+          <t>10-27 16:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1239497271.html</t>
+          <t>/news,300332,1239955885.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-26 19:48</t>
+          <t>10-27 09:03</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1239404765.html</t>
+          <t>/news,300332,1239508715.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
+          <t>天壕环境10月26日被深股通减持70.43万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,93 +989,93 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-26 18:38</t>
+          <t>10-27 07:49</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1239385003.html</t>
+          <t>/news,300332,1239497271.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-26 12:56</t>
+          <t>10-26 19:48</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1239194248.html</t>
+          <t>/news,300332,1239404765.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-26 12:39</t>
+          <t>10-26 18:38</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1239184216.html</t>
+          <t>/news,300332,1239385003.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
+          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-26 11:42</t>
+          <t>10-26 12:56</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1239171537.html</t>
+          <t>/news,300332,1239194248.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-26 11:37</t>
+          <t>10-26 12:39</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1239168937.html</t>
+          <t>/news,300332,1239184216.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
+          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-26 09:52</t>
+          <t>10-26 11:42</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1239048382.html</t>
+          <t>/news,300332,1239171537.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
+          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-26 09:51</t>
+          <t>10-26 11:37</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1239043260.html</t>
+          <t>/news,300332,1239168937.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
+          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-26 09:02</t>
+          <t>10-26 09:52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1238981241.html</t>
+          <t>/news,300332,1239048382.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天壕环境10月25日获深股通增持50.07万股</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 09:51</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1238968103.html</t>
+          <t>/news,300332,1239043260.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
+          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-25 19:43</t>
+          <t>10-26 09:02</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1238869154.html</t>
+          <t>/news,300332,1238981241.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天壕环境：前三季度净利润同比增长415.90%</t>
+          <t>天壕环境10月25日获深股通增持50.07万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-25 19:27</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1238864925.html</t>
+          <t>/news,300332,1238968103.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
+          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-25 16:58</t>
+          <t>10-25 19:43</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1238818536.html</t>
+          <t>/news,300332,1238869154.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
+          <t>天壕环境：前三季度净利润同比增长415.90%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-25 16:27</t>
+          <t>10-25 19:27</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1238808877.html</t>
+          <t>/news,300332,1238864925.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
+          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,51 +1405,51 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 16:58</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1238806429.html</t>
+          <t>/news,300332,1238818536.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
+          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-25 16:06</t>
+          <t>10-25 16:27</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1238803227.html</t>
+          <t>/news,300332,1238808877.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
+          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,83 +1469,83 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 08:54</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1238458609.html</t>
+          <t>/news,300332,1238806429.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天壕环境10月24日获深股通增持73.9万股</t>
+          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 16:06</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1238448588.html</t>
+          <t>/news,300332,1238803227.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
+          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 08:54</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1237859534.html</t>
+          <t>/news,300332,1238458609.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天壕环境10月21日获深股通增持58.93万股</t>
+          <t>天壕环境10月24日获深股通增持73.9万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,51 +1565,51 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1237796555.html</t>
+          <t>/news,300332,1238448588.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>532</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天壕环境10月20日被深股通减持23.37万股</t>
+          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-21 07:49</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1237348224.html</t>
+          <t>/news,300332,1237859534.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天壕环境10月19日被深股通减持2.68万股</t>
+          <t>天壕环境10月21日获深股通增持58.93万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1236888073.html</t>
+          <t>/news,300332,1237796555.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
+          <t>天壕环境10月20日被深股通减持23.37万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-19 15:02</t>
+          <t>10-21 07:49</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1236724772.html</t>
+          <t>/news,300332,1237348224.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境10月19日被深股通减持2.68万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-19 14:46</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1236709929.html</t>
+          <t>/news,300332,1236888073.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天壕环境10月18日被深股通减持16.05万股</t>
+          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-19 15:02</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1236439001.html</t>
+          <t>/news,300332,1236724772.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天壕环境10月17日被深股通减持61.84万股</t>
+          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-19 14:46</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1236041227.html</t>
+          <t>/news,300332,1236709929.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
+          <t>天壕环境10月18日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1235575701.html</t>
+          <t>/news,300332,1236439001.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天壕环境10月14日获深股通增持2.71万股</t>
+          <t>天壕环境10月17日被深股通减持61.84万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-15 07:47</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1235511242.html</t>
+          <t>/news,300332,1236041227.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>768</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天壕环境10月13日被深股通减持1.47万股</t>
+          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-14 07:51</t>
+          <t>10-16 14:05</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1235082412.html</t>
+          <t>/news,300332,1235575701.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境10月12日被深股通减持15.75万股</t>
+          <t>天壕环境10月14日获深股通增持2.71万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-13 07:58</t>
+          <t>10-15 07:47</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1234647085.html</t>
+          <t>/news,300332,1235511242.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天壕环境10月11日被深股通减持1.02万股</t>
+          <t>天壕环境10月13日被深股通减持1.47万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-14 07:51</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1234212878.html</t>
+          <t>/news,300332,1235082412.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天壕环境10月10日获深股通增持74.72万股</t>
+          <t>天壕环境10月12日被深股通减持15.75万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-11 07:50</t>
+          <t>10-13 07:58</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1233836904.html</t>
+          <t>/news,300332,1234647085.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天壕环境：“天壕转债”第三季度转股330股</t>
+          <t>天壕环境10月11日被深股通减持1.02万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-12 07:50</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1233707406.html</t>
+          <t>/news,300332,1234212878.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1382.37万元，居燃气板块第三</t>
+          <t>天壕环境10月10日获深股通增持74.72万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-11 07:50</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1233316547.html</t>
+          <t>/news,300332,1233836904.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境09月28日被深股通减持103.71万股</t>
+          <t>天壕环境：“天壕转债”第三季度转股330股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09-29 07:52</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1232088078.html</t>
+          <t>/news,300332,1233707406.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>808</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天壕环境人气较昨日提升3076 现居飙升榜第六</t>
+          <t>天壕环境本周深股通持股市值减少1382.37万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>股市胖虎</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09-28 10:09</t>
+          <t>10-09 14:04</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1231719853.html</t>
+          <t>/news,300332,1233316547.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天壕环境09月27日被深股通减持3.02万股</t>
+          <t>天壕环境09月28日被深股通减持103.71万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-28 07:46</t>
+          <t>09-29 07:52</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1231636584.html</t>
+          <t>/news,300332,1232088078.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>898</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天壕环境09月26日获深股通增持21.84万股</t>
+          <t>天壕环境人气较昨日提升3076 现居飙升榜第六</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>股市胖虎</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-27 07:44</t>
+          <t>09-28 10:09</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1231246369.html</t>
+          <t>/news,300332,1231719853.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少707.56万元，居燃气板块第三</t>
+          <t>天壕环境09月27日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-25 14:03</t>
+          <t>09-28 07:46</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1230722083.html</t>
+          <t>/news,300332,1231636584.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天壕环境09月23日被深股通减持83.2万股</t>
+          <t>天壕环境09月26日获深股通增持21.84万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,51 +2205,51 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-24 07:52</t>
+          <t>09-27 07:44</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1230641087.html</t>
+          <t>/news,300332,1231246369.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>946</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级</t>
+          <t>天壕环境本周深股通持股市值减少707.56万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-23 12:47</t>
+          <t>09-25 14:03</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1230430277.html</t>
+          <t>/news,300332,1230722083.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1073</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,39 +2259,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>天壕环境09月23日被深股通减持83.2万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-23 12:36</t>
+          <t>09-24 07:52</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1230427333.html</t>
+          <t>/news,300332,1230641087.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>661</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天壕环境09月22日被深股通减持9.09万股</t>
+          <t>东吴证券给予天壕环境买入评级</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,61 +2301,61 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-23 07:42</t>
+          <t>09-23 12:47</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1230232783.html</t>
+          <t>/news,300332,1230430277.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>1071</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天壕环境：与华电河北公司签订天然气供应战略合作协议</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-22 18:20</t>
+          <t>09-23 12:36</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1230129754.html</t>
+          <t>/news,300332,1230427333.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天壕环境09月21日被深股通减持73.13万股</t>
+          <t>天壕环境09月22日被深股通减持9.09万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-22 08:02</t>
+          <t>09-23 07:42</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1229812804.html</t>
+          <t>/news,300332,1230232783.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>783</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天壕环境09月20日获深股通增持33.42万股</t>
+          <t>天壕环境：与华电河北公司签订天然气供应战略合作协议</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-21 07:51</t>
+          <t>09-22 18:20</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1229382775.html</t>
+          <t>/news,300332,1230129754.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1327</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加363.5万元，居燃气板块第四</t>
+          <t>天壕环境09月21日被深股通减持73.13万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-22 08:02</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1228440607.html</t>
+          <t>/news,300332,1229812804.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天壕环境09月16日获深股通增持36.28万股</t>
+          <t>天壕环境09月20日获深股通增持33.42万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-17 08:40</t>
+          <t>09-21 07:51</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1228360738.html</t>
+          <t>/news,300332,1229382775.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>1327</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天壕环境09月15日被深股通减持69.12万股</t>
+          <t>天壕环境本周深股通持股市值增加363.5万元，居燃气板块第四</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-16 08:00</t>
+          <t>09-18 14:04</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1227925062.html</t>
+          <t>/news,300332,1228440607.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天壕环境09月14日获深股通增持41.7万股</t>
+          <t>天壕环境09月16日获深股通增持36.28万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-15 08:13</t>
+          <t>09-17 08:40</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1227431269.html</t>
+          <t>/news,300332,1228360738.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1340</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,39 +2547,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加253.83万元，居燃气板块第三</t>
+          <t>天壕环境09月15日被深股通减持69.12万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-12 14:04</t>
+          <t>09-16 08:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1226593085.html</t>
+          <t>/news,300332,1227925062.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境09月09日被深股通减持9.56万股</t>
+          <t>天壕环境09月14日获深股通增持41.7万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-10 08:12</t>
+          <t>09-15 08:13</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1226486859.html</t>
+          <t>/news,300332,1227431269.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>1338</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天壕环境09月08日获深股通增持15.04万股</t>
+          <t>天壕环境本周深股通持股市值增加253.83万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-09 08:01</t>
+          <t>09-12 14:04</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1226098693.html</t>
+          <t>/news,300332,1226593085.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境09月07日获深股通增持34.21万股</t>
+          <t>天壕环境09月09日被深股通减持9.56万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-08 08:07</t>
+          <t>09-10 08:12</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1225663801.html</t>
+          <t>/news,300332,1226486859.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境09月06日获深股通增持3.17万股</t>
+          <t>天壕环境09月08日获深股通增持15.04万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-07 07:55</t>
+          <t>09-09 08:01</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1225225189.html</t>
+          <t>/news,300332,1226098693.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天壕环境09月05日被深股通减持24.86万股</t>
+          <t>天壕环境09月07日获深股通增持34.21万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-06 07:49</t>
+          <t>09-08 08:07</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1224813869.html</t>
+          <t>/news,300332,1225663801.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级 神安线全段通气在即 公司业绩创历史新高</t>
+          <t>天壕环境09月06日获深股通增持3.17万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-04 16:03</t>
+          <t>09-07 07:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1224371150.html</t>
+          <t>/news,300332,1225225189.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加722.97万元，居燃气板块第七</t>
+          <t>天壕环境09月05日被深股通减持24.86万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-04 14:03</t>
+          <t>09-06 07:49</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1224360305.html</t>
+          <t>/news,300332,1224813869.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天壕环境09月02日获深股通增持7.81万股</t>
+          <t>东亚前海证券给予天壕环境推荐评级 神安线全段通气在即 公司业绩创历史新高</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,61 +2813,61 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-03 07:33</t>
+          <t>09-04 16:03</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1224283989.html</t>
+          <t>/news,300332,1224371150.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>1083</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境09月01日被深股通减持180.1万股</t>
+          <t>天壕环境本周深股通持股市值增加722.97万元，居燃气板块第七</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-02 08:12</t>
+          <t>09-04 14:03</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1223891581.html</t>
+          <t>/news,300332,1224360305.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境08月31日获深股通增持178.99万股</t>
+          <t>天壕环境09月02日获深股通增持7.81万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-01 07:45</t>
+          <t>09-03 07:33</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1223448462.html</t>
+          <t>/news,300332,1224283989.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境08月30日被深股通减持8.91万股</t>
+          <t>天壕环境09月01日被深股通减持180.1万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>08-31 07:54</t>
+          <t>09-02 08:12</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1222966006.html</t>
+          <t>/news,300332,1223891581.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>501</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境08月29日获深股通增持53.57万股</t>
+          <t>天壕环境08月31日获深股通增持178.99万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>08-30 07:52</t>
+          <t>09-01 07:45</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1222519350.html</t>
+          <t>/news,300332,1223448462.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,39 +2963,39 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加1815.99万元，居燃气板块第三</t>
+          <t>天壕环境08月30日被深股通减持8.91万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-28 14:03</t>
+          <t>08-31 07:54</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1222020646.html</t>
+          <t>/news,300332,1222966006.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境08月26日获深股通增持35.93万股</t>
+          <t>天壕环境08月29日获深股通增持53.57万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-27 07:49</t>
+          <t>08-30 07:52</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1221934801.html</t>
+          <t>/news,300332,1222519350.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>94</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
+          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-03 08:54</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1242334790.html</t>
+          <t>/news,300332,1242826526.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>114</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境11月02日获深股通增持48.01万股</t>
+          <t>天壕环境11月03日获深股通增持46.33万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1242326444.html</t>
+          <t>/news,300332,1242815770.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
+          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-02 09:01</t>
+          <t>11-03 08:54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1241811394.html</t>
+          <t>/news,300332,1242334790.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境11月01日获深股通增持1.71万股</t>
+          <t>天壕环境11月02日获深股通增持48.01万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-02 07:54</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1241801859.html</t>
+          <t>/news,300332,1242326444.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
+          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-02 09:01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1241305451.html</t>
+          <t>/news,300332,1241811394.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境10月31日被深股通减持30.15万股</t>
+          <t>天壕环境11月01日获深股通增持1.71万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 07:54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1241297004.html</t>
+          <t>/news,300332,1241801859.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
+          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,51 +669,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10-31 09:10</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1240801149.html</t>
+          <t>/news,300332,1241305451.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
+          <t>天壕环境10月31日被深股通减持30.15万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10-30 15:04</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1240711492.html</t>
+          <t>/news,300332,1241297004.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,93 +723,93 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>10-31 09:10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1240706711.html</t>
+          <t>/news,300332,1240801149.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天壕环境10月28日被深股通减持108.43万股</t>
+          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>10-30 15:04</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1240600533.html</t>
+          <t>/news,300332,1240711492.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
+          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1240465048.html</t>
+          <t>/news,300332,1240706711.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
+          <t>天壕环境10月28日被深股通减持108.43万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,61 +829,61 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-28 09:10</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1240061867.html</t>
+          <t>/news,300332,1240600533.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>978</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天壕环境10月27日被深股通减持84.17万股</t>
+          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-28 07:46</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1240047233.html</t>
+          <t>/news,300332,1240465048.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天壕环境接受76家机构调研！</t>
+          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,12 +893,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-27 17:02</t>
+          <t>10-28 09:10</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1239887493.html</t>
+          <t>/news,300332,1240061867.html</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境10月27日被深股通减持84.17万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-27 16:53</t>
+          <t>10-28 07:46</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1239955885.html</t>
+          <t>/news,300332,1240047233.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
+          <t>天壕环境接受76家机构调研！</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-27 09:03</t>
+          <t>10-27 17:02</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1239508715.html</t>
+          <t>/news,300332,1239887493.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天壕环境10月26日被深股通减持70.43万股</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-27 07:49</t>
+          <t>10-27 16:53</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1239497271.html</t>
+          <t>/news,300332,1239955885.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-26 19:48</t>
+          <t>10-27 09:03</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1239404765.html</t>
+          <t>/news,300332,1239508715.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
+          <t>天壕环境10月26日被深股通减持70.43万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,93 +1053,93 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-26 18:38</t>
+          <t>10-27 07:49</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1239385003.html</t>
+          <t>/news,300332,1239497271.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-26 12:56</t>
+          <t>10-26 19:48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1239194248.html</t>
+          <t>/news,300332,1239404765.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-26 12:39</t>
+          <t>10-26 18:38</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1239184216.html</t>
+          <t>/news,300332,1239385003.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
+          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-26 11:42</t>
+          <t>10-26 12:56</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1239171537.html</t>
+          <t>/news,300332,1239194248.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-26 11:37</t>
+          <t>10-26 12:39</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1239168937.html</t>
+          <t>/news,300332,1239184216.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
+          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-26 09:52</t>
+          <t>10-26 11:42</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1239048382.html</t>
+          <t>/news,300332,1239171537.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
+          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-26 09:51</t>
+          <t>10-26 11:37</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1239043260.html</t>
+          <t>/news,300332,1239168937.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
+          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-26 09:02</t>
+          <t>10-26 09:52</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1238981241.html</t>
+          <t>/news,300332,1239048382.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天壕环境10月25日获深股通增持50.07万股</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 09:51</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1238968103.html</t>
+          <t>/news,300332,1239043260.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
+          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-25 19:43</t>
+          <t>10-26 09:02</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1238869154.html</t>
+          <t>/news,300332,1238981241.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天壕环境：前三季度净利润同比增长415.90%</t>
+          <t>天壕环境10月25日获深股通增持50.07万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-25 19:27</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1238864925.html</t>
+          <t>/news,300332,1238968103.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
+          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-25 16:58</t>
+          <t>10-25 19:43</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1238818536.html</t>
+          <t>/news,300332,1238869154.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
+          <t>天壕环境：前三季度净利润同比增长415.90%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-25 16:27</t>
+          <t>10-25 19:27</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1238808877.html</t>
+          <t>/news,300332,1238864925.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
+          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,51 +1469,51 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 16:58</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1238806429.html</t>
+          <t>/news,300332,1238818536.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
+          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-25 16:06</t>
+          <t>10-25 16:27</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1238803227.html</t>
+          <t>/news,300332,1238808877.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
+          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,83 +1533,83 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-25 08:54</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1238458609.html</t>
+          <t>/news,300332,1238806429.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天壕环境10月24日获深股通增持73.9万股</t>
+          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 16:06</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1238448588.html</t>
+          <t>/news,300332,1238803227.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
+          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 08:54</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1237859534.html</t>
+          <t>/news,300332,1238458609.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天壕环境10月21日获深股通增持58.93万股</t>
+          <t>天壕环境10月24日获深股通增持73.9万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,51 +1629,51 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1237796555.html</t>
+          <t>/news,300332,1238448588.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天壕环境10月20日被深股通减持23.37万股</t>
+          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-21 07:49</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1237348224.html</t>
+          <t>/news,300332,1237859534.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天壕环境10月19日被深股通减持2.68万股</t>
+          <t>天壕环境10月21日获深股通增持58.93万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1236888073.html</t>
+          <t>/news,300332,1237796555.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
+          <t>天壕环境10月20日被深股通减持23.37万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-19 15:02</t>
+          <t>10-21 07:49</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1236724772.html</t>
+          <t>/news,300332,1237348224.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境10月19日被深股通减持2.68万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-19 14:46</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1236709929.html</t>
+          <t>/news,300332,1236888073.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境10月18日被深股通减持16.05万股</t>
+          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-19 15:02</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1236439001.html</t>
+          <t>/news,300332,1236724772.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天壕环境10月17日被深股通减持61.84万股</t>
+          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-19 14:46</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1236041227.html</t>
+          <t>/news,300332,1236709929.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
+          <t>天壕环境10月18日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1235575701.html</t>
+          <t>/news,300332,1236439001.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境10月14日获深股通增持2.71万股</t>
+          <t>天壕环境10月17日被深股通减持61.84万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-15 07:47</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1235511242.html</t>
+          <t>/news,300332,1236041227.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>807</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天壕环境10月13日被深股通减持1.47万股</t>
+          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-14 07:51</t>
+          <t>10-16 14:05</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1235082412.html</t>
+          <t>/news,300332,1235575701.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天壕环境10月12日被深股通减持15.75万股</t>
+          <t>天壕环境10月14日获深股通增持2.71万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-13 07:58</t>
+          <t>10-15 07:47</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1234647085.html</t>
+          <t>/news,300332,1235511242.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天壕环境10月11日被深股通减持1.02万股</t>
+          <t>天壕环境10月13日被深股通减持1.47万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-14 07:51</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1234212878.html</t>
+          <t>/news,300332,1235082412.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天壕环境10月10日获深股通增持74.72万股</t>
+          <t>天壕环境10月12日被深股通减持15.75万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-11 07:50</t>
+          <t>10-13 07:58</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1233836904.html</t>
+          <t>/news,300332,1234647085.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境：“天壕转债”第三季度转股330股</t>
+          <t>天壕环境10月11日被深股通减持1.02万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-12 07:50</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1233707406.html</t>
+          <t>/news,300332,1234212878.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1382.37万元，居燃气板块第三</t>
+          <t>天壕环境10月10日获深股通增持74.72万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-11 07:50</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1233316547.html</t>
+          <t>/news,300332,1233836904.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天壕环境09月28日被深股通减持103.71万股</t>
+          <t>天壕环境：“天壕转债”第三季度转股330股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09-29 07:52</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1232088078.html</t>
+          <t>/news,300332,1233707406.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>809</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天壕环境人气较昨日提升3076 现居飙升榜第六</t>
+          <t>天壕环境本周深股通持股市值减少1382.37万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>股市胖虎</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>09-28 10:09</t>
+          <t>10-09 14:04</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1231719853.html</t>
+          <t>/news,300332,1233316547.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天壕环境09月27日被深股通减持3.02万股</t>
+          <t>天壕环境09月28日被深股通减持103.71万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-28 07:46</t>
+          <t>09-29 07:52</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1231636584.html</t>
+          <t>/news,300332,1232088078.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>899</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天壕环境09月26日获深股通增持21.84万股</t>
+          <t>天壕环境人气较昨日提升3076 现居飙升榜第六</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>股市胖虎</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-27 07:44</t>
+          <t>09-28 10:09</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1231246369.html</t>
+          <t>/news,300332,1231719853.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>946</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少707.56万元，居燃气板块第三</t>
+          <t>天壕环境09月27日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-25 14:03</t>
+          <t>09-28 07:46</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1230722083.html</t>
+          <t>/news,300332,1231636584.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天壕环境09月23日被深股通减持83.2万股</t>
+          <t>天壕环境09月26日获深股通增持21.84万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,51 +2269,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-24 07:52</t>
+          <t>09-27 07:44</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1230641087.html</t>
+          <t>/news,300332,1231246369.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>946</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级</t>
+          <t>天壕环境本周深股通持股市值减少707.56万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-23 12:47</t>
+          <t>09-25 14:03</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1230430277.html</t>
+          <t>/news,300332,1230722083.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1071</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>天壕环境09月23日被深股通减持83.2万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-23 12:36</t>
+          <t>09-24 07:52</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1230427333.html</t>
+          <t>/news,300332,1230641087.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天壕环境09月22日被深股通减持9.09万股</t>
+          <t>东吴证券给予天壕环境买入评级</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,61 +2365,61 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-23 07:42</t>
+          <t>09-23 12:47</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1230232783.html</t>
+          <t>/news,300332,1230430277.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>1072</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天壕环境：与华电河北公司签订天然气供应战略合作协议</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-22 18:20</t>
+          <t>09-23 12:36</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1230129754.html</t>
+          <t>/news,300332,1230427333.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天壕环境09月21日被深股通减持73.13万股</t>
+          <t>天壕环境09月22日被深股通减持9.09万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-22 08:02</t>
+          <t>09-23 07:42</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1229812804.html</t>
+          <t>/news,300332,1230232783.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>784</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天壕环境09月20日获深股通增持33.42万股</t>
+          <t>天壕环境：与华电河北公司签订天然气供应战略合作协议</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-21 07:51</t>
+          <t>09-22 18:20</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1229382775.html</t>
+          <t>/news,300332,1230129754.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1327</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加363.5万元，居燃气板块第四</t>
+          <t>天壕环境09月21日被深股通减持73.13万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-22 08:02</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1228440607.html</t>
+          <t>/news,300332,1229812804.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天壕环境09月16日获深股通增持36.28万股</t>
+          <t>天壕环境09月20日获深股通增持33.42万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-17 08:40</t>
+          <t>09-21 07:51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1228360738.html</t>
+          <t>/news,300332,1229382775.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>1327</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,39 +2547,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天壕环境09月15日被深股通减持69.12万股</t>
+          <t>天壕环境本周深股通持股市值增加363.5万元，居燃气板块第四</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-16 08:00</t>
+          <t>09-18 14:04</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1227925062.html</t>
+          <t>/news,300332,1228440607.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境09月14日获深股通增持41.7万股</t>
+          <t>天壕环境09月16日获深股通增持36.28万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-15 08:13</t>
+          <t>09-17 08:40</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1227431269.html</t>
+          <t>/news,300332,1228360738.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1338</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,39 +2611,39 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加253.83万元，居燃气板块第三</t>
+          <t>天壕环境09月15日被深股通减持69.12万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-12 14:04</t>
+          <t>09-16 08:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1226593085.html</t>
+          <t>/news,300332,1227925062.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境09月09日被深股通减持9.56万股</t>
+          <t>天壕环境09月14日获深股通增持41.7万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-10 08:12</t>
+          <t>09-15 08:13</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1226486859.html</t>
+          <t>/news,300332,1227431269.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>1339</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境09月08日获深股通增持15.04万股</t>
+          <t>天壕环境本周深股通持股市值增加253.83万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-09 08:01</t>
+          <t>09-12 14:04</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1226098693.html</t>
+          <t>/news,300332,1226593085.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天壕环境09月07日获深股通增持34.21万股</t>
+          <t>天壕环境09月09日被深股通减持9.56万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-08 08:07</t>
+          <t>09-10 08:12</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1225663801.html</t>
+          <t>/news,300332,1226486859.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境09月06日获深股通增持3.17万股</t>
+          <t>天壕环境09月08日获深股通增持15.04万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-07 07:55</t>
+          <t>09-09 08:01</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1225225189.html</t>
+          <t>/news,300332,1226098693.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>542</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境09月05日被深股通减持24.86万股</t>
+          <t>天壕环境09月07日获深股通增持34.21万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-06 07:49</t>
+          <t>09-08 08:07</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1224813869.html</t>
+          <t>/news,300332,1225663801.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级 神安线全段通气在即 公司业绩创历史新高</t>
+          <t>天壕环境09月06日获深股通增持3.17万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-04 16:03</t>
+          <t>09-07 07:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1224371150.html</t>
+          <t>/news,300332,1225225189.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加722.97万元，居燃气板块第七</t>
+          <t>天壕环境09月05日被深股通减持24.86万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-04 14:03</t>
+          <t>09-06 07:49</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1224360305.html</t>
+          <t>/news,300332,1224813869.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境09月02日获深股通增持7.81万股</t>
+          <t>东亚前海证券给予天壕环境推荐评级 神安线全段通气在即 公司业绩创历史新高</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,61 +2877,61 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-03 07:33</t>
+          <t>09-04 16:03</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1224283989.html</t>
+          <t>/news,300332,1224371150.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>1084</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境09月01日被深股通减持180.1万股</t>
+          <t>天壕环境本周深股通持股市值增加722.97万元，居燃气板块第七</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-02 08:12</t>
+          <t>09-04 14:03</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1223891581.html</t>
+          <t>/news,300332,1224360305.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境08月31日获深股通增持178.99万股</t>
+          <t>天壕环境09月02日获深股通增持7.81万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-01 07:45</t>
+          <t>09-03 07:33</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1223448462.html</t>
+          <t>/news,300332,1224283989.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境08月30日被深股通减持8.91万股</t>
+          <t>天壕环境09月01日被深股通减持180.1万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>08-31 07:54</t>
+          <t>09-02 08:12</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1222966006.html</t>
+          <t>/news,300332,1223891581.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>501</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境08月29日获深股通增持53.57万股</t>
+          <t>天壕环境08月31日获深股通增持178.99万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>08-30 07:52</t>
+          <t>09-01 07:45</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1222519350.html</t>
+          <t>/news,300332,1223448462.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
+          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1242826526.html</t>
+          <t>/news,300332,1243513721.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境11月03日获深股通增持46.33万股</t>
+          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1242815770.html</t>
+          <t>/news,300332,1243408938.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,39 +531,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
+          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-03 08:54</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1242334790.html</t>
+          <t>/news,300332,1243403871.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境11月02日获深股通增持48.01万股</t>
+          <t>天壕环境11月04日获深股通增持96.88万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1242326444.html</t>
+          <t>/news,300332,1243317870.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
+          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-02 09:01</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1241811394.html</t>
+          <t>/news,300332,1242826526.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境11月01日获深股通增持1.71万股</t>
+          <t>天壕环境11月03日获深股通增持46.33万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-02 07:54</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1241801859.html</t>
+          <t>/news,300332,1242815770.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
+          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-03 08:54</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1241305451.html</t>
+          <t>/news,300332,1242334790.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境10月31日被深股通减持30.15万股</t>
+          <t>天壕环境11月02日获深股通增持48.01万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1241297004.html</t>
+          <t>/news,300332,1242326444.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
+          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,51 +733,51 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-31 09:10</t>
+          <t>11-02 09:01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1240801149.html</t>
+          <t>/news,300332,1241811394.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
+          <t>天壕环境11月01日获深股通增持1.71万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-30 15:04</t>
+          <t>11-02 07:54</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1240711492.html</t>
+          <t>/news,300332,1241801859.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
+          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1240706711.html</t>
+          <t>/news,300332,1241305451.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境10月28日被深股通减持108.43万股</t>
+          <t>天壕环境10月31日被深股通减持30.15万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,83 +829,83 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1240600533.html</t>
+          <t>/news,300332,1241297004.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>978</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
+          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-31 09:10</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1240465048.html</t>
+          <t>/news,300332,1240801149.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
+          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-28 09:10</t>
+          <t>10-30 15:04</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1240061867.html</t>
+          <t>/news,300332,1240711492.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,39 +915,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天壕环境10月27日被深股通减持84.17万股</t>
+          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-28 07:46</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1240047233.html</t>
+          <t>/news,300332,1240706711.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天壕环境接受76家机构调研！</t>
+          <t>天壕环境10月28日被深股通减持108.43万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,51 +957,51 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-27 17:02</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1239887493.html</t>
+          <t>/news,300332,1240600533.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>1118</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-27 16:53</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1239955885.html</t>
+          <t>/news,300332,1240465048.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
+          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-27 09:03</t>
+          <t>10-28 09:10</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1239508715.html</t>
+          <t>/news,300332,1240061867.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天壕环境10月26日被深股通减持70.43万股</t>
+          <t>天壕环境10月27日被深股通减持84.17万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,51 +1053,51 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-27 07:49</t>
+          <t>10-28 07:46</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1239497271.html</t>
+          <t>/news,300332,1240047233.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>647</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境接受76家机构调研！</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-26 19:48</t>
+          <t>10-27 17:02</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1239404765.html</t>
+          <t>/news,300332,1239887493.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-26 18:38</t>
+          <t>10-27 16:53</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1239385003.html</t>
+          <t>/news,300332,1239955885.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
+          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,83 +1149,83 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-26 12:56</t>
+          <t>10-27 09:03</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1239194248.html</t>
+          <t>/news,300332,1239508715.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>天壕环境10月26日被深股通减持70.43万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-26 12:39</t>
+          <t>10-27 07:49</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1239184216.html</t>
+          <t>/news,300332,1239497271.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-26 11:42</t>
+          <t>10-26 19:48</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1239171537.html</t>
+          <t>/news,300332,1239404765.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
+          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-26 11:37</t>
+          <t>10-26 18:38</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1239168937.html</t>
+          <t>/news,300332,1239385003.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
+          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-26 09:52</t>
+          <t>10-26 12:56</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1239048382.html</t>
+          <t>/news,300332,1239194248.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>600</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-26 09:51</t>
+          <t>10-26 12:39</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1239043260.html</t>
+          <t>/news,300332,1239184216.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
+          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-26 09:02</t>
+          <t>10-26 11:42</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1238981241.html</t>
+          <t>/news,300332,1239171537.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天壕环境10月25日获深股通增持50.07万股</t>
+          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 11:37</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1238968103.html</t>
+          <t>/news,300332,1239168937.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
+          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-25 19:43</t>
+          <t>10-26 09:52</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1238869154.html</t>
+          <t>/news,300332,1239048382.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,39 +1427,39 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天壕环境：前三季度净利润同比增长415.90%</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-25 19:27</t>
+          <t>10-26 09:51</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1238864925.html</t>
+          <t>/news,300332,1239043260.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
+          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 16:58</t>
+          <t>10-26 09:02</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1238818536.html</t>
+          <t>/news,300332,1238981241.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
+          <t>天壕环境10月25日获深股通增持50.07万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-25 16:27</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1238808877.html</t>
+          <t>/news,300332,1238968103.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
+          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,61 +1533,61 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 19:43</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1238806429.html</t>
+          <t>/news,300332,1238869154.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
+          <t>天壕环境：前三季度净利润同比增长415.90%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 16:06</t>
+          <t>10-25 19:27</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1238803227.html</t>
+          <t>/news,300332,1238864925.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
+          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 08:54</t>
+          <t>10-25 16:58</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1238458609.html</t>
+          <t>/news,300332,1238818536.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天壕环境10月24日获深股通增持73.9万股</t>
+          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,83 +1629,83 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 16:27</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1238448588.html</t>
+          <t>/news,300332,1238808877.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
+          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1237859534.html</t>
+          <t>/news,300332,1238806429.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>755</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天壕环境10月21日获深股通增持58.93万股</t>
+          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 16:06</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1237796555.html</t>
+          <t>/news,300332,1238803227.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天壕环境10月20日被深股通减持23.37万股</t>
+          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-21 07:49</t>
+          <t>10-25 08:54</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1237348224.html</t>
+          <t>/news,300332,1238458609.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天壕环境10月19日被深股通减持2.68万股</t>
+          <t>天壕环境10月24日获深股通增持73.9万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,51 +1757,51 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1236888073.html</t>
+          <t>/news,300332,1238448588.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
+          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-19 15:02</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1236724772.html</t>
+          <t>/news,300332,1237859534.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境10月21日获深股通增持58.93万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-19 14:46</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1236709929.html</t>
+          <t>/news,300332,1237796555.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天壕环境10月18日被深股通减持16.05万股</t>
+          <t>天壕环境10月20日被深股通减持23.37万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-21 07:49</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1236439001.html</t>
+          <t>/news,300332,1237348224.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境10月17日被深股通减持61.84万股</t>
+          <t>天壕环境10月19日被深股通减持2.68万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1236041227.html</t>
+          <t>/news,300332,1236888073.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
+          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-19 15:02</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1235575701.html</t>
+          <t>/news,300332,1236724772.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天壕环境10月14日获深股通增持2.71万股</t>
+          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-15 07:47</t>
+          <t>10-19 14:46</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1235511242.html</t>
+          <t>/news,300332,1236709929.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天壕环境10月13日被深股通减持1.47万股</t>
+          <t>天壕环境10月18日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-14 07:51</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1235082412.html</t>
+          <t>/news,300332,1236439001.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天壕环境10月12日被深股通减持15.75万股</t>
+          <t>天壕环境10月17日被深股通减持61.84万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,51 +2013,51 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-13 07:58</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1234647085.html</t>
+          <t>/news,300332,1236041227.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>884</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境10月11日被深股通减持1.02万股</t>
+          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-16 14:05</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1234212878.html</t>
+          <t>/news,300332,1235575701.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天壕环境10月10日获深股通增持74.72万股</t>
+          <t>天壕环境10月14日获深股通增持2.71万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-11 07:50</t>
+          <t>10-15 07:47</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1233836904.html</t>
+          <t>/news,300332,1235511242.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天壕环境：“天壕转债”第三季度转股330股</t>
+          <t>天壕环境10月13日被深股通减持1.47万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-14 07:51</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1233707406.html</t>
+          <t>/news,300332,1235082412.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1382.37万元，居燃气板块第三</t>
+          <t>天壕环境10月12日被深股通减持15.75万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-13 07:58</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1233316547.html</t>
+          <t>/news,300332,1234647085.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天壕环境09月28日被深股通减持103.71万股</t>
+          <t>天壕环境10月11日被深股通减持1.02万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>09-29 07:52</t>
+          <t>10-12 07:50</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1232088078.html</t>
+          <t>/news,300332,1234212878.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天壕环境人气较昨日提升3076 现居飙升榜第六</t>
+          <t>天壕环境10月10日获深股通增持74.72万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>股市胖虎</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>09-28 10:09</t>
+          <t>10-11 07:50</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1231719853.html</t>
+          <t>/news,300332,1233836904.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天壕环境09月27日被深股通减持3.02万股</t>
+          <t>天壕环境：“天壕转债”第三季度转股330股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>09-28 07:46</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1231636584.html</t>
+          <t>/news,300332,1233707406.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>813</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天壕环境09月26日获深股通增持21.84万股</t>
+          <t>天壕环境本周深股通持股市值减少1382.37万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>09-27 07:44</t>
+          <t>10-09 14:04</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1231246369.html</t>
+          <t>/news,300332,1233316547.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>946</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少707.56万元，居燃气板块第三</t>
+          <t>天壕环境09月28日被深股通减持103.71万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-25 14:03</t>
+          <t>09-29 07:52</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1230722083.html</t>
+          <t>/news,300332,1232088078.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>899</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天壕环境09月23日被深股通减持83.2万股</t>
+          <t>天壕环境人气较昨日提升3076 现居飙升榜第六</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>股市胖虎</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-24 07:52</t>
+          <t>09-28 10:09</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1230641087.html</t>
+          <t>/news,300332,1231719853.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级</t>
+          <t>天壕环境09月27日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-23 12:47</t>
+          <t>09-28 07:46</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1230430277.html</t>
+          <t>/news,300332,1231636584.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1072</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,71 +2387,71 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>天壕环境09月26日获深股通增持21.84万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-23 12:36</t>
+          <t>09-27 07:44</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1230427333.html</t>
+          <t>/news,300332,1231246369.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>948</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天壕环境09月22日被深股通减持9.09万股</t>
+          <t>天壕环境本周深股通持股市值减少707.56万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-23 07:42</t>
+          <t>09-25 14:03</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1230232783.html</t>
+          <t>/news,300332,1230722083.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天壕环境：与华电河北公司签订天然气供应战略合作协议</t>
+          <t>天壕环境09月23日被深股通减持83.2万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-22 18:20</t>
+          <t>09-24 07:52</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1230129754.html</t>
+          <t>/news,300332,1230641087.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天壕环境09月21日被深股通减持73.13万股</t>
+          <t>东吴证券给予天壕环境买入评级</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-22 08:02</t>
+          <t>09-23 12:47</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1229812804.html</t>
+          <t>/news,300332,1230430277.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>1072</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,71 +2515,71 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天壕环境09月20日获深股通增持33.42万股</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-21 07:51</t>
+          <t>09-23 12:36</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1229382775.html</t>
+          <t>/news,300332,1230427333.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1327</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加363.5万元，居燃气板块第四</t>
+          <t>天壕环境09月22日被深股通减持9.09万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-23 07:42</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1228440607.html</t>
+          <t>/news,300332,1230232783.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境09月16日获深股通增持36.28万股</t>
+          <t>天壕环境：与华电河北公司签订天然气供应战略合作协议</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-17 08:40</t>
+          <t>09-22 18:20</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1228360738.html</t>
+          <t>/news,300332,1230129754.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天壕环境09月15日被深股通减持69.12万股</t>
+          <t>天壕环境09月21日被深股通减持73.13万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-16 08:00</t>
+          <t>09-22 08:02</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1227925062.html</t>
+          <t>/news,300332,1229812804.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境09月14日获深股通增持41.7万股</t>
+          <t>天壕环境09月20日获深股通增持33.42万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-15 08:13</t>
+          <t>09-21 07:51</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1227431269.html</t>
+          <t>/news,300332,1229382775.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1339</t>
+          <t>1327</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加253.83万元，居燃气板块第三</t>
+          <t>天壕环境本周深股通持股市值增加363.5万元，居燃气板块第四</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-12 14:04</t>
+          <t>09-18 14:04</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1226593085.html</t>
+          <t>/news,300332,1228440607.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天壕环境09月09日被深股通减持9.56万股</t>
+          <t>天壕环境09月16日获深股通增持36.28万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-10 08:12</t>
+          <t>09-17 08:40</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1226486859.html</t>
+          <t>/news,300332,1228360738.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境09月08日获深股通增持15.04万股</t>
+          <t>天壕环境09月15日被深股通减持69.12万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-09 08:01</t>
+          <t>09-16 08:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1226098693.html</t>
+          <t>/news,300332,1227925062.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境09月07日获深股通增持34.21万股</t>
+          <t>天壕环境09月14日获深股通增持41.7万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-08 08:07</t>
+          <t>09-15 08:13</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1225663801.html</t>
+          <t>/news,300332,1227431269.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>1339</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天壕环境09月06日获深股通增持3.17万股</t>
+          <t>天壕环境本周深股通持股市值增加253.83万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-07 07:55</t>
+          <t>09-12 14:04</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1225225189.html</t>
+          <t>/news,300332,1226593085.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境09月05日被深股通减持24.86万股</t>
+          <t>天壕环境09月09日被深股通减持9.56万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-06 07:49</t>
+          <t>09-10 08:12</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1224813869.html</t>
+          <t>/news,300332,1226486859.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级 神安线全段通气在即 公司业绩创历史新高</t>
+          <t>天壕环境09月08日获深股通增持15.04万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-04 16:03</t>
+          <t>09-09 08:01</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1224371150.html</t>
+          <t>/news,300332,1226098693.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1084</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加722.97万元，居燃气板块第七</t>
+          <t>天壕环境09月07日获深股通增持34.21万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-04 14:03</t>
+          <t>09-08 08:07</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1224360305.html</t>
+          <t>/news,300332,1225663801.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境09月02日获深股通增持7.81万股</t>
+          <t>天壕环境09月06日获深股通增持3.17万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-03 07:33</t>
+          <t>09-07 07:55</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1224283989.html</t>
+          <t>/news,300332,1225225189.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境09月01日被深股通减持180.1万股</t>
+          <t>天壕环境09月05日被深股通减持24.86万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-02 08:12</t>
+          <t>09-06 07:49</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1223891581.html</t>
+          <t>/news,300332,1224813869.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境08月31日获深股通增持178.99万股</t>
+          <t>东亚前海证券给予天壕环境推荐评级 神安线全段通气在即 公司业绩创历史新高</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-01 07:45</t>
+          <t>09-04 16:03</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1223448462.html</t>
+          <t>/news,300332,1224371150.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
+          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1243513721.html</t>
+          <t>/news,300332,1243984572.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
+          <t>天壕环境11月07日获深股通增持90.51万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1243408938.html</t>
+          <t>/news,300332,1243976303.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1243403871.html</t>
+          <t>/news,300332,1243513721.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境11月04日获深股通增持96.88万股</t>
+          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1243317870.html</t>
+          <t>/news,300332,1243408938.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
+          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1242826526.html</t>
+          <t>/news,300332,1243403871.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境11月03日获深股通增持46.33万股</t>
+          <t>天壕环境11月04日获深股通增持96.88万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1242815770.html</t>
+          <t>/news,300332,1243317870.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
+          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-03 08:54</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1242334790.html</t>
+          <t>/news,300332,1242826526.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境11月02日获深股通增持48.01万股</t>
+          <t>天壕环境11月03日获深股通增持46.33万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1242326444.html</t>
+          <t>/news,300332,1242815770.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
+          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-02 09:01</t>
+          <t>11-03 08:54</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1241811394.html</t>
+          <t>/news,300332,1242334790.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天壕环境11月01日获深股通增持1.71万股</t>
+          <t>天壕环境11月02日获深股通增持48.01万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-02 07:54</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1241801859.html</t>
+          <t>/news,300332,1242326444.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
+          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-02 09:01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1241305451.html</t>
+          <t>/news,300332,1241811394.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境10月31日被深股通减持30.15万股</t>
+          <t>天壕环境11月01日获深股通增持1.71万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 07:54</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1241297004.html</t>
+          <t>/news,300332,1241801859.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
+          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,51 +861,51 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-31 09:10</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1240801149.html</t>
+          <t>/news,300332,1241305451.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
+          <t>天壕环境10月31日被深股通减持30.15万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-30 15:04</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1240711492.html</t>
+          <t>/news,300332,1241297004.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,93 +915,93 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>10-31 09:10</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1240706711.html</t>
+          <t>/news,300332,1240801149.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>603</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天壕环境10月28日被深股通减持108.43万股</t>
+          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>10-30 15:04</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1240600533.html</t>
+          <t>/news,300332,1240711492.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1118</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
+          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1240465048.html</t>
+          <t>/news,300332,1240706711.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
+          <t>天壕环境10月28日被深股通减持108.43万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,61 +1021,61 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-28 09:10</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1240061867.html</t>
+          <t>/news,300332,1240600533.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>1155</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天壕环境10月27日被深股通减持84.17万股</t>
+          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-28 07:46</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1240047233.html</t>
+          <t>/news,300332,1240465048.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天壕环境接受76家机构调研！</t>
+          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-27 17:02</t>
+          <t>10-28 09:10</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1239887493.html</t>
+          <t>/news,300332,1240061867.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境10月27日被深股通减持84.17万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-27 16:53</t>
+          <t>10-28 07:46</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1239955885.html</t>
+          <t>/news,300332,1240047233.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
+          <t>天壕环境接受76家机构调研！</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-27 09:03</t>
+          <t>10-27 17:02</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1239508715.html</t>
+          <t>/news,300332,1239887493.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天壕环境10月26日被深股通减持70.43万股</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-27 07:49</t>
+          <t>10-27 16:53</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1239497271.html</t>
+          <t>/news,300332,1239955885.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-26 19:48</t>
+          <t>10-27 09:03</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1239404765.html</t>
+          <t>/news,300332,1239508715.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
+          <t>天壕环境10月26日被深股通减持70.43万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,93 +1245,93 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-26 18:38</t>
+          <t>10-27 07:49</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1239385003.html</t>
+          <t>/news,300332,1239497271.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-26 12:56</t>
+          <t>10-26 19:48</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1239194248.html</t>
+          <t>/news,300332,1239404765.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-26 12:39</t>
+          <t>10-26 18:38</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1239184216.html</t>
+          <t>/news,300332,1239385003.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
+          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-26 11:42</t>
+          <t>10-26 12:56</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1239171537.html</t>
+          <t>/news,300332,1239194248.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>632</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-26 11:37</t>
+          <t>10-26 12:39</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1239168937.html</t>
+          <t>/news,300332,1239184216.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
+          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-26 09:52</t>
+          <t>10-26 11:42</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1239048382.html</t>
+          <t>/news,300332,1239171537.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
+          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-26 09:51</t>
+          <t>10-26 11:37</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1239043260.html</t>
+          <t>/news,300332,1239168937.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
+          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-26 09:02</t>
+          <t>10-26 09:52</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1238981241.html</t>
+          <t>/news,300332,1239048382.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天壕环境10月25日获深股通增持50.07万股</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 09:51</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1238968103.html</t>
+          <t>/news,300332,1239043260.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
+          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-25 19:43</t>
+          <t>10-26 09:02</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1238869154.html</t>
+          <t>/news,300332,1238981241.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天壕环境：前三季度净利润同比增长415.90%</t>
+          <t>天壕环境10月25日获深股通增持50.07万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 19:27</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1238864925.html</t>
+          <t>/news,300332,1238968103.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
+          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 16:58</t>
+          <t>10-25 19:43</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1238818536.html</t>
+          <t>/news,300332,1238869154.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
+          <t>天壕环境：前三季度净利润同比增长415.90%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 16:27</t>
+          <t>10-25 19:27</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1238808877.html</t>
+          <t>/news,300332,1238864925.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
+          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,51 +1661,51 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 16:58</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1238806429.html</t>
+          <t>/news,300332,1238818536.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
+          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 16:06</t>
+          <t>10-25 16:27</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1238803227.html</t>
+          <t>/news,300332,1238808877.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
+          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,83 +1725,83 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 08:54</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1238458609.html</t>
+          <t>/news,300332,1238806429.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>784</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天壕环境10月24日获深股通增持73.9万股</t>
+          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 16:06</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1238448588.html</t>
+          <t>/news,300332,1238803227.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
+          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 08:54</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1237859534.html</t>
+          <t>/news,300332,1238458609.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天壕环境10月21日获深股通增持58.93万股</t>
+          <t>天壕环境10月24日获深股通增持73.9万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,51 +1821,51 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1237796555.html</t>
+          <t>/news,300332,1238448588.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>702</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天壕环境10月20日被深股通减持23.37万股</t>
+          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-21 07:49</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1237348224.html</t>
+          <t>/news,300332,1237859534.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境10月19日被深股通减持2.68万股</t>
+          <t>天壕环境10月21日获深股通增持58.93万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1236888073.html</t>
+          <t>/news,300332,1237796555.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
+          <t>天壕环境10月20日被深股通减持23.37万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-19 15:02</t>
+          <t>10-21 07:49</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1236724772.html</t>
+          <t>/news,300332,1237348224.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境10月19日被深股通减持2.68万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-19 14:46</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1236709929.html</t>
+          <t>/news,300332,1236888073.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天壕环境10月18日被深股通减持16.05万股</t>
+          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-19 15:02</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1236439001.html</t>
+          <t>/news,300332,1236724772.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天壕环境10月17日被深股通减持61.84万股</t>
+          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-19 14:46</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1236041227.html</t>
+          <t>/news,300332,1236709929.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
+          <t>天壕环境10月18日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1235575701.html</t>
+          <t>/news,300332,1236439001.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天壕环境10月14日获深股通增持2.71万股</t>
+          <t>天壕环境10月17日被深股通减持61.84万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-15 07:47</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1235511242.html</t>
+          <t>/news,300332,1236041227.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>886</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天壕环境10月13日被深股通减持1.47万股</t>
+          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-14 07:51</t>
+          <t>10-16 14:05</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1235082412.html</t>
+          <t>/news,300332,1235575701.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天壕环境10月12日被深股通减持15.75万股</t>
+          <t>天壕环境10月14日获深股通增持2.71万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-13 07:58</t>
+          <t>10-15 07:47</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1234647085.html</t>
+          <t>/news,300332,1235511242.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天壕环境10月11日被深股通减持1.02万股</t>
+          <t>天壕环境10月13日被深股通减持1.47万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-14 07:51</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1234212878.html</t>
+          <t>/news,300332,1235082412.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天壕环境10月10日获深股通增持74.72万股</t>
+          <t>天壕环境10月12日被深股通减持15.75万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-11 07:50</t>
+          <t>10-13 07:58</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1233836904.html</t>
+          <t>/news,300332,1234647085.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天壕环境：“天壕转债”第三季度转股330股</t>
+          <t>天壕环境10月11日被深股通减持1.02万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-12 07:50</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1233707406.html</t>
+          <t>/news,300332,1234212878.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1382.37万元，居燃气板块第三</t>
+          <t>天壕环境10月10日获深股通增持74.72万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-11 07:50</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1233316547.html</t>
+          <t>/news,300332,1233836904.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天壕环境09月28日被深股通减持103.71万股</t>
+          <t>天壕环境：“天壕转债”第三季度转股330股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>09-29 07:52</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1232088078.html</t>
+          <t>/news,300332,1233707406.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>814</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天壕环境人气较昨日提升3076 现居飙升榜第六</t>
+          <t>天壕环境本周深股通持股市值减少1382.37万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>股市胖虎</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09-28 10:09</t>
+          <t>10-09 14:04</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1231719853.html</t>
+          <t>/news,300332,1233316547.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天壕环境09月27日被深股通减持3.02万股</t>
+          <t>天壕环境09月28日被深股通减持103.71万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-28 07:46</t>
+          <t>09-29 07:52</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1231636584.html</t>
+          <t>/news,300332,1232088078.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>900</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天壕环境09月26日获深股通增持21.84万股</t>
+          <t>天壕环境人气较昨日提升3076 现居飙升榜第六</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>股市胖虎</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-27 07:44</t>
+          <t>09-28 10:09</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1231246369.html</t>
+          <t>/news,300332,1231719853.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少707.56万元，居燃气板块第三</t>
+          <t>天壕环境09月27日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-25 14:03</t>
+          <t>09-28 07:46</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1230722083.html</t>
+          <t>/news,300332,1231636584.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天壕环境09月23日被深股通减持83.2万股</t>
+          <t>天壕环境09月26日获深股通增持21.84万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,51 +2461,51 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-24 07:52</t>
+          <t>09-27 07:44</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1230641087.html</t>
+          <t>/news,300332,1231246369.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>948</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级</t>
+          <t>天壕环境本周深股通持股市值减少707.56万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-23 12:47</t>
+          <t>09-25 14:03</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1230430277.html</t>
+          <t>/news,300332,1230722083.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1072</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,39 +2515,39 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>天壕环境09月23日被深股通减持83.2万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-23 12:36</t>
+          <t>09-24 07:52</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1230427333.html</t>
+          <t>/news,300332,1230641087.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天壕环境09月22日被深股通减持9.09万股</t>
+          <t>东吴证券给予天壕环境买入评级</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,61 +2557,61 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-23 07:42</t>
+          <t>09-23 12:47</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1230232783.html</t>
+          <t>/news,300332,1230430277.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>1072</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境：与华电河北公司签订天然气供应战略合作协议</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-22 18:20</t>
+          <t>09-23 12:36</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1230129754.html</t>
+          <t>/news,300332,1230427333.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天壕环境09月21日被深股通减持73.13万股</t>
+          <t>天壕环境09月22日被深股通减持9.09万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-22 08:02</t>
+          <t>09-23 07:42</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1229812804.html</t>
+          <t>/news,300332,1230232783.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境09月20日获深股通增持33.42万股</t>
+          <t>天壕环境：与华电河北公司签订天然气供应战略合作协议</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-21 07:51</t>
+          <t>09-22 18:20</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1229382775.html</t>
+          <t>/news,300332,1230129754.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1327</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加363.5万元，居燃气板块第四</t>
+          <t>天壕环境09月21日被深股通减持73.13万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-22 08:02</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1228440607.html</t>
+          <t>/news,300332,1229812804.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天壕环境09月16日获深股通增持36.28万股</t>
+          <t>天壕环境09月20日获深股通增持33.42万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-17 08:40</t>
+          <t>09-21 07:51</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1228360738.html</t>
+          <t>/news,300332,1229382775.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>1327</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,39 +2739,39 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境09月15日被深股通减持69.12万股</t>
+          <t>天壕环境本周深股通持股市值增加363.5万元，居燃气板块第四</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-16 08:00</t>
+          <t>09-18 14:04</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1227925062.html</t>
+          <t>/news,300332,1228440607.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境09月14日获深股通增持41.7万股</t>
+          <t>天壕环境09月16日获深股通增持36.28万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-15 08:13</t>
+          <t>09-17 08:40</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1227431269.html</t>
+          <t>/news,300332,1228360738.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1339</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加253.83万元，居燃气板块第三</t>
+          <t>天壕环境09月15日被深股通减持69.12万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-12 14:04</t>
+          <t>09-16 08:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1226593085.html</t>
+          <t>/news,300332,1227925062.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境09月09日被深股通减持9.56万股</t>
+          <t>天壕环境09月14日获深股通增持41.7万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-10 08:12</t>
+          <t>09-15 08:13</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1226486859.html</t>
+          <t>/news,300332,1227431269.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>1339</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境09月08日获深股通增持15.04万股</t>
+          <t>天壕环境本周深股通持股市值增加253.83万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-09 08:01</t>
+          <t>09-12 14:04</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1226098693.html</t>
+          <t>/news,300332,1226593085.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境09月07日获深股通增持34.21万股</t>
+          <t>天壕环境09月09日被深股通减持9.56万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-08 08:07</t>
+          <t>09-10 08:12</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1225663801.html</t>
+          <t>/news,300332,1226486859.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境09月06日获深股通增持3.17万股</t>
+          <t>天壕环境09月08日获深股通增持15.04万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-07 07:55</t>
+          <t>09-09 08:01</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1225225189.html</t>
+          <t>/news,300332,1226098693.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>544</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境09月05日被深股通减持24.86万股</t>
+          <t>天壕环境09月07日获深股通增持34.21万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-06 07:49</t>
+          <t>09-08 08:07</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1224813869.html</t>
+          <t>/news,300332,1225663801.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级 神安线全段通气在即 公司业绩创历史新高</t>
+          <t>天壕环境09月06日获深股通增持3.17万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-04 16:03</t>
+          <t>09-07 07:55</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1224371150.html</t>
+          <t>/news,300332,1225225189.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -937,7 +937,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1033,7 +1033,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1155</t>
+          <t>1160</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>704</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2345,7 +2345,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2377,7 +2377,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>901</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2441,7 +2441,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2473,7 +2473,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>950</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>482</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2537,7 +2537,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>663</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2569,7 +2569,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1072</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2633,7 +2633,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>787</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2665,7 +2665,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2729,7 +2729,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1327</t>
+          <t>1328</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2761,7 +2761,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>538</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2825,7 +2825,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2857,7 +2857,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1339</t>
+          <t>1341</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2889,7 +2889,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2921,7 +2921,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2953,7 +2953,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2985,7 +2985,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
+          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-09 08:48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1243984572.html</t>
+          <t>/news,300332,1244436172.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境11月07日获深股通增持90.51万股</t>
+          <t>天壕环境11月08日被深股通减持43.85万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1243976303.html</t>
+          <t>/news,300332,1244426484.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
+          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1243513721.html</t>
+          <t>/news,300332,1243984572.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
+          <t>天壕环境11月07日获深股通增持90.51万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1243408938.html</t>
+          <t>/news,300332,1243976303.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1243403871.html</t>
+          <t>/news,300332,1243513721.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境11月04日获深股通增持96.88万股</t>
+          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1243317870.html</t>
+          <t>/news,300332,1243408938.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
+          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1242826526.html</t>
+          <t>/news,300332,1243403871.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境11月03日获深股通增持46.33万股</t>
+          <t>天壕环境11月04日获深股通增持96.88万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1242815770.html</t>
+          <t>/news,300332,1243317870.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
+          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-03 08:54</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1242334790.html</t>
+          <t>/news,300332,1242826526.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天壕环境11月02日获深股通增持48.01万股</t>
+          <t>天壕环境11月03日获深股通增持46.33万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1242326444.html</t>
+          <t>/news,300332,1242815770.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
+          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-02 09:01</t>
+          <t>11-03 08:54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1241811394.html</t>
+          <t>/news,300332,1242334790.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境11月01日获深股通增持1.71万股</t>
+          <t>天壕环境11月02日获深股通增持48.01万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-02 07:54</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1241801859.html</t>
+          <t>/news,300332,1242326444.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
+          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-02 09:01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1241305451.html</t>
+          <t>/news,300332,1241811394.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天壕环境10月31日被深股通减持30.15万股</t>
+          <t>天壕环境11月01日获深股通增持1.71万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 07:54</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1241297004.html</t>
+          <t>/news,300332,1241801859.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
+          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,51 +925,51 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-31 09:10</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1240801149.html</t>
+          <t>/news,300332,1241305451.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
+          <t>天壕环境10月31日被深股通减持30.15万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-30 15:04</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1240711492.html</t>
+          <t>/news,300332,1241297004.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,93 +979,93 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>10-31 09:10</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1240706711.html</t>
+          <t>/news,300332,1240801149.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天壕环境10月28日被深股通减持108.43万股</t>
+          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>10-30 15:04</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1240600533.html</t>
+          <t>/news,300332,1240711492.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
+          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1240465048.html</t>
+          <t>/news,300332,1240706711.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
+          <t>天壕环境10月28日被深股通减持108.43万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,61 +1085,61 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-28 09:10</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1240061867.html</t>
+          <t>/news,300332,1240600533.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天壕环境10月27日被深股通减持84.17万股</t>
+          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-28 07:46</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1240047233.html</t>
+          <t>/news,300332,1240465048.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天壕环境接受76家机构调研！</t>
+          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-27 17:02</t>
+          <t>10-28 09:10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1239887493.html</t>
+          <t>/news,300332,1240061867.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境10月27日被深股通减持84.17万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-27 16:53</t>
+          <t>10-28 07:46</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1239955885.html</t>
+          <t>/news,300332,1240047233.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>677</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
+          <t>天壕环境接受76家机构调研！</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-27 09:03</t>
+          <t>10-27 17:02</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1239508715.html</t>
+          <t>/news,300332,1239887493.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天壕环境10月26日被深股通减持70.43万股</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-27 07:49</t>
+          <t>10-27 16:53</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1239497271.html</t>
+          <t>/news,300332,1239955885.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-26 19:48</t>
+          <t>10-27 09:03</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1239404765.html</t>
+          <t>/news,300332,1239508715.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
+          <t>天壕环境10月26日被深股通减持70.43万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,93 +1309,93 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-26 18:38</t>
+          <t>10-27 07:49</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1239385003.html</t>
+          <t>/news,300332,1239497271.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-26 12:56</t>
+          <t>10-26 19:48</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1239194248.html</t>
+          <t>/news,300332,1239404765.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-26 12:39</t>
+          <t>10-26 18:38</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1239184216.html</t>
+          <t>/news,300332,1239385003.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
+          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-26 11:42</t>
+          <t>10-26 12:56</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1239171537.html</t>
+          <t>/news,300332,1239194248.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>670</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-26 11:37</t>
+          <t>10-26 12:39</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1239168937.html</t>
+          <t>/news,300332,1239184216.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
+          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-26 09:52</t>
+          <t>10-26 11:42</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1239048382.html</t>
+          <t>/news,300332,1239171537.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
+          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-26 09:51</t>
+          <t>10-26 11:37</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1239043260.html</t>
+          <t>/news,300332,1239168937.html</t>
         </is>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
+          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-26 09:02</t>
+          <t>10-26 09:52</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1238981241.html</t>
+          <t>/news,300332,1239048382.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天壕环境10月25日获深股通增持50.07万股</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 09:51</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1238968103.html</t>
+          <t>/news,300332,1239043260.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
+          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 19:43</t>
+          <t>10-26 09:02</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1238869154.html</t>
+          <t>/news,300332,1238981241.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天壕环境：前三季度净利润同比增长415.90%</t>
+          <t>天壕环境10月25日获深股通增持50.07万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 19:27</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1238864925.html</t>
+          <t>/news,300332,1238968103.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
+          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-25 16:58</t>
+          <t>10-25 19:43</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1238818536.html</t>
+          <t>/news,300332,1238869154.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
+          <t>天壕环境：前三季度净利润同比增长415.90%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 16:27</t>
+          <t>10-25 19:27</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1238808877.html</t>
+          <t>/news,300332,1238864925.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
+          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,51 +1725,51 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 16:58</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1238806429.html</t>
+          <t>/news,300332,1238818536.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
+          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 16:06</t>
+          <t>10-25 16:27</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1238803227.html</t>
+          <t>/news,300332,1238808877.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
+          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,83 +1789,83 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 08:54</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1238458609.html</t>
+          <t>/news,300332,1238806429.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>821</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天壕环境10月24日获深股通增持73.9万股</t>
+          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 16:06</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1238448588.html</t>
+          <t>/news,300332,1238803227.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
+          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 08:54</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1237859534.html</t>
+          <t>/news,300332,1238458609.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境10月21日获深股通增持58.93万股</t>
+          <t>天壕环境10月24日获深股通增持73.9万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,51 +1885,51 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1237796555.html</t>
+          <t>/news,300332,1238448588.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>753</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天壕环境10月20日被深股通减持23.37万股</t>
+          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-21 07:49</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1237348224.html</t>
+          <t>/news,300332,1237859534.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天壕环境10月19日被深股通减持2.68万股</t>
+          <t>天壕环境10月21日获深股通增持58.93万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1236888073.html</t>
+          <t>/news,300332,1237796555.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
+          <t>天壕环境10月20日被深股通减持23.37万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-19 15:02</t>
+          <t>10-21 07:49</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1236724772.html</t>
+          <t>/news,300332,1237348224.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境10月19日被深股通减持2.68万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-19 14:46</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1236709929.html</t>
+          <t>/news,300332,1236888073.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境10月18日被深股通减持16.05万股</t>
+          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-19 15:02</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1236439001.html</t>
+          <t>/news,300332,1236724772.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天壕环境10月17日被深股通减持61.84万股</t>
+          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-19 14:46</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1236041227.html</t>
+          <t>/news,300332,1236709929.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
+          <t>天壕环境10月18日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1235575701.html</t>
+          <t>/news,300332,1236439001.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天壕环境10月14日获深股通增持2.71万股</t>
+          <t>天壕环境10月17日被深股通减持61.84万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-15 07:47</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1235511242.html</t>
+          <t>/news,300332,1236041227.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>890</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天壕环境10月13日被深股通减持1.47万股</t>
+          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-14 07:51</t>
+          <t>10-16 14:05</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1235082412.html</t>
+          <t>/news,300332,1235575701.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天壕环境10月12日被深股通减持15.75万股</t>
+          <t>天壕环境10月14日获深股通增持2.71万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-13 07:58</t>
+          <t>10-15 07:47</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1234647085.html</t>
+          <t>/news,300332,1235511242.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天壕环境10月11日被深股通减持1.02万股</t>
+          <t>天壕环境10月13日被深股通减持1.47万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-14 07:51</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1234212878.html</t>
+          <t>/news,300332,1235082412.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天壕环境10月10日获深股通增持74.72万股</t>
+          <t>天壕环境10月12日被深股通减持15.75万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-11 07:50</t>
+          <t>10-13 07:58</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1233836904.html</t>
+          <t>/news,300332,1234647085.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天壕环境：“天壕转债”第三季度转股330股</t>
+          <t>天壕环境10月11日被深股通减持1.02万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-12 07:50</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1233707406.html</t>
+          <t>/news,300332,1234212878.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1382.37万元，居燃气板块第三</t>
+          <t>天壕环境10月10日获深股通增持74.72万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-11 07:50</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1233316547.html</t>
+          <t>/news,300332,1233836904.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天壕环境09月28日被深股通减持103.71万股</t>
+          <t>天壕环境：“天壕转债”第三季度转股330股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>09-29 07:52</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1232088078.html</t>
+          <t>/news,300332,1233707406.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>815</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天壕环境人气较昨日提升3076 现居飙升榜第六</t>
+          <t>天壕环境本周深股通持股市值减少1382.37万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>股市胖虎</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>09-28 10:09</t>
+          <t>10-09 14:04</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1231719853.html</t>
+          <t>/news,300332,1233316547.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天壕环境09月27日被深股通减持3.02万股</t>
+          <t>天壕环境09月28日被深股通减持103.71万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-28 07:46</t>
+          <t>09-29 07:52</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1231636584.html</t>
+          <t>/news,300332,1232088078.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>901</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天壕环境09月26日获深股通增持21.84万股</t>
+          <t>天壕环境人气较昨日提升3076 现居飙升榜第六</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>股市胖虎</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-27 07:44</t>
+          <t>09-28 10:09</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1231246369.html</t>
+          <t>/news,300332,1231719853.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少707.56万元，居燃气板块第三</t>
+          <t>天壕环境09月27日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-25 14:03</t>
+          <t>09-28 07:46</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1230722083.html</t>
+          <t>/news,300332,1231636584.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天壕环境09月23日被深股通减持83.2万股</t>
+          <t>天壕环境09月26日获深股通增持21.84万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,51 +2525,51 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-24 07:52</t>
+          <t>09-27 07:44</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1230641087.html</t>
+          <t>/news,300332,1231246369.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>950</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级</t>
+          <t>天壕环境本周深股通持股市值减少707.56万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-23 12:47</t>
+          <t>09-25 14:03</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1230430277.html</t>
+          <t>/news,300332,1230722083.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>482</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,39 +2579,39 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>天壕环境09月23日被深股通减持83.2万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-23 12:36</t>
+          <t>09-24 07:52</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1230427333.html</t>
+          <t>/news,300332,1230641087.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天壕环境09月22日被深股通减持9.09万股</t>
+          <t>东吴证券给予天壕环境买入评级</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,61 +2621,61 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-23 07:42</t>
+          <t>09-23 12:47</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1230232783.html</t>
+          <t>/news,300332,1230430277.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境：与华电河北公司签订天然气供应战略合作协议</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-22 18:20</t>
+          <t>09-23 12:36</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1230129754.html</t>
+          <t>/news,300332,1230427333.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境09月21日被深股通减持73.13万股</t>
+          <t>天壕环境09月22日被深股通减持9.09万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-22 08:02</t>
+          <t>09-23 07:42</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1229812804.html</t>
+          <t>/news,300332,1230232783.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>789</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天壕环境09月20日获深股通增持33.42万股</t>
+          <t>天壕环境：与华电河北公司签订天然气供应战略合作协议</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-21 07:51</t>
+          <t>09-22 18:20</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1229382775.html</t>
+          <t>/news,300332,1230129754.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加363.5万元，居燃气板块第四</t>
+          <t>天壕环境09月21日被深股通减持73.13万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-22 08:02</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1228440607.html</t>
+          <t>/news,300332,1229812804.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境09月16日获深股通增持36.28万股</t>
+          <t>天壕环境09月20日获深股通增持33.42万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-17 08:40</t>
+          <t>09-21 07:51</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1228360738.html</t>
+          <t>/news,300332,1229382775.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>1328</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天壕环境09月15日被深股通减持69.12万股</t>
+          <t>天壕环境本周深股通持股市值增加363.5万元，居燃气板块第四</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-16 08:00</t>
+          <t>09-18 14:04</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1227925062.html</t>
+          <t>/news,300332,1228440607.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>538</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境09月14日获深股通增持41.7万股</t>
+          <t>天壕环境09月16日获深股通增持36.28万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-15 08:13</t>
+          <t>09-17 08:40</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1227431269.html</t>
+          <t>/news,300332,1228360738.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,39 +2867,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加253.83万元，居燃气板块第三</t>
+          <t>天壕环境09月15日被深股通减持69.12万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-12 14:04</t>
+          <t>09-16 08:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1226593085.html</t>
+          <t>/news,300332,1227925062.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境09月09日被深股通减持9.56万股</t>
+          <t>天壕环境09月14日获深股通增持41.7万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-10 08:12</t>
+          <t>09-15 08:13</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1226486859.html</t>
+          <t>/news,300332,1227431269.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>1341</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境09月08日获深股通增持15.04万股</t>
+          <t>天壕环境本周深股通持股市值增加253.83万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-09 08:01</t>
+          <t>09-12 14:04</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1226098693.html</t>
+          <t>/news,300332,1226593085.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境09月07日获深股通增持34.21万股</t>
+          <t>天壕环境09月09日被深股通减持9.56万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-08 08:07</t>
+          <t>09-10 08:12</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1225663801.html</t>
+          <t>/news,300332,1226486859.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境09月06日获深股通增持3.17万股</t>
+          <t>天壕环境09月08日获深股通增持15.04万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-07 07:55</t>
+          <t>09-09 08:01</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1225225189.html</t>
+          <t>/news,300332,1226098693.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
+          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-09 08:48</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1244436172.html</t>
+          <t>/news,300332,1244901110.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境11月08日被深股通减持43.85万股</t>
+          <t>天壕环境11月09日被深股通减持5.04万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-10 07:52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1244426484.html</t>
+          <t>/news,300332,1244891594.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
+          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-09 18:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1243984572.html</t>
+          <t>/news,300332,1244788399.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境11月07日获深股通增持90.51万股</t>
+          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 08:48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1243976303.html</t>
+          <t>/news,300332,1244436172.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
+          <t>天壕环境11月08日被深股通减持43.85万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1243513721.html</t>
+          <t>/news,300332,1244426484.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
+          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1243408938.html</t>
+          <t>/news,300332,1243984572.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
+          <t>天壕环境11月07日获深股通增持90.51万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1243403871.html</t>
+          <t>/news,300332,1243976303.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境11月04日获深股通增持96.88万股</t>
+          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1243317870.html</t>
+          <t>/news,300332,1243513721.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
+          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1242826526.html</t>
+          <t>/news,300332,1243408938.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天壕环境11月03日获深股通增持46.33万股</t>
+          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1242815770.html</t>
+          <t>/news,300332,1243403871.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
+          <t>天壕环境11月04日获深股通增持96.88万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-03 08:54</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1242334790.html</t>
+          <t>/news,300332,1243317870.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境11月02日获深股通增持48.01万股</t>
+          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1242326444.html</t>
+          <t>/news,300332,1242826526.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
+          <t>天壕环境11月03日获深股通增持46.33万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-02 09:01</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1241811394.html</t>
+          <t>/news,300332,1242815770.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天壕环境11月01日获深股通增持1.71万股</t>
+          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,12 +893,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-02 07:54</t>
+          <t>11-03 08:54</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1241801859.html</t>
+          <t>/news,300332,1242334790.html</t>
         </is>
       </c>
     </row>
@@ -910,12 +910,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
+          <t>天壕环境11月02日获深股通增持48.01万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1241305451.html</t>
+          <t>/news,300332,1242326444.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天壕环境10月31日被深股通减持30.15万股</t>
+          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 09:01</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1241297004.html</t>
+          <t>/news,300332,1241811394.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
+          <t>天壕环境11月01日获深股通增持1.71万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,83 +989,83 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-31 09:10</t>
+          <t>11-02 07:54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1240801149.html</t>
+          <t>/news,300332,1241801859.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
+          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-30 15:04</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1240711492.html</t>
+          <t>/news,300332,1241305451.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
+          <t>天壕环境10月31日被深股通减持30.15万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1240706711.html</t>
+          <t>/news,300332,1241297004.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天壕环境10月28日被深股通减持108.43万股</t>
+          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,51 +1085,51 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>10-31 09:10</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1240600533.html</t>
+          <t>/news,300332,1240801149.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>689</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
+          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-30 15:04</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1240465048.html</t>
+          <t>/news,300332,1240711492.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
+          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-28 09:10</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1240061867.html</t>
+          <t>/news,300332,1240706711.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天壕环境10月27日被深股通减持84.17万股</t>
+          <t>天壕环境10月28日被深股通减持108.43万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-28 07:46</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1240047233.html</t>
+          <t>/news,300332,1240600533.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>1256</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天壕环境接受76家机构调研！</t>
+          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-27 17:02</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1239887493.html</t>
+          <t>/news,300332,1240465048.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-27 16:53</t>
+          <t>10-28 09:10</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1239955885.html</t>
+          <t>/news,300332,1240061867.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
+          <t>天壕环境10月27日被深股通减持84.17万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-27 09:03</t>
+          <t>10-28 07:46</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1239508715.html</t>
+          <t>/news,300332,1240047233.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>688</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天壕环境10月26日被深股通减持70.43万股</t>
+          <t>天壕环境接受76家机构调研！</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-27 07:49</t>
+          <t>10-27 17:02</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1239497271.html</t>
+          <t>/news,300332,1239887493.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-26 19:48</t>
+          <t>10-27 16:53</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1239404765.html</t>
+          <t>/news,300332,1239955885.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
+          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-26 18:38</t>
+          <t>10-27 09:03</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1239385003.html</t>
+          <t>/news,300332,1239508715.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
+          <t>天壕环境10月26日被深股通减持70.43万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-26 12:56</t>
+          <t>10-27 07:49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1239194248.html</t>
+          <t>/news,300332,1239497271.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-26 12:39</t>
+          <t>10-26 19:48</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1239184216.html</t>
+          <t>/news,300332,1239404765.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
+          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,115 +1469,115 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-26 11:42</t>
+          <t>10-26 18:38</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1239171537.html</t>
+          <t>/news,300332,1239385003.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
+          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-26 11:37</t>
+          <t>10-26 12:56</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1239168937.html</t>
+          <t>/news,300332,1239194248.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>704</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-26 09:52</t>
+          <t>10-26 12:39</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1239048382.html</t>
+          <t>/news,300332,1239184216.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
+          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-26 09:51</t>
+          <t>10-26 11:42</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1239043260.html</t>
+          <t>/news,300332,1239171537.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
+          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-26 09:02</t>
+          <t>10-26 11:37</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1238981241.html</t>
+          <t>/news,300332,1239168937.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天壕环境10月25日获深股通增持50.07万股</t>
+          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 09:52</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1238968103.html</t>
+          <t>/news,300332,1239048382.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-25 19:43</t>
+          <t>10-26 09:51</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1238869154.html</t>
+          <t>/news,300332,1239043260.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天壕环境：前三季度净利润同比增长415.90%</t>
+          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 19:27</t>
+          <t>10-26 09:02</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1238864925.html</t>
+          <t>/news,300332,1238981241.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
+          <t>天壕环境10月25日获深股通增持50.07万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 16:58</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1238818536.html</t>
+          <t>/news,300332,1238968103.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
+          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 16:27</t>
+          <t>10-25 19:43</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1238808877.html</t>
+          <t>/news,300332,1238869154.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
+          <t>天壕环境：前三季度净利润同比增长415.90%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 19:27</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1238806429.html</t>
+          <t>/news,300332,1238864925.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
+          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 16:06</t>
+          <t>10-25 16:58</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1238803227.html</t>
+          <t>/news,300332,1238818536.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
+          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 08:54</t>
+          <t>10-25 16:27</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1238458609.html</t>
+          <t>/news,300332,1238808877.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境10月24日获深股通增持73.9万股</t>
+          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1238448588.html</t>
+          <t>/news,300332,1238806429.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>860</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
+          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 16:06</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1237859534.html</t>
+          <t>/news,300332,1238803227.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天壕环境10月21日获深股通增持58.93万股</t>
+          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 08:54</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1237796555.html</t>
+          <t>/news,300332,1238458609.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天壕环境10月20日被深股通减持23.37万股</t>
+          <t>天壕环境10月24日获深股通增持73.9万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-21 07:49</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1237348224.html</t>
+          <t>/news,300332,1238448588.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>789</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天壕环境10月19日被深股通减持2.68万股</t>
+          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1236888073.html</t>
+          <t>/news,300332,1237859534.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
+          <t>天壕环境10月21日获深股通增持58.93万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-19 15:02</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1236724772.html</t>
+          <t>/news,300332,1237796555.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境10月20日被深股通减持23.37万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-19 14:46</t>
+          <t>10-21 07:49</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1236709929.html</t>
+          <t>/news,300332,1237348224.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天壕环境10月18日被深股通减持16.05万股</t>
+          <t>天壕环境10月19日被深股通减持2.68万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1236439001.html</t>
+          <t>/news,300332,1236888073.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天壕环境10月17日被深股通减持61.84万股</t>
+          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-19 15:02</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1236041227.html</t>
+          <t>/news,300332,1236724772.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
+          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-19 14:46</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1235575701.html</t>
+          <t>/news,300332,1236709929.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天壕环境10月14日获深股通增持2.71万股</t>
+          <t>天壕环境10月18日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-15 07:47</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1235511242.html</t>
+          <t>/news,300332,1236439001.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天壕环境10月13日被深股通减持1.47万股</t>
+          <t>天壕环境10月17日被深股通减持61.84万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-14 07:51</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1235082412.html</t>
+          <t>/news,300332,1236041227.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>891</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,39 +2259,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天壕环境10月12日被深股通减持15.75万股</t>
+          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-13 07:58</t>
+          <t>10-16 14:05</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1234647085.html</t>
+          <t>/news,300332,1235575701.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天壕环境10月11日被深股通减持1.02万股</t>
+          <t>天壕环境10月14日获深股通增持2.71万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-15 07:47</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1234212878.html</t>
+          <t>/news,300332,1235511242.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天壕环境10月10日获深股通增持74.72万股</t>
+          <t>天壕环境10月13日被深股通减持1.47万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-11 07:50</t>
+          <t>10-14 07:51</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1233836904.html</t>
+          <t>/news,300332,1235082412.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天壕环境：“天壕转债”第三季度转股330股</t>
+          <t>天壕环境10月12日被深股通减持15.75万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,51 +2365,51 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-13 07:58</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1233707406.html</t>
+          <t>/news,300332,1234647085.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1382.37万元，居燃气板块第三</t>
+          <t>天壕环境10月11日被深股通减持1.02万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-12 07:50</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1233316547.html</t>
+          <t>/news,300332,1234212878.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天壕环境09月28日被深股通减持103.71万股</t>
+          <t>天壕环境10月10日获深股通增持74.72万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-29 07:52</t>
+          <t>10-11 07:50</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1232088078.html</t>
+          <t>/news,300332,1233836904.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天壕环境人气较昨日提升3076 现居飙升榜第六</t>
+          <t>天壕环境：“天壕转债”第三季度转股330股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>股市胖虎</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-28 10:09</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1231719853.html</t>
+          <t>/news,300332,1233707406.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>815</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天壕环境09月27日被深股通减持3.02万股</t>
+          <t>天壕环境本周深股通持股市值减少1382.37万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-28 07:46</t>
+          <t>10-09 14:04</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1231636584.html</t>
+          <t>/news,300332,1233316547.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天壕环境09月26日获深股通增持21.84万股</t>
+          <t>天壕环境09月28日被深股通减持103.71万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-27 07:44</t>
+          <t>09-29 07:52</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1231246369.html</t>
+          <t>/news,300332,1232088078.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>900</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少707.56万元，居燃气板块第三</t>
+          <t>天壕环境人气较昨日提升3076 现居飙升榜第六</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股市胖虎</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-25 14:03</t>
+          <t>09-28 10:09</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1230722083.html</t>
+          <t>/news,300332,1231719853.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境09月23日被深股通减持83.2万股</t>
+          <t>天壕环境09月27日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-24 07:52</t>
+          <t>09-28 07:46</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1230641087.html</t>
+          <t>/news,300332,1231636584.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级</t>
+          <t>天壕环境09月26日获深股通增持21.84万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-23 12:47</t>
+          <t>09-27 07:44</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1230430277.html</t>
+          <t>/news,300332,1231246369.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>948</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,39 +2643,39 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>天壕环境本周深股通持股市值减少707.56万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-23 12:36</t>
+          <t>09-25 14:03</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1230427333.html</t>
+          <t>/news,300332,1230722083.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境09月22日被深股通减持9.09万股</t>
+          <t>天壕环境09月23日被深股通减持83.2万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-23 07:42</t>
+          <t>09-24 07:52</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1230232783.html</t>
+          <t>/news,300332,1230641087.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天壕环境：与华电河北公司签订天然气供应战略合作协议</t>
+          <t>东吴证券给予天壕环境买入评级</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-22 18:20</t>
+          <t>09-23 12:47</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1230129754.html</t>
+          <t>/news,300332,1230430277.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>1073</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,39 +2739,39 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境09月21日被深股通减持73.13万股</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-22 08:02</t>
+          <t>09-23 12:36</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1229812804.html</t>
+          <t>/news,300332,1230427333.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境09月20日获深股通增持33.42万股</t>
+          <t>天壕环境09月22日被深股通减持9.09万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-21 07:51</t>
+          <t>09-23 07:42</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1229382775.html</t>
+          <t>/news,300332,1230232783.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>792</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加363.5万元，居燃气板块第四</t>
+          <t>天壕环境：与华电河北公司签订天然气供应战略合作协议</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-22 18:20</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1228440607.html</t>
+          <t>/news,300332,1230129754.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境09月16日获深股通增持36.28万股</t>
+          <t>天壕环境09月21日被深股通减持73.13万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-17 08:40</t>
+          <t>09-22 08:02</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1228360738.html</t>
+          <t>/news,300332,1229812804.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境09月15日被深股通减持69.12万股</t>
+          <t>天壕环境09月20日获深股通增持33.42万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,51 +2877,51 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-16 08:00</t>
+          <t>09-21 07:51</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1227925062.html</t>
+          <t>/news,300332,1229382775.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>1328</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境09月14日获深股通增持41.7万股</t>
+          <t>天壕环境本周深股通持股市值增加363.5万元，居燃气板块第四</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-15 08:13</t>
+          <t>09-18 14:04</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1227431269.html</t>
+          <t>/news,300332,1228440607.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加253.83万元，居燃气板块第三</t>
+          <t>天壕环境09月16日获深股通增持36.28万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-12 14:04</t>
+          <t>09-17 08:40</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1226593085.html</t>
+          <t>/news,300332,1228360738.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境09月09日被深股通减持9.56万股</t>
+          <t>天壕环境09月15日被深股通减持69.12万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-10 08:12</t>
+          <t>09-16 08:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1226486859.html</t>
+          <t>/news,300332,1227925062.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境09月08日获深股通增持15.04万股</t>
+          <t>天壕环境09月14日获深股通增持41.7万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-09 08:01</t>
+          <t>09-15 08:13</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1226098693.html</t>
+          <t>/news,300332,1227431269.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
+          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 08:46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1244901110.html</t>
+          <t>/news,300332,1245423620.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境11月09日被深股通减持5.04万股</t>
+          <t>天壕环境11月10日被深股通减持21.01万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-10 07:52</t>
+          <t>11-11 07:58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1244891594.html</t>
+          <t>/news,300332,1245414409.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
+          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-09 18:00</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1244788399.html</t>
+          <t>/news,300332,1245274849.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
+          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-09 08:48</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1244436172.html</t>
+          <t>/news,300332,1244901110.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境11月08日被深股通减持43.85万股</t>
+          <t>天壕环境11月09日被深股通减持5.04万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-10 07:52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1244426484.html</t>
+          <t>/news,300332,1244891594.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
+          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-09 18:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1243984572.html</t>
+          <t>/news,300332,1244788399.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境11月07日获深股通增持90.51万股</t>
+          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 08:48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1243976303.html</t>
+          <t>/news,300332,1244436172.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
+          <t>天壕环境11月08日被深股通减持43.85万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1243513721.html</t>
+          <t>/news,300332,1244426484.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
+          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1243408938.html</t>
+          <t>/news,300332,1243984572.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
+          <t>天壕环境11月07日获深股通增持90.51万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1243403871.html</t>
+          <t>/news,300332,1243976303.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天壕环境11月04日获深股通增持96.88万股</t>
+          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1243317870.html</t>
+          <t>/news,300332,1243513721.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
+          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1242826526.html</t>
+          <t>/news,300332,1243408938.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天壕环境11月03日获深股通增持46.33万股</t>
+          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1242815770.html</t>
+          <t>/news,300332,1243403871.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
+          <t>天壕环境11月04日获深股通增持96.88万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 08:54</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1242334790.html</t>
+          <t>/news,300332,1243317870.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天壕环境11月02日获深股通增持48.01万股</t>
+          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1242326444.html</t>
+          <t>/news,300332,1242826526.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
+          <t>天壕环境11月03日获深股通增持46.33万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-02 09:01</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1241811394.html</t>
+          <t>/news,300332,1242815770.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天壕环境11月01日获深股通增持1.71万股</t>
+          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-02 07:54</t>
+          <t>11-03 08:54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1241801859.html</t>
+          <t>/news,300332,1242334790.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
+          <t>天壕环境11月02日获深股通增持48.01万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1241305451.html</t>
+          <t>/news,300332,1242326444.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天壕环境10月31日被深股通减持30.15万股</t>
+          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 09:01</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1241297004.html</t>
+          <t>/news,300332,1241811394.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
+          <t>天壕环境11月01日获深股通增持1.71万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,83 +1085,83 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-31 09:10</t>
+          <t>11-02 07:54</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1240801149.html</t>
+          <t>/news,300332,1241801859.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
+          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-30 15:04</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1240711492.html</t>
+          <t>/news,300332,1241305451.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
+          <t>天壕环境10月31日被深股通减持30.15万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1240706711.html</t>
+          <t>/news,300332,1241297004.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天壕环境10月28日被深股通减持108.43万股</t>
+          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>10-31 09:10</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1240600533.html</t>
+          <t>/news,300332,1240801149.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1256</t>
+          <t>717</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
+          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-30 15:04</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1240465048.html</t>
+          <t>/news,300332,1240711492.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
+          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-28 09:10</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1240061867.html</t>
+          <t>/news,300332,1240706711.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天壕环境10月27日被深股通减持84.17万股</t>
+          <t>天壕环境10月28日被深股通减持108.43万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-28 07:46</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1240047233.html</t>
+          <t>/news,300332,1240600533.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>1286</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天壕环境接受76家机构调研！</t>
+          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-27 17:02</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1239887493.html</t>
+          <t>/news,300332,1240465048.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-27 16:53</t>
+          <t>10-28 09:10</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1239955885.html</t>
+          <t>/news,300332,1240061867.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
+          <t>天壕环境10月27日被深股通减持84.17万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-27 09:03</t>
+          <t>10-28 07:46</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1239508715.html</t>
+          <t>/news,300332,1240047233.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天壕环境10月26日被深股通减持70.43万股</t>
+          <t>天壕环境接受76家机构调研！</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-27 07:49</t>
+          <t>10-27 17:02</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1239497271.html</t>
+          <t>/news,300332,1239887493.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-26 19:48</t>
+          <t>10-27 16:53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1239404765.html</t>
+          <t>/news,300332,1239955885.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
+          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-26 18:38</t>
+          <t>10-27 09:03</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1239385003.html</t>
+          <t>/news,300332,1239508715.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
+          <t>天壕环境10月26日被深股通减持70.43万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-26 12:56</t>
+          <t>10-27 07:49</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1239194248.html</t>
+          <t>/news,300332,1239497271.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-26 12:39</t>
+          <t>10-26 19:48</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1239184216.html</t>
+          <t>/news,300332,1239404765.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
+          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,115 +1565,115 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-26 11:42</t>
+          <t>10-26 18:38</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1239171537.html</t>
+          <t>/news,300332,1239385003.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
+          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-26 11:37</t>
+          <t>10-26 12:56</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1239168937.html</t>
+          <t>/news,300332,1239194248.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-26 09:52</t>
+          <t>10-26 12:39</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1239048382.html</t>
+          <t>/news,300332,1239184216.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
+          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 09:51</t>
+          <t>10-26 11:42</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1239043260.html</t>
+          <t>/news,300332,1239171537.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
+          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-26 09:02</t>
+          <t>10-26 11:37</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1238981241.html</t>
+          <t>/news,300332,1239168937.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天壕环境10月25日获深股通增持50.07万股</t>
+          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 09:52</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1238968103.html</t>
+          <t>/news,300332,1239048382.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 19:43</t>
+          <t>10-26 09:51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1238869154.html</t>
+          <t>/news,300332,1239043260.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境：前三季度净利润同比增长415.90%</t>
+          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 19:27</t>
+          <t>10-26 09:02</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1238864925.html</t>
+          <t>/news,300332,1238981241.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
+          <t>天壕环境10月25日获深股通增持50.07万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 16:58</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1238818536.html</t>
+          <t>/news,300332,1238968103.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
+          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 16:27</t>
+          <t>10-25 19:43</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1238808877.html</t>
+          <t>/news,300332,1238869154.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
+          <t>天壕环境：前三季度净利润同比增长415.90%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 19:27</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1238806429.html</t>
+          <t>/news,300332,1238864925.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
+          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 16:06</t>
+          <t>10-25 16:58</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1238803227.html</t>
+          <t>/news,300332,1238818536.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
+          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 08:54</t>
+          <t>10-25 16:27</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1238458609.html</t>
+          <t>/news,300332,1238808877.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天壕环境10月24日获深股通增持73.9万股</t>
+          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1238448588.html</t>
+          <t>/news,300332,1238806429.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>885</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
+          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 16:06</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1237859534.html</t>
+          <t>/news,300332,1238803227.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境10月21日获深股通增持58.93万股</t>
+          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 08:54</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1237796555.html</t>
+          <t>/news,300332,1238458609.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天壕环境10月20日被深股通减持23.37万股</t>
+          <t>天壕环境10月24日获深股通增持73.9万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,51 +2077,51 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-21 07:49</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1237348224.html</t>
+          <t>/news,300332,1238448588.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>818</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天壕环境10月19日被深股通减持2.68万股</t>
+          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1236888073.html</t>
+          <t>/news,300332,1237859534.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
+          <t>天壕环境10月21日获深股通增持58.93万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-19 15:02</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1236724772.html</t>
+          <t>/news,300332,1237796555.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境10月20日被深股通减持23.37万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-19 14:46</t>
+          <t>10-21 07:49</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1236709929.html</t>
+          <t>/news,300332,1237348224.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天壕环境10月18日被深股通减持16.05万股</t>
+          <t>天壕环境10月19日被深股通减持2.68万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1236439001.html</t>
+          <t>/news,300332,1236888073.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天壕环境10月17日被深股通减持61.84万股</t>
+          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-19 15:02</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1236041227.html</t>
+          <t>/news,300332,1236724772.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>891</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
+          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-19 14:46</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1235575701.html</t>
+          <t>/news,300332,1236709929.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天壕环境10月14日获深股通增持2.71万股</t>
+          <t>天壕环境10月18日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-15 07:47</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1235511242.html</t>
+          <t>/news,300332,1236439001.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天壕环境10月13日被深股通减持1.47万股</t>
+          <t>天壕环境10月17日被深股通减持61.84万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-14 07:51</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1235082412.html</t>
+          <t>/news,300332,1236041227.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>892</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,39 +2355,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天壕环境10月12日被深股通减持15.75万股</t>
+          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-13 07:58</t>
+          <t>10-16 14:05</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1234647085.html</t>
+          <t>/news,300332,1235575701.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天壕环境10月11日被深股通减持1.02万股</t>
+          <t>天壕环境10月14日获深股通增持2.71万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-15 07:47</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1234212878.html</t>
+          <t>/news,300332,1235511242.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天壕环境10月10日获深股通增持74.72万股</t>
+          <t>天壕环境10月13日被深股通减持1.47万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-11 07:50</t>
+          <t>10-14 07:51</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1233836904.html</t>
+          <t>/news,300332,1235082412.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天壕环境：“天壕转债”第三季度转股330股</t>
+          <t>天壕环境10月12日被深股通减持15.75万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,51 +2461,51 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-13 07:58</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1233707406.html</t>
+          <t>/news,300332,1234647085.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1382.37万元，居燃气板块第三</t>
+          <t>天壕环境10月11日被深股通减持1.02万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-12 07:50</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1233316547.html</t>
+          <t>/news,300332,1234212878.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天壕环境09月28日被深股通减持103.71万股</t>
+          <t>天壕环境10月10日获深股通增持74.72万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-29 07:52</t>
+          <t>10-11 07:50</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1232088078.html</t>
+          <t>/news,300332,1233836904.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天壕环境人气较昨日提升3076 现居飙升榜第六</t>
+          <t>天壕环境：“天壕转债”第三季度转股330股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>股市胖虎</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-28 10:09</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1231719853.html</t>
+          <t>/news,300332,1233707406.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>815</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境09月27日被深股通减持3.02万股</t>
+          <t>天壕环境本周深股通持股市值减少1382.37万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-28 07:46</t>
+          <t>10-09 14:04</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1231636584.html</t>
+          <t>/news,300332,1233316547.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天壕环境09月26日获深股通增持21.84万股</t>
+          <t>天壕环境09月28日被深股通减持103.71万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-27 07:44</t>
+          <t>09-29 07:52</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1231246369.html</t>
+          <t>/news,300332,1232088078.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>902</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少707.56万元，居燃气板块第三</t>
+          <t>天壕环境人气较昨日提升3076 现居飙升榜第六</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股市胖虎</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-25 14:03</t>
+          <t>09-28 10:09</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1230722083.html</t>
+          <t>/news,300332,1231719853.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境09月23日被深股通减持83.2万股</t>
+          <t>天壕环境09月27日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-24 07:52</t>
+          <t>09-28 07:46</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1230641087.html</t>
+          <t>/news,300332,1231636584.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级</t>
+          <t>天壕环境09月26日获深股通增持21.84万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-23 12:47</t>
+          <t>09-27 07:44</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1230430277.html</t>
+          <t>/news,300332,1231246369.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1073</t>
+          <t>950</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,39 +2739,39 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>天壕环境本周深股通持股市值减少707.56万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-23 12:36</t>
+          <t>09-25 14:03</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1230427333.html</t>
+          <t>/news,300332,1230722083.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>484</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境09月22日被深股通减持9.09万股</t>
+          <t>天壕环境09月23日被深股通减持83.2万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-23 07:42</t>
+          <t>09-24 07:52</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1230232783.html</t>
+          <t>/news,300332,1230641087.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>666</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天壕环境：与华电河北公司签订天然气供应战略合作协议</t>
+          <t>东吴证券给予天壕环境买入评级</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-22 18:20</t>
+          <t>09-23 12:47</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1230129754.html</t>
+          <t>/news,300332,1230430277.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>1076</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,39 +2835,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境09月21日被深股通减持73.13万股</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-22 08:02</t>
+          <t>09-23 12:36</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1229812804.html</t>
+          <t>/news,300332,1230427333.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境09月20日获深股通增持33.42万股</t>
+          <t>天壕环境09月22日被深股通减持9.09万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,51 +2877,51 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-21 07:51</t>
+          <t>09-23 07:42</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1229382775.html</t>
+          <t>/news,300332,1230232783.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>794</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加363.5万元，居燃气板块第四</t>
+          <t>天壕环境：与华电河北公司签订天然气供应战略合作协议</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-22 18:20</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1228440607.html</t>
+          <t>/news,300332,1230129754.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境09月16日获深股通增持36.28万股</t>
+          <t>天壕环境09月21日被深股通减持73.13万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-17 08:40</t>
+          <t>09-22 08:02</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1228360738.html</t>
+          <t>/news,300332,1229812804.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境09月15日被深股通减持69.12万股</t>
+          <t>天壕环境09月20日获深股通增持33.42万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-16 08:00</t>
+          <t>09-21 07:51</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1227925062.html</t>
+          <t>/news,300332,1229382775.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>1329</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境09月14日获深股通增持41.7万股</t>
+          <t>天壕环境本周深股通持股市值增加363.5万元，居燃气板块第四</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-15 08:13</t>
+          <t>09-18 14:04</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1227431269.html</t>
+          <t>/news,300332,1228440607.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
+          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-11 08:46</t>
+          <t>11-13 15:03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1245423620.html</t>
+          <t>/news,300332,1246098041.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境11月10日被深股通减持21.01万股</t>
+          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-11 07:58</t>
+          <t>11-13 14:04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1245414409.html</t>
+          <t>/news,300332,1246093182.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
+          <t>天壕环境11月11日被深股通减持39.15万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-12 07:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1245274849.html</t>
+          <t>/news,300332,1245986756.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
+          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 08:46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1244901110.html</t>
+          <t>/news,300332,1245423620.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境11月09日被深股通减持5.04万股</t>
+          <t>天壕环境11月10日被深股通减持21.01万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-10 07:52</t>
+          <t>11-11 07:58</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1244891594.html</t>
+          <t>/news,300332,1245414409.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>705</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
+          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-09 18:00</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1244788399.html</t>
+          <t>/news,300332,1245274849.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
+          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-09 08:48</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1244436172.html</t>
+          <t>/news,300332,1244901110.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境11月08日被深股通减持43.85万股</t>
+          <t>天壕环境11月09日被深股通减持5.04万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-10 07:52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1244426484.html</t>
+          <t>/news,300332,1244891594.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
+          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-09 18:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1243984572.html</t>
+          <t>/news,300332,1244788399.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天壕环境11月07日获深股通增持90.51万股</t>
+          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 08:48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1243976303.html</t>
+          <t>/news,300332,1244436172.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
+          <t>天壕环境11月08日被深股通减持43.85万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1243513721.html</t>
+          <t>/news,300332,1244426484.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
+          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1243408938.html</t>
+          <t>/news,300332,1243984572.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
+          <t>天壕环境11月07日获深股通增持90.51万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1243403871.html</t>
+          <t>/news,300332,1243976303.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天壕环境11月04日获深股通增持96.88万股</t>
+          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1243317870.html</t>
+          <t>/news,300332,1243513721.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>475</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
+          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1242826526.html</t>
+          <t>/news,300332,1243408938.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天壕环境11月03日获深股通增持46.33万股</t>
+          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1242815770.html</t>
+          <t>/news,300332,1243403871.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
+          <t>天壕环境11月04日获深股通增持96.88万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-03 08:54</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1242334790.html</t>
+          <t>/news,300332,1243317870.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天壕环境11月02日获深股通增持48.01万股</t>
+          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1242326444.html</t>
+          <t>/news,300332,1242826526.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
+          <t>天壕环境11月03日获深股通增持46.33万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-02 09:01</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1241811394.html</t>
+          <t>/news,300332,1242815770.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天壕环境11月01日获深股通增持1.71万股</t>
+          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-02 07:54</t>
+          <t>11-03 08:54</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1241801859.html</t>
+          <t>/news,300332,1242334790.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
+          <t>天壕环境11月02日获深股通增持48.01万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1241305451.html</t>
+          <t>/news,300332,1242326444.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天壕环境10月31日被深股通减持30.15万股</t>
+          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 09:01</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1241297004.html</t>
+          <t>/news,300332,1241811394.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
+          <t>天壕环境11月01日获深股通增持1.71万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,83 +1181,83 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-31 09:10</t>
+          <t>11-02 07:54</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1240801149.html</t>
+          <t>/news,300332,1241801859.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
+          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-30 15:04</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1240711492.html</t>
+          <t>/news,300332,1241305451.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
+          <t>天壕环境10月31日被深股通减持30.15万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1240706711.html</t>
+          <t>/news,300332,1241297004.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天壕环境10月28日被深股通减持108.43万股</t>
+          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>10-31 09:10</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1240600533.html</t>
+          <t>/news,300332,1240801149.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1286</t>
+          <t>813</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
+          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-30 15:04</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1240465048.html</t>
+          <t>/news,300332,1240711492.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
+          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 09:10</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1240061867.html</t>
+          <t>/news,300332,1240706711.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天壕环境10月27日被深股通减持84.17万股</t>
+          <t>天壕环境10月28日被深股通减持108.43万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 07:46</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1240047233.html</t>
+          <t>/news,300332,1240600533.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>1391</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天壕环境接受76家机构调研！</t>
+          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-27 17:02</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1239887493.html</t>
+          <t>/news,300332,1240465048.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-27 16:53</t>
+          <t>10-28 09:10</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1239955885.html</t>
+          <t>/news,300332,1240061867.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
+          <t>天壕环境10月27日被深股通减持84.17万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-27 09:03</t>
+          <t>10-28 07:46</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1239508715.html</t>
+          <t>/news,300332,1240047233.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>725</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天壕环境10月26日被深股通减持70.43万股</t>
+          <t>天壕环境接受76家机构调研！</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-27 07:49</t>
+          <t>10-27 17:02</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1239497271.html</t>
+          <t>/news,300332,1239887493.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-26 19:48</t>
+          <t>10-27 16:53</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1239404765.html</t>
+          <t>/news,300332,1239955885.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
+          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-26 18:38</t>
+          <t>10-27 09:03</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1239385003.html</t>
+          <t>/news,300332,1239508715.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
+          <t>天壕环境10月26日被深股通减持70.43万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-26 12:56</t>
+          <t>10-27 07:49</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1239194248.html</t>
+          <t>/news,300332,1239497271.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>744</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-26 12:39</t>
+          <t>10-26 19:48</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1239184216.html</t>
+          <t>/news,300332,1239404765.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
+          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,115 +1661,115 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 11:42</t>
+          <t>10-26 18:38</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1239171537.html</t>
+          <t>/news,300332,1239385003.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
+          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-26 11:37</t>
+          <t>10-26 12:56</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1239168937.html</t>
+          <t>/news,300332,1239194248.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>849</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 09:52</t>
+          <t>10-26 12:39</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1239048382.html</t>
+          <t>/news,300332,1239184216.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
+          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 09:51</t>
+          <t>10-26 11:42</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1239043260.html</t>
+          <t>/news,300332,1239171537.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
+          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-26 09:02</t>
+          <t>10-26 11:37</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1238981241.html</t>
+          <t>/news,300332,1239168937.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天壕环境10月25日获深股通增持50.07万股</t>
+          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 09:52</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1238968103.html</t>
+          <t>/news,300332,1239048382.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 19:43</t>
+          <t>10-26 09:51</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1238869154.html</t>
+          <t>/news,300332,1239043260.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境：前三季度净利润同比增长415.90%</t>
+          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 19:27</t>
+          <t>10-26 09:02</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1238864925.html</t>
+          <t>/news,300332,1238981241.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
+          <t>天壕环境10月25日获深股通增持50.07万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 16:58</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1238818536.html</t>
+          <t>/news,300332,1238968103.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
+          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 16:27</t>
+          <t>10-25 19:43</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1238808877.html</t>
+          <t>/news,300332,1238869154.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
+          <t>天壕环境：前三季度净利润同比增长415.90%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 19:27</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1238806429.html</t>
+          <t>/news,300332,1238864925.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
+          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 16:06</t>
+          <t>10-25 16:58</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1238803227.html</t>
+          <t>/news,300332,1238818536.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
+          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 08:54</t>
+          <t>10-25 16:27</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1238458609.html</t>
+          <t>/news,300332,1238808877.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天壕环境10月24日获深股通增持73.9万股</t>
+          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1238448588.html</t>
+          <t>/news,300332,1238806429.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>984</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
+          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 16:06</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1237859534.html</t>
+          <t>/news,300332,1238803227.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天壕环境10月21日获深股通增持58.93万股</t>
+          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 08:54</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1237796555.html</t>
+          <t>/news,300332,1238458609.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天壕环境10月20日被深股通减持23.37万股</t>
+          <t>天壕环境10月24日获深股通增持73.9万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,51 +2173,51 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-21 07:49</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1237348224.html</t>
+          <t>/news,300332,1238448588.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>921</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天壕环境10月19日被深股通减持2.68万股</t>
+          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1236888073.html</t>
+          <t>/news,300332,1237859534.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
+          <t>天壕环境10月21日获深股通增持58.93万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-19 15:02</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1236724772.html</t>
+          <t>/news,300332,1237796555.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境10月20日被深股通减持23.37万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-19 14:46</t>
+          <t>10-21 07:49</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1236709929.html</t>
+          <t>/news,300332,1237348224.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天壕环境10月18日被深股通减持16.05万股</t>
+          <t>天壕环境10月19日被深股通减持2.68万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1236439001.html</t>
+          <t>/news,300332,1236888073.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天壕环境10月17日被深股通减持61.84万股</t>
+          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-19 15:02</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1236041227.html</t>
+          <t>/news,300332,1236724772.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>892</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
+          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-19 14:46</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1235575701.html</t>
+          <t>/news,300332,1236709929.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天壕环境10月14日获深股通增持2.71万股</t>
+          <t>天壕环境10月18日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-15 07:47</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1235511242.html</t>
+          <t>/news,300332,1236439001.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天壕环境10月13日被深股通减持1.47万股</t>
+          <t>天壕环境10月17日被深股通减持61.84万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-14 07:51</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1235082412.html</t>
+          <t>/news,300332,1236041227.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>895</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,39 +2451,39 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天壕环境10月12日被深股通减持15.75万股</t>
+          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-13 07:58</t>
+          <t>10-16 14:05</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1234647085.html</t>
+          <t>/news,300332,1235575701.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天壕环境10月11日被深股通减持1.02万股</t>
+          <t>天壕环境10月14日获深股通增持2.71万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-15 07:47</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1234212878.html</t>
+          <t>/news,300332,1235511242.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天壕环境10月10日获深股通增持74.72万股</t>
+          <t>天壕环境10月13日被深股通减持1.47万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-11 07:50</t>
+          <t>10-14 07:51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1233836904.html</t>
+          <t>/news,300332,1235082412.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天壕环境：“天壕转债”第三季度转股330股</t>
+          <t>天壕环境10月12日被深股通减持15.75万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,51 +2557,51 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-13 07:58</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1233707406.html</t>
+          <t>/news,300332,1234647085.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1382.37万元，居燃气板块第三</t>
+          <t>天壕环境10月11日被深股通减持1.02万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-12 07:50</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1233316547.html</t>
+          <t>/news,300332,1234212878.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天壕环境09月28日被深股通减持103.71万股</t>
+          <t>天壕环境10月10日获深股通增持74.72万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-29 07:52</t>
+          <t>10-11 07:50</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1232088078.html</t>
+          <t>/news,300332,1233836904.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>902</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境人气较昨日提升3076 现居飙升榜第六</t>
+          <t>天壕环境：“天壕转债”第三季度转股330股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>股市胖虎</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-28 10:09</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1231719853.html</t>
+          <t>/news,300332,1233707406.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>815</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境09月27日被深股通减持3.02万股</t>
+          <t>天壕环境本周深股通持股市值减少1382.37万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-28 07:46</t>
+          <t>10-09 14:04</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1231636584.html</t>
+          <t>/news,300332,1233316547.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天壕环境09月26日获深股通增持21.84万股</t>
+          <t>天壕环境09月28日被深股通减持103.71万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-27 07:44</t>
+          <t>09-29 07:52</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1231246369.html</t>
+          <t>/news,300332,1232088078.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>901</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少707.56万元，居燃气板块第三</t>
+          <t>天壕环境人气较昨日提升3076 现居飙升榜第六</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股市胖虎</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-25 14:03</t>
+          <t>09-28 10:09</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1230722083.html</t>
+          <t>/news,300332,1231719853.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境09月23日被深股通减持83.2万股</t>
+          <t>天壕环境09月27日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-24 07:52</t>
+          <t>09-28 07:46</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1230641087.html</t>
+          <t>/news,300332,1231636584.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级</t>
+          <t>天壕环境09月26日获深股通增持21.84万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-23 12:47</t>
+          <t>09-27 07:44</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1230430277.html</t>
+          <t>/news,300332,1231246369.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1076</t>
+          <t>948</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,39 +2835,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>天壕环境本周深股通持股市值减少707.56万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-23 12:36</t>
+          <t>09-25 14:03</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1230427333.html</t>
+          <t>/news,300332,1230722083.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境09月22日被深股通减持9.09万股</t>
+          <t>天壕环境09月23日被深股通减持83.2万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-23 07:42</t>
+          <t>09-24 07:52</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1230232783.html</t>
+          <t>/news,300332,1230641087.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>794</t>
+          <t>666</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境：与华电河北公司签订天然气供应战略合作协议</t>
+          <t>东吴证券给予天壕环境买入评级</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-22 18:20</t>
+          <t>09-23 12:47</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1230129754.html</t>
+          <t>/news,300332,1230430277.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,39 +2931,39 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境09月21日被深股通减持73.13万股</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-22 08:02</t>
+          <t>09-23 12:36</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1229812804.html</t>
+          <t>/news,300332,1230427333.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境09月20日获深股通增持33.42万股</t>
+          <t>天壕环境09月22日被深股通减持9.09万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-21 07:51</t>
+          <t>09-23 07:42</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1229382775.html</t>
+          <t>/news,300332,1230232783.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1329</t>
+          <t>794</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加363.5万元，居燃气板块第四</t>
+          <t>天壕环境：与华电河北公司签订天然气供应战略合作协议</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-18 14:04</t>
+          <t>09-22 18:20</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1228440607.html</t>
+          <t>/news,300332,1230129754.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>102</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-13 15:03</t>
+          <t>11-15 09:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1246098041.html</t>
+          <t>/news,300332,1246700508.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
+          <t>天壕环境11月14日被深股通减持59.73万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-13 14:04</t>
+          <t>11-15 07:45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1246093182.html</t>
+          <t>/news,300332,1246689367.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天壕环境11月11日被深股通减持39.15万股</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-12 07:50</t>
+          <t>11-14 18:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1245986756.html</t>
+          <t>/news,300332,1246572597.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
+          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-11 08:46</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1245423620.html</t>
+          <t>/news,300332,1246197232.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,71 +595,71 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境11月10日被深股通减持21.01万股</t>
+          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-11 07:58</t>
+          <t>11-13 15:03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1245414409.html</t>
+          <t>/news,300332,1246098041.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
+          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-13 14:04</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1245274849.html</t>
+          <t>/news,300332,1246093182.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
+          <t>天壕环境11月11日被深股通减持39.15万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-12 07:50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1244901110.html</t>
+          <t>/news,300332,1245986756.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境11月09日被深股通减持5.04万股</t>
+          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-10 07:52</t>
+          <t>11-11 08:46</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1244891594.html</t>
+          <t>/news,300332,1245423620.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
+          <t>天壕环境11月10日被深股通减持21.01万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-09 18:00</t>
+          <t>11-11 07:58</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1244788399.html</t>
+          <t>/news,300332,1245414409.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
+          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-09 08:48</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1244436172.html</t>
+          <t>/news,300332,1245274849.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天壕环境11月08日被深股通减持43.85万股</t>
+          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1244426484.html</t>
+          <t>/news,300332,1244901110.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
+          <t>天壕环境11月09日被深股通减持5.04万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-10 07:52</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1243984572.html</t>
+          <t>/news,300332,1244891594.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天壕环境11月07日获深股通增持90.51万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 18:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1243976303.html</t>
+          <t>/news,300332,1244788399.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
+          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-09 08:48</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1243513721.html</t>
+          <t>/news,300332,1244436172.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
+          <t>天壕环境11月08日被深股通减持43.85万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1243408938.html</t>
+          <t>/news,300332,1244426484.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
+          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1243403871.html</t>
+          <t>/news,300332,1243984572.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天壕环境11月04日获深股通增持96.88万股</t>
+          <t>天壕环境11月07日获深股通增持90.51万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1243317870.html</t>
+          <t>/news,300332,1243976303.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
+          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1242826526.html</t>
+          <t>/news,300332,1243513721.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天壕环境11月03日获深股通增持46.33万股</t>
+          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1242815770.html</t>
+          <t>/news,300332,1243408938.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,39 +1075,39 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
+          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-03 08:54</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1242334790.html</t>
+          <t>/news,300332,1243403871.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天壕环境11月02日获深股通增持48.01万股</t>
+          <t>天壕环境11月04日获深股通增持96.88万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1242326444.html</t>
+          <t>/news,300332,1243317870.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
+          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-02 09:01</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1241811394.html</t>
+          <t>/news,300332,1242826526.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天壕环境11月01日获深股通增持1.71万股</t>
+          <t>天壕环境11月03日获深股通增持46.33万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-02 07:54</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1241801859.html</t>
+          <t>/news,300332,1242815770.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
+          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-03 08:54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1241305451.html</t>
+          <t>/news,300332,1242334790.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天壕环境10月31日被深股通减持30.15万股</t>
+          <t>天壕环境11月02日获深股通增持48.01万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1241297004.html</t>
+          <t>/news,300332,1242326444.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
+          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-31 09:10</t>
+          <t>11-02 09:01</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1240801149.html</t>
+          <t>/news,300332,1241811394.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
+          <t>天壕环境11月01日获深股通增持1.71万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-30 15:04</t>
+          <t>11-02 07:54</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1240711492.html</t>
+          <t>/news,300332,1241801859.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,39 +1331,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
+          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1240706711.html</t>
+          <t>/news,300332,1241305451.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天壕环境10月28日被深股通减持108.43万股</t>
+          <t>天壕环境10月31日被深股通减持30.15万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,83 +1373,83 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1240600533.html</t>
+          <t>/news,300332,1241297004.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1391</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
+          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-31 09:10</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1240465048.html</t>
+          <t>/news,300332,1240801149.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>867</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
+          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 09:10</t>
+          <t>10-30 15:04</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1240061867.html</t>
+          <t>/news,300332,1240711492.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>810</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天壕环境10月27日被深股通减持84.17万股</t>
+          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 07:46</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1240047233.html</t>
+          <t>/news,300332,1240706711.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天壕环境接受76家机构调研！</t>
+          <t>天壕环境10月28日被深股通减持108.43万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,51 +1501,51 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-27 17:02</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1239887493.html</t>
+          <t>/news,300332,1240600533.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>1446</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-27 16:53</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1239955885.html</t>
+          <t>/news,300332,1240465048.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
+          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-27 09:03</t>
+          <t>10-28 09:10</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1239508715.html</t>
+          <t>/news,300332,1240061867.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天壕环境10月26日被深股通减持70.43万股</t>
+          <t>天壕环境10月27日被深股通减持84.17万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,51 +1597,51 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-27 07:49</t>
+          <t>10-28 07:46</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1239497271.html</t>
+          <t>/news,300332,1240047233.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>744</t>
+          <t>733</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境接受76家机构调研！</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-26 19:48</t>
+          <t>10-27 17:02</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1239404765.html</t>
+          <t>/news,300332,1239887493.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 18:38</t>
+          <t>10-27 16:53</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1239385003.html</t>
+          <t>/news,300332,1239955885.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
+          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,83 +1693,83 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-26 12:56</t>
+          <t>10-27 09:03</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1239194248.html</t>
+          <t>/news,300332,1239508715.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>天壕环境10月26日被深股通减持70.43万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 12:39</t>
+          <t>10-27 07:49</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1239184216.html</t>
+          <t>/news,300332,1239497271.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>805</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 11:42</t>
+          <t>10-26 19:48</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1239171537.html</t>
+          <t>/news,300332,1239404765.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,39 +1779,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
+          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-26 11:37</t>
+          <t>10-26 18:38</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1239168937.html</t>
+          <t>/news,300332,1239385003.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
+          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-26 09:52</t>
+          <t>10-26 12:56</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1239048382.html</t>
+          <t>/news,300332,1239194248.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>908</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-26 09:51</t>
+          <t>10-26 12:39</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1239043260.html</t>
+          <t>/news,300332,1239184216.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
+          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-26 09:02</t>
+          <t>10-26 11:42</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1238981241.html</t>
+          <t>/news,300332,1239171537.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天壕环境10月25日获深股通增持50.07万股</t>
+          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 11:37</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1238968103.html</t>
+          <t>/news,300332,1239168937.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
+          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 19:43</t>
+          <t>10-26 09:52</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1238869154.html</t>
+          <t>/news,300332,1239048382.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,39 +1971,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天壕环境：前三季度净利润同比增长415.90%</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 19:27</t>
+          <t>10-26 09:51</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1238864925.html</t>
+          <t>/news,300332,1239043260.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
+          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 16:58</t>
+          <t>10-26 09:02</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1238818536.html</t>
+          <t>/news,300332,1238981241.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
+          <t>天壕环境10月25日获深股通增持50.07万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 16:27</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1238808877.html</t>
+          <t>/news,300332,1238968103.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
+          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,61 +2077,61 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 19:43</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1238806429.html</t>
+          <t>/news,300332,1238869154.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>984</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
+          <t>天壕环境：前三季度净利润同比增长415.90%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 16:06</t>
+          <t>10-25 19:27</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1238803227.html</t>
+          <t>/news,300332,1238864925.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
+          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 08:54</t>
+          <t>10-25 16:58</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1238458609.html</t>
+          <t>/news,300332,1238818536.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天壕环境10月24日获深股通增持73.9万股</t>
+          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,83 +2173,83 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 16:27</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1238448588.html</t>
+          <t>/news,300332,1238808877.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
+          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1237859534.html</t>
+          <t>/news,300332,1238806429.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>1045</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天壕环境10月21日获深股通增持58.93万股</t>
+          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 16:06</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1237796555.html</t>
+          <t>/news,300332,1238803227.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天壕环境10月20日被深股通减持23.37万股</t>
+          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-21 07:49</t>
+          <t>10-25 08:54</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1237348224.html</t>
+          <t>/news,300332,1238458609.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天壕环境10月19日被深股通减持2.68万股</t>
+          <t>天壕环境10月24日获深股通增持73.9万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,51 +2301,51 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1236888073.html</t>
+          <t>/news,300332,1238448588.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>922</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
+          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-19 15:02</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1236724772.html</t>
+          <t>/news,300332,1237859534.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境10月21日获深股通增持58.93万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-19 14:46</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1236709929.html</t>
+          <t>/news,300332,1237796555.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天壕环境10月18日被深股通减持16.05万股</t>
+          <t>天壕环境10月20日被深股通减持23.37万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-21 07:49</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1236439001.html</t>
+          <t>/news,300332,1237348224.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天壕环境10月17日被深股通减持61.84万股</t>
+          <t>天壕环境10月19日被深股通减持2.68万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1236041227.html</t>
+          <t>/news,300332,1236888073.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>895</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
+          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-19 15:02</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1235575701.html</t>
+          <t>/news,300332,1236724772.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天壕环境10月14日获深股通增持2.71万股</t>
+          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-15 07:47</t>
+          <t>10-19 14:46</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1235511242.html</t>
+          <t>/news,300332,1236709929.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天壕环境10月13日被深股通减持1.47万股</t>
+          <t>天壕环境10月18日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-14 07:51</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1235082412.html</t>
+          <t>/news,300332,1236439001.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天壕环境10月12日被深股通减持15.75万股</t>
+          <t>天壕环境10月17日被深股通减持61.84万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,51 +2557,51 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-13 07:58</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1234647085.html</t>
+          <t>/news,300332,1236041227.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>896</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境10月11日被深股通减持1.02万股</t>
+          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-16 14:05</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1234212878.html</t>
+          <t>/news,300332,1235575701.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天壕环境10月10日获深股通增持74.72万股</t>
+          <t>天壕环境10月14日获深股通增持2.71万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-11 07:50</t>
+          <t>10-15 07:47</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1233836904.html</t>
+          <t>/news,300332,1235511242.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境：“天壕转债”第三季度转股330股</t>
+          <t>天壕环境10月13日被深股通减持1.47万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-14 07:51</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1233707406.html</t>
+          <t>/news,300332,1235082412.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,39 +2675,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1382.37万元，居燃气板块第三</t>
+          <t>天壕环境10月12日被深股通减持15.75万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-13 07:58</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1233316547.html</t>
+          <t>/news,300332,1234647085.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天壕环境09月28日被深股通减持103.71万股</t>
+          <t>天壕环境10月11日被深股通减持1.02万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-29 07:52</t>
+          <t>10-12 07:50</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1232088078.html</t>
+          <t>/news,300332,1234212878.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境人气较昨日提升3076 现居飙升榜第六</t>
+          <t>天壕环境10月10日获深股通增持74.72万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>股市胖虎</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-28 10:09</t>
+          <t>10-11 07:50</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1231719853.html</t>
+          <t>/news,300332,1233836904.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境09月27日被深股通减持3.02万股</t>
+          <t>天壕环境：“天壕转债”第三季度转股330股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-28 07:46</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1231636584.html</t>
+          <t>/news,300332,1233707406.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>815</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天壕环境09月26日获深股通增持21.84万股</t>
+          <t>天壕环境本周深股通持股市值减少1382.37万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-27 07:44</t>
+          <t>10-09 14:04</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1231246369.html</t>
+          <t>/news,300332,1233316547.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少707.56万元，居燃气板块第三</t>
+          <t>天壕环境09月28日被深股通减持103.71万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-25 14:03</t>
+          <t>09-29 07:52</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1230722083.html</t>
+          <t>/news,300332,1232088078.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>901</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,39 +2867,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境09月23日被深股通减持83.2万股</t>
+          <t>天壕环境人气较昨日提升3076 现居飙升榜第六</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>股市胖虎</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-24 07:52</t>
+          <t>09-28 10:09</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1230641087.html</t>
+          <t>/news,300332,1231719853.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级</t>
+          <t>天壕环境09月27日被深股通减持3.02万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-23 12:47</t>
+          <t>09-28 07:46</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1230430277.html</t>
+          <t>/news,300332,1231636584.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,71 +2931,71 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>天壕环境09月26日获深股通增持21.84万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-23 12:36</t>
+          <t>09-27 07:44</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1230427333.html</t>
+          <t>/news,300332,1231246369.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>948</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境09月22日被深股通减持9.09万股</t>
+          <t>天壕环境本周深股通持股市值减少707.56万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-23 07:42</t>
+          <t>09-25 14:03</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1230232783.html</t>
+          <t>/news,300332,1230722083.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>794</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境：与华电河北公司签订天然气供应战略合作协议</t>
+          <t>天壕环境09月23日被深股通减持83.2万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-22 18:20</t>
+          <t>09-24 07:52</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1230129754.html</t>
+          <t>/news,300332,1230641087.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
+          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-15 09:00</t>
+          <t>11-17 08:46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1246700508.html</t>
+          <t>/news,300332,1247676194.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境11月14日被深股通减持59.73万股</t>
+          <t>天壕环境11月16日被深股通减持16.06万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-15 07:45</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1246689367.html</t>
+          <t>/news,300332,1247664267.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
+          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-14 18:00</t>
+          <t>11-16 08:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1246572597.html</t>
+          <t>/news,300332,1247184272.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
+          <t>天壕环境11月15日获深股通增持24.7万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,93 +573,93 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-16 08:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1246197232.html</t>
+          <t>/news,300332,1247177109.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>907</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-13 15:03</t>
+          <t>11-15 18:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1246098041.html</t>
+          <t>/news,300332,1247068898.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
+          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-13 14:04</t>
+          <t>11-15 09:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1246093182.html</t>
+          <t>/news,300332,1246700508.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境11月11日被深股通减持39.15万股</t>
+          <t>天壕环境11月14日被深股通减持59.73万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-12 07:50</t>
+          <t>11-15 07:45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1245986756.html</t>
+          <t>/news,300332,1246689367.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>816</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-11 08:46</t>
+          <t>11-14 18:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1245423620.html</t>
+          <t>/news,300332,1246572597.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天壕环境11月10日被深股通减持21.01万股</t>
+          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,51 +733,51 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-11 07:58</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1245414409.html</t>
+          <t>/news,300332,1246197232.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
+          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-13 15:03</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1245274849.html</t>
+          <t>/news,300332,1246098041.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
+          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-13 14:04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1244901110.html</t>
+          <t>/news,300332,1246093182.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境11月09日被深股通减持5.04万股</t>
+          <t>天壕环境11月11日被深股通减持39.15万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-10 07:52</t>
+          <t>11-12 07:50</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1244891594.html</t>
+          <t>/news,300332,1245986756.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
+          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-09 18:00</t>
+          <t>11-11 08:46</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1244788399.html</t>
+          <t>/news,300332,1245423620.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
+          <t>天壕环境11月10日被深股通减持21.01万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-09 08:48</t>
+          <t>11-11 07:58</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1244436172.html</t>
+          <t>/news,300332,1245414409.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>803</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天壕环境11月08日被深股通减持43.85万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1244426484.html</t>
+          <t>/news,300332,1245274849.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
+          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1243984572.html</t>
+          <t>/news,300332,1244901110.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天壕环境11月07日获深股通增持90.51万股</t>
+          <t>天壕环境11月09日被深股通减持5.04万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-10 07:52</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1243976303.html</t>
+          <t>/news,300332,1244891594.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
+          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-09 18:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1243513721.html</t>
+          <t>/news,300332,1244788399.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
+          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-09 08:48</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1243408938.html</t>
+          <t>/news,300332,1244436172.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
+          <t>天壕环境11月08日被深股通减持43.85万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1243403871.html</t>
+          <t>/news,300332,1244426484.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天壕环境11月04日获深股通增持96.88万股</t>
+          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1243317870.html</t>
+          <t>/news,300332,1243984572.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
+          <t>天壕环境11月07日获深股通增持90.51万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1242826526.html</t>
+          <t>/news,300332,1243976303.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天壕环境11月03日获深股通增持46.33万股</t>
+          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1242815770.html</t>
+          <t>/news,300332,1243513721.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,61 +1203,61 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
+          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-03 08:54</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1242334790.html</t>
+          <t>/news,300332,1243408938.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天壕环境11月02日获深股通增持48.01万股</t>
+          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1242326444.html</t>
+          <t>/news,300332,1243403871.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
+          <t>天壕环境11月04日获深股通增持96.88万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-02 09:01</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1241811394.html</t>
+          <t>/news,300332,1243317870.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天壕环境11月01日获深股通增持1.71万股</t>
+          <t>天壕环境：融资净买入348.21万元，融</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-02 07:54</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1241801859.html</t>
+          <t>/news,300332,1242826526.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
+          <t>天壕环境11月03日获深股通增持46.33万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1241305451.html</t>
+          <t>/news,300332,1242815770.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天壕环境10月31日被深股通减持30.15万股</t>
+          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-03 08:54</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1241297004.html</t>
+          <t>/news,300332,1242334790.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
+          <t>天壕环境11月02日获深股通增持48.01万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,51 +1405,51 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-31 09:10</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1240801149.html</t>
+          <t>/news,300332,1242326444.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-30 15:04</t>
+          <t>11-02 09:01</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1240711492.html</t>
+          <t>/news,300332,1241811394.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
+          <t>天壕环境11月01日获深股通增持1.71万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>11-02 07:54</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1240706711.html</t>
+          <t>/news,300332,1241801859.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天壕环境10月28日被深股通减持108.43万股</t>
+          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,51 +1501,51 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1240600533.html</t>
+          <t>/news,300332,1241305451.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1446</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
+          <t>天壕环境10月31日被深股通减持30.15万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1240465048.html</t>
+          <t>/news,300332,1241297004.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
+          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,83 +1565,83 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 09:10</t>
+          <t>10-31 09:10</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1240061867.html</t>
+          <t>/news,300332,1240801149.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>937</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天壕环境10月27日被深股通减持84.17万股</t>
+          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 07:46</t>
+          <t>10-30 15:04</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1240047233.html</t>
+          <t>/news,300332,1240711492.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>888</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天壕环境接受76家机构调研！</t>
+          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-27 17:02</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1239887493.html</t>
+          <t>/news,300332,1240706711.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境10月28日被深股通减持108.43万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,51 +1661,51 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-27 16:53</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1239955885.html</t>
+          <t>/news,300332,1240600533.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>1519</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
+          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-27 09:03</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1239508715.html</t>
+          <t>/news,300332,1240465048.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天壕环境10月26日被深股通减持70.43万股</t>
+          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-27 07:49</t>
+          <t>10-28 09:10</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1239497271.html</t>
+          <t>/news,300332,1240061867.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,39 +1747,39 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境10月27日被深股通减持84.17万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 19:48</t>
+          <t>10-28 07:46</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1239404765.html</t>
+          <t>/news,300332,1240047233.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
+          <t>天壕环境接受76家机构调研！</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-26 18:38</t>
+          <t>10-27 17:02</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1239385003.html</t>
+          <t>/news,300332,1239887493.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,61 +1821,61 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-26 12:56</t>
+          <t>10-27 16:53</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1239194248.html</t>
+          <t>/news,300332,1239955885.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-26 12:39</t>
+          <t>10-27 09:03</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1239184216.html</t>
+          <t>/news,300332,1239508715.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
+          <t>天壕环境10月26日被深股通减持70.43万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-26 11:42</t>
+          <t>10-27 07:49</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1239171537.html</t>
+          <t>/news,300332,1239497271.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>873</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-26 11:37</t>
+          <t>10-26 19:48</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1239168937.html</t>
+          <t>/news,300332,1239404765.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
+          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,93 +1949,93 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-26 09:52</t>
+          <t>10-26 18:38</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1239048382.html</t>
+          <t>/news,300332,1239385003.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
+          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-26 09:51</t>
+          <t>10-26 12:56</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1239043260.html</t>
+          <t>/news,300332,1239194248.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>978</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-26 09:02</t>
+          <t>10-26 12:39</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1238981241.html</t>
+          <t>/news,300332,1239184216.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境10月25日获深股通增持50.07万股</t>
+          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 11:42</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1238968103.html</t>
+          <t>/news,300332,1239171537.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
+          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 19:43</t>
+          <t>10-26 11:37</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1238869154.html</t>
+          <t>/news,300332,1239168937.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天壕环境：前三季度净利润同比增长415.90%</t>
+          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,51 +2109,51 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 19:27</t>
+          <t>10-26 09:52</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1238864925.html</t>
+          <t>/news,300332,1239048382.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 16:58</t>
+          <t>10-26 09:51</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1238818536.html</t>
+          <t>/news,300332,1239043260.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
+          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 16:27</t>
+          <t>10-26 09:02</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1238808877.html</t>
+          <t>/news,300332,1238981241.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
+          <t>天壕环境10月25日获深股通增持50.07万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,51 +2205,51 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1238806429.html</t>
+          <t>/news,300332,1238968103.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1045</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
+          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 16:06</t>
+          <t>10-25 19:43</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1238803227.html</t>
+          <t>/news,300332,1238869154.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
+          <t>天壕环境：前三季度净利润同比增长415.90%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 08:54</t>
+          <t>10-25 19:27</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1238458609.html</t>
+          <t>/news,300332,1238864925.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天壕环境10月24日获深股通增持73.9万股</t>
+          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,51 +2301,51 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 16:58</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1238448588.html</t>
+          <t>/news,300332,1238818536.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
+          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 16:27</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1237859534.html</t>
+          <t>/news,300332,1238808877.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天壕环境10月21日获深股通增持58.93万股</t>
+          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,51 +2365,51 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1237796555.html</t>
+          <t>/news,300332,1238806429.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天壕环境10月20日被深股通减持23.37万股</t>
+          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-21 07:49</t>
+          <t>10-25 16:06</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1237348224.html</t>
+          <t>/news,300332,1238803227.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天壕环境10月19日被深股通减持2.68万股</t>
+          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-25 08:54</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1236888073.html</t>
+          <t>/news,300332,1238458609.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
+          <t>天壕环境10月24日获深股通增持73.9万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,51 +2461,51 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-19 15:02</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1236724772.html</t>
+          <t>/news,300332,1238448588.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>931</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-19 14:46</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1236709929.html</t>
+          <t>/news,300332,1237859534.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天壕环境10月18日被深股通减持16.05万股</t>
+          <t>天壕环境10月21日获深股通增持58.93万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1236439001.html</t>
+          <t>/news,300332,1237796555.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天壕环境10月17日被深股通减持61.84万股</t>
+          <t>天壕环境10月20日被深股通减持23.37万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-21 07:49</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1236041227.html</t>
+          <t>/news,300332,1237348224.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
+          <t>天壕环境10月19日被深股通减持2.68万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1235575701.html</t>
+          <t>/news,300332,1236888073.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天壕环境10月14日获深股通增持2.71万股</t>
+          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-15 07:47</t>
+          <t>10-19 15:02</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1235511242.html</t>
+          <t>/news,300332,1236724772.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境10月13日被深股通减持1.47万股</t>
+          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-14 07:51</t>
+          <t>10-19 14:46</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1235082412.html</t>
+          <t>/news,300332,1236709929.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境10月12日被深股通减持15.75万股</t>
+          <t>天壕环境10月18日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-13 07:58</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1234647085.html</t>
+          <t>/news,300332,1236439001.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天壕环境10月11日被深股通减持1.02万股</t>
+          <t>天壕环境10月17日被深股通减持61.84万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1234212878.html</t>
+          <t>/news,300332,1236041227.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>903</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境10月10日获深股通增持74.72万股</t>
+          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-11 07:50</t>
+          <t>10-16 14:05</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1233836904.html</t>
+          <t>/news,300332,1235575701.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境：“天壕转债”第三季度转股330股</t>
+          <t>天壕环境10月14日获深股通增持2.71万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-15 07:47</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1233707406.html</t>
+          <t>/news,300332,1235511242.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1382.37万元，居燃气板块第三</t>
+          <t>天壕环境10月13日被深股通减持1.47万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-14 07:51</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1233316547.html</t>
+          <t>/news,300332,1235082412.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境09月28日被深股通减持103.71万股</t>
+          <t>天壕环境10月12日被深股通减持15.75万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,51 +2845,51 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-29 07:52</t>
+          <t>10-13 07:58</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1232088078.html</t>
+          <t>/news,300332,1234647085.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境人气较昨日提升3076 现居飙升榜第六</t>
+          <t>天壕环境10月11日被深股通减持1.02万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>股市胖虎</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-28 10:09</t>
+          <t>10-12 07:50</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1231719853.html</t>
+          <t>/news,300332,1234212878.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境09月27日被深股通减持3.02万股</t>
+          <t>天壕环境10月10日获深股通增持74.72万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-28 07:46</t>
+          <t>10-11 07:50</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1231636584.html</t>
+          <t>/news,300332,1233836904.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境09月26日获深股通增持21.84万股</t>
+          <t>天壕环境：“天壕转债”第三季度转股330股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-27 07:44</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1231246369.html</t>
+          <t>/news,300332,1233707406.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>818</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少707.56万元，居燃气板块第三</t>
+          <t>天壕环境本周深股通持股市值减少1382.37万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-25 14:03</t>
+          <t>10-09 14:04</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1230722083.html</t>
+          <t>/news,300332,1233316547.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境09月23日被深股通减持83.2万股</t>
+          <t>天壕环境09月28日被深股通减持103.71万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-24 07:52</t>
+          <t>09-29 07:52</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1230641087.html</t>
+          <t>/news,300332,1232088078.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
+          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-17 08:46</t>
+          <t>11-18 08:44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1247676194.html</t>
+          <t>/news,300332,1248161488.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境11月16日被深股通减持16.06万股</t>
+          <t>天壕环境11月17日被深股通减持11.85万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1247664267.html</t>
+          <t>/news,300332,1248151600.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
+          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-16 08:51</t>
+          <t>11-17 08:46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1247184272.html</t>
+          <t>/news,300332,1247676194.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境11月15日获深股通增持24.7万股</t>
+          <t>天壕环境11月16日被深股通减持16.06万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-16 08:00</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1247177109.html</t>
+          <t>/news,300332,1247664267.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
+          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-15 18:00</t>
+          <t>11-16 08:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1247068898.html</t>
+          <t>/news,300332,1247184272.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
+          <t>天壕环境11月15日获深股通增持24.7万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-15 09:00</t>
+          <t>11-16 08:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1246700508.html</t>
+          <t>/news,300332,1247177109.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>917</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境11月14日被深股通减持59.73万股</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-15 07:45</t>
+          <t>11-15 18:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1246689367.html</t>
+          <t>/news,300332,1247068898.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
+          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-14 18:00</t>
+          <t>11-15 09:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1246572597.html</t>
+          <t>/news,300332,1246700508.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
+          <t>天壕环境11月14日被深股通减持59.73万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,51 +733,51 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-15 07:45</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1246197232.html</t>
+          <t>/news,300332,1246689367.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>847</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-13 15:03</t>
+          <t>11-14 18:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1246098041.html</t>
+          <t>/news,300332,1246572597.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,61 +787,61 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
+          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-13 14:04</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1246093182.html</t>
+          <t>/news,300332,1246197232.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境11月11日被深股通减持39.15万股</t>
+          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-12 07:50</t>
+          <t>11-13 15:03</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1245986756.html</t>
+          <t>/news,300332,1246098041.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,39 +851,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
+          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-11 08:46</t>
+          <t>11-13 14:04</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1245423620.html</t>
+          <t>/news,300332,1246093182.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天壕环境11月10日被深股通减持21.01万股</t>
+          <t>天壕环境11月11日被深股通减持39.15万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-11 07:58</t>
+          <t>11-12 07:50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1245414409.html</t>
+          <t>/news,300332,1245986756.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
+          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-11 08:46</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1245274849.html</t>
+          <t>/news,300332,1245423620.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
+          <t>天壕环境11月10日被深股通减持21.01万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 07:58</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1244901110.html</t>
+          <t>/news,300332,1245414409.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>816</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天壕环境11月09日被深股通减持5.04万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-10 07:52</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1244891594.html</t>
+          <t>/news,300332,1245274849.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
+          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-09 18:00</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1244788399.html</t>
+          <t>/news,300332,1244901110.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
+          <t>天壕环境11月09日被深股通减持5.04万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-09 08:48</t>
+          <t>11-10 07:52</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1244436172.html</t>
+          <t>/news,300332,1244891594.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天壕环境11月08日被深股通减持43.85万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-09 18:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1244426484.html</t>
+          <t>/news,300332,1244788399.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
+          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-09 08:48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1243984572.html</t>
+          <t>/news,300332,1244436172.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天壕环境11月07日获深股通增持90.51万股</t>
+          <t>天壕环境11月08日被深股通减持43.85万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1243976303.html</t>
+          <t>/news,300332,1244426484.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
+          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1243513721.html</t>
+          <t>/news,300332,1243984572.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
+          <t>天壕环境11月07日获深股通增持90.51万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1243408938.html</t>
+          <t>/news,300332,1243976303.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1243403871.html</t>
+          <t>/news,300332,1243513721.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>640</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天壕环境11月04日获深股通增持96.88万股</t>
+          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1243317870.html</t>
+          <t>/news,300332,1243408938.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入348.21万元，融</t>
+          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1242826526.html</t>
+          <t>/news,300332,1243403871.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天壕环境11月03日获深股通增持46.33万股</t>
+          <t>天壕环境11月04日获深股通增持96.88万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1242815770.html</t>
+          <t>/news,300332,1243317870.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
+          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-03 08:54</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1242334790.html</t>
+          <t>/news,300332,1242826526.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天壕环境11月02日获深股通增持48.01万股</t>
+          <t>天壕环境11月03日获深股通增持46.33万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1242326444.html</t>
+          <t>/news,300332,1242815770.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
+          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-02 09:01</t>
+          <t>11-03 08:54</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1241811394.html</t>
+          <t>/news,300332,1242334790.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天壕环境11月01日获深股通增持1.71万股</t>
+          <t>天壕环境11月02日获深股通增持48.01万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-02 07:54</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1241801859.html</t>
+          <t>/news,300332,1242326444.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
+          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-02 09:01</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1241305451.html</t>
+          <t>/news,300332,1241811394.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天壕环境10月31日被深股通减持30.15万股</t>
+          <t>天壕环境11月01日获深股通增持1.71万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 07:54</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1241297004.html</t>
+          <t>/news,300332,1241801859.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
+          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,51 +1565,51 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-31 09:10</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1240801149.html</t>
+          <t>/news,300332,1241305451.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
+          <t>天壕环境10月31日被深股通减持30.15万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-30 15:04</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1240711492.html</t>
+          <t>/news,300332,1241297004.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,93 +1619,93 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>10-31 09:10</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1240706711.html</t>
+          <t>/news,300332,1240801149.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>969</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天壕环境10月28日被深股通减持108.43万股</t>
+          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>10-30 15:04</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1240600533.html</t>
+          <t>/news,300332,1240711492.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1519</t>
+          <t>927</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
+          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1240465048.html</t>
+          <t>/news,300332,1240706711.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
+          <t>天壕环境10月28日被深股通减持108.43万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,61 +1725,61 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 09:10</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1240061867.html</t>
+          <t>/news,300332,1240600533.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>1550</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天壕环境10月27日被深股通减持84.17万股</t>
+          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 07:46</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1240047233.html</t>
+          <t>/news,300332,1240465048.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境接受76家机构调研！</t>
+          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-27 17:02</t>
+          <t>10-28 09:10</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1239887493.html</t>
+          <t>/news,300332,1240061867.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境10月27日被深股通减持84.17万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-27 16:53</t>
+          <t>10-28 07:46</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1239955885.html</t>
+          <t>/news,300332,1240047233.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>763</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
+          <t>天壕环境接受76家机构调研！</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-27 09:03</t>
+          <t>10-27 17:02</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1239508715.html</t>
+          <t>/news,300332,1239887493.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境10月26日被深股通减持70.43万股</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-27 07:49</t>
+          <t>10-27 16:53</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1239497271.html</t>
+          <t>/news,300332,1239955885.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-26 19:48</t>
+          <t>10-27 09:03</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1239404765.html</t>
+          <t>/news,300332,1239508715.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
+          <t>天壕环境10月26日被深股通减持70.43万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,93 +1949,93 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-26 18:38</t>
+          <t>10-27 07:49</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1239385003.html</t>
+          <t>/news,300332,1239497271.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>880</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-26 12:56</t>
+          <t>10-26 19:48</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1239194248.html</t>
+          <t>/news,300332,1239404765.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>978</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-26 12:39</t>
+          <t>10-26 18:38</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1239184216.html</t>
+          <t>/news,300332,1239385003.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
+          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-26 11:42</t>
+          <t>10-26 12:56</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1239171537.html</t>
+          <t>/news,300332,1239194248.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>988</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-26 11:37</t>
+          <t>10-26 12:39</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1239168937.html</t>
+          <t>/news,300332,1239184216.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
+          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-26 09:52</t>
+          <t>10-26 11:42</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1239048382.html</t>
+          <t>/news,300332,1239171537.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
+          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-26 09:51</t>
+          <t>10-26 11:37</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1239043260.html</t>
+          <t>/news,300332,1239168937.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
+          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 09:02</t>
+          <t>10-26 09:52</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1238981241.html</t>
+          <t>/news,300332,1239048382.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天壕环境10月25日获深股通增持50.07万股</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 09:51</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1238968103.html</t>
+          <t>/news,300332,1239043260.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
+          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 19:43</t>
+          <t>10-26 09:02</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1238869154.html</t>
+          <t>/news,300332,1238981241.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天壕环境：前三季度净利润同比增长415.90%</t>
+          <t>天壕环境10月25日获深股通增持50.07万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 19:27</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1238864925.html</t>
+          <t>/news,300332,1238968103.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
+          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 16:58</t>
+          <t>10-25 19:43</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1238818536.html</t>
+          <t>/news,300332,1238869154.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
+          <t>天壕环境：前三季度净利润同比增长415.90%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 16:27</t>
+          <t>10-25 19:27</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1238808877.html</t>
+          <t>/news,300332,1238864925.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
+          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,51 +2365,51 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 16:58</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1238806429.html</t>
+          <t>/news,300332,1238818536.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
+          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 16:06</t>
+          <t>10-25 16:27</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1238803227.html</t>
+          <t>/news,300332,1238808877.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
+          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,83 +2429,83 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 08:54</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1238458609.html</t>
+          <t>/news,300332,1238806429.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>1062</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天壕环境10月24日获深股通增持73.9万股</t>
+          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 16:06</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1238448588.html</t>
+          <t>/news,300332,1238803227.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>931</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
+          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 08:54</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1237859534.html</t>
+          <t>/news,300332,1238458609.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天壕环境10月21日获深股通增持58.93万股</t>
+          <t>天壕环境10月24日获深股通增持73.9万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,51 +2525,51 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1237796555.html</t>
+          <t>/news,300332,1238448588.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>937</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天壕环境10月20日被深股通减持23.37万股</t>
+          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-21 07:49</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1237348224.html</t>
+          <t>/news,300332,1237859534.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境10月19日被深股通减持2.68万股</t>
+          <t>天壕环境10月21日获深股通增持58.93万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1236888073.html</t>
+          <t>/news,300332,1237796555.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
+          <t>天壕环境10月20日被深股通减持23.37万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-19 15:02</t>
+          <t>10-21 07:49</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1236724772.html</t>
+          <t>/news,300332,1237348224.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境10月19日被深股通减持2.68万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-19 14:46</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1236709929.html</t>
+          <t>/news,300332,1236888073.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境10月18日被深股通减持16.05万股</t>
+          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-19 15:02</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1236439001.html</t>
+          <t>/news,300332,1236724772.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天壕环境10月17日被深股通减持61.84万股</t>
+          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-19 14:46</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1236041227.html</t>
+          <t>/news,300332,1236709929.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>903</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
+          <t>天壕环境10月18日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1235575701.html</t>
+          <t>/news,300332,1236439001.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境10月14日获深股通增持2.71万股</t>
+          <t>天壕环境10月17日被深股通减持61.84万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-15 07:47</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1235511242.html</t>
+          <t>/news,300332,1236041227.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>904</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天壕环境10月13日被深股通减持1.47万股</t>
+          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-14 07:51</t>
+          <t>10-16 14:05</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1235082412.html</t>
+          <t>/news,300332,1235575701.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境10月12日被深股通减持15.75万股</t>
+          <t>天壕环境10月14日获深股通增持2.71万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-13 07:58</t>
+          <t>10-15 07:47</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1234647085.html</t>
+          <t>/news,300332,1235511242.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境10月11日被深股通减持1.02万股</t>
+          <t>天壕环境10月13日被深股通减持1.47万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-14 07:51</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1234212878.html</t>
+          <t>/news,300332,1235082412.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境10月10日获深股通增持74.72万股</t>
+          <t>天壕环境10月12日被深股通减持15.75万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-11 07:50</t>
+          <t>10-13 07:58</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1233836904.html</t>
+          <t>/news,300332,1234647085.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境：“天壕转债”第三季度转股330股</t>
+          <t>天壕环境10月11日被深股通减持1.02万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-12 07:50</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1233707406.html</t>
+          <t>/news,300332,1234212878.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1382.37万元，居燃气板块第三</t>
+          <t>天壕环境10月10日获深股通增持74.72万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-09 14:04</t>
+          <t>10-11 07:50</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1233316547.html</t>
+          <t>/news,300332,1233836904.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境09月28日被深股通减持103.71万股</t>
+          <t>天壕环境：“天壕转债”第三季度转股330股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-29 07:52</t>
+          <t>10-10 16:58</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1232088078.html</t>
+          <t>/news,300332,1233707406.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
+          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,83 +477,83 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-18 08:44</t>
+          <t>11-21 08:52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1248161488.html</t>
+          <t>/news,300332,1248872863.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境11月17日被深股通减持11.85万股</t>
+          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1248151600.html</t>
+          <t>/news,300332,1248768258.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
+          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-17 08:46</t>
+          <t>11-20 14:03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1247676194.html</t>
+          <t>/news,300332,1248762241.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境11月16日被深股通减持16.06万股</t>
+          <t>天壕环境11月18日获深股通增持52.04万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1247664267.html</t>
+          <t>/news,300332,1248639123.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
+          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-16 08:51</t>
+          <t>11-18 08:44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1247184272.html</t>
+          <t>/news,300332,1248161488.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境11月15日获深股通增持24.7万股</t>
+          <t>天壕环境11月17日被深股通减持11.85万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-16 08:00</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1247177109.html</t>
+          <t>/news,300332,1248151600.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>917</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
+          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-15 18:00</t>
+          <t>11-17 08:46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1247068898.html</t>
+          <t>/news,300332,1247676194.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
+          <t>天壕环境11月16日被深股通减持16.06万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-15 09:00</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1246700508.html</t>
+          <t>/news,300332,1247664267.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天壕环境11月14日被深股通减持59.73万股</t>
+          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-15 07:45</t>
+          <t>11-16 08:51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1246689367.html</t>
+          <t>/news,300332,1247184272.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
+          <t>天壕环境11月15日获深股通增持24.7万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-14 18:00</t>
+          <t>11-16 08:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1246572597.html</t>
+          <t>/news,300332,1247177109.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>947</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,51 +797,51 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-15 18:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1246197232.html</t>
+          <t>/news,300332,1247068898.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-13 15:03</t>
+          <t>11-15 09:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1246098041.html</t>
+          <t>/news,300332,1246700508.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,39 +851,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
+          <t>天壕环境11月14日被深股通减持59.73万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-13 14:04</t>
+          <t>11-15 07:45</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1246093182.html</t>
+          <t>/news,300332,1246689367.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>866</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天壕环境11月11日被深股通减持39.15万股</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-12 07:50</t>
+          <t>11-14 18:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1245986756.html</t>
+          <t>/news,300332,1246572597.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
+          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-11 08:46</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1245423620.html</t>
+          <t>/news,300332,1246197232.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,71 +947,71 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天壕环境11月10日被深股通减持21.01万股</t>
+          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-11 07:58</t>
+          <t>11-13 15:03</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1245414409.html</t>
+          <t>/news,300332,1246098041.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
+          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-13 14:04</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1245274849.html</t>
+          <t>/news,300332,1246093182.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
+          <t>天壕环境11月11日被深股通减持39.15万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-12 07:50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1244901110.html</t>
+          <t>/news,300332,1245986756.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天壕环境11月09日被深股通减持5.04万股</t>
+          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-10 07:52</t>
+          <t>11-11 08:46</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1244891594.html</t>
+          <t>/news,300332,1245423620.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
+          <t>天壕环境11月10日被深股通减持21.01万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-09 18:00</t>
+          <t>11-11 07:58</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1244788399.html</t>
+          <t>/news,300332,1245414409.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>829</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
+          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-09 08:48</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1244436172.html</t>
+          <t>/news,300332,1245274849.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天壕环境11月08日被深股通减持43.85万股</t>
+          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1244426484.html</t>
+          <t>/news,300332,1244901110.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
+          <t>天壕环境11月09日被深股通减持5.04万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-10 07:52</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1243984572.html</t>
+          <t>/news,300332,1244891594.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天壕环境11月07日获深股通增持90.51万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 18:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1243976303.html</t>
+          <t>/news,300332,1244788399.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
+          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-09 08:48</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1243513721.html</t>
+          <t>/news,300332,1244436172.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
+          <t>天壕环境11月08日被深股通减持43.85万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1243408938.html</t>
+          <t>/news,300332,1244426484.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
+          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1243403871.html</t>
+          <t>/news,300332,1243984572.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天壕环境11月04日获深股通增持96.88万股</t>
+          <t>天壕环境11月07日获深股通增持90.51万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1243317870.html</t>
+          <t>/news,300332,1243976303.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
+          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1242826526.html</t>
+          <t>/news,300332,1243513721.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>723</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天壕环境11月03日获深股通增持46.33万股</t>
+          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1242815770.html</t>
+          <t>/news,300332,1243408938.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>734</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,39 +1427,39 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
+          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-03 08:54</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1242334790.html</t>
+          <t>/news,300332,1243403871.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天壕环境11月02日获深股通增持48.01万股</t>
+          <t>天壕环境11月04日获深股通增持96.88万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1242326444.html</t>
+          <t>/news,300332,1243317870.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
+          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-02 09:01</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1241811394.html</t>
+          <t>/news,300332,1242826526.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天壕环境11月01日获深股通增持1.71万股</t>
+          <t>天壕环境11月03日获深股通增持46.33万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-02 07:54</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1241801859.html</t>
+          <t>/news,300332,1242815770.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
+          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-03 08:54</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1241305451.html</t>
+          <t>/news,300332,1242334790.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天壕环境10月31日被深股通减持30.15万股</t>
+          <t>天壕环境11月02日获深股通增持48.01万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1241297004.html</t>
+          <t>/news,300332,1242326444.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
+          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,51 +1629,51 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-31 09:10</t>
+          <t>11-02 09:01</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1240801149.html</t>
+          <t>/news,300332,1241811394.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>969</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
+          <t>天壕环境11月01日获深股通增持1.71万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-30 15:04</t>
+          <t>11-02 07:54</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1240711492.html</t>
+          <t>/news,300332,1241801859.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,39 +1683,39 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
+          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1240706711.html</t>
+          <t>/news,300332,1241305451.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天壕环境10月28日被深股通减持108.43万股</t>
+          <t>天壕环境10月31日被深股通减持30.15万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,83 +1725,83 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1240600533.html</t>
+          <t>/news,300332,1241297004.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
+          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-31 09:10</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1240465048.html</t>
+          <t>/news,300332,1240801149.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>1033</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
+          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 09:10</t>
+          <t>10-30 15:04</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1240061867.html</t>
+          <t>/news,300332,1240711492.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>985</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,39 +1811,39 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天壕环境10月27日被深股通减持84.17万股</t>
+          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 07:46</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1240047233.html</t>
+          <t>/news,300332,1240706711.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天壕环境接受76家机构调研！</t>
+          <t>天壕环境10月28日被深股通减持108.43万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,51 +1853,51 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-27 17:02</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1239887493.html</t>
+          <t>/news,300332,1240600533.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-27 16:53</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1239955885.html</t>
+          <t>/news,300332,1240465048.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
+          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-27 09:03</t>
+          <t>10-28 09:10</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1239508715.html</t>
+          <t>/news,300332,1240061867.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天壕环境10月26日被深股通减持70.43万股</t>
+          <t>天壕环境10月27日被深股通减持84.17万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,51 +1949,51 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-27 07:49</t>
+          <t>10-28 07:46</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1239497271.html</t>
+          <t>/news,300332,1240047233.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>779</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境接受76家机构调研！</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-26 19:48</t>
+          <t>10-27 17:02</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1239404765.html</t>
+          <t>/news,300332,1239887493.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-26 18:38</t>
+          <t>10-27 16:53</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1239385003.html</t>
+          <t>/news,300332,1239955885.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
+          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,83 +2045,83 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-26 12:56</t>
+          <t>10-27 09:03</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1239194248.html</t>
+          <t>/news,300332,1239508715.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>天壕环境10月26日被深股通减持70.43万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-26 12:39</t>
+          <t>10-27 07:49</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1239184216.html</t>
+          <t>/news,300332,1239497271.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>889</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-26 11:42</t>
+          <t>10-26 19:48</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1239171537.html</t>
+          <t>/news,300332,1239404765.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
+          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-26 11:37</t>
+          <t>10-26 18:38</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1239168937.html</t>
+          <t>/news,300332,1239385003.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
+          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 09:52</t>
+          <t>10-26 12:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1239048382.html</t>
+          <t>/news,300332,1239194248.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>1002</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-26 09:51</t>
+          <t>10-26 12:39</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1239043260.html</t>
+          <t>/news,300332,1239184216.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
+          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-26 09:02</t>
+          <t>10-26 11:42</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1238981241.html</t>
+          <t>/news,300332,1239171537.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天壕环境10月25日获深股通增持50.07万股</t>
+          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 11:37</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1238968103.html</t>
+          <t>/news,300332,1239168937.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
+          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 19:43</t>
+          <t>10-26 09:52</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1238869154.html</t>
+          <t>/news,300332,1239048382.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天壕环境：前三季度净利润同比增长415.90%</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 19:27</t>
+          <t>10-26 09:51</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1238864925.html</t>
+          <t>/news,300332,1239043260.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
+          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 16:58</t>
+          <t>10-26 09:02</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1238818536.html</t>
+          <t>/news,300332,1238981241.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
+          <t>天壕环境10月25日获深股通增持50.07万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 16:27</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1238808877.html</t>
+          <t>/news,300332,1238968103.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
+          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,61 +2429,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 19:43</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1238806429.html</t>
+          <t>/news,300332,1238869154.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1062</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
+          <t>天壕环境：前三季度净利润同比增长415.90%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 16:06</t>
+          <t>10-25 19:27</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1238803227.html</t>
+          <t>/news,300332,1238864925.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
+          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 08:54</t>
+          <t>10-25 16:58</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1238458609.html</t>
+          <t>/news,300332,1238818536.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天壕环境10月24日获深股通增持73.9万股</t>
+          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,83 +2525,83 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 16:27</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1238448588.html</t>
+          <t>/news,300332,1238808877.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
+          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1237859534.html</t>
+          <t>/news,300332,1238806429.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>1071</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境10月21日获深股通增持58.93万股</t>
+          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 16:06</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1237796555.html</t>
+          <t>/news,300332,1238803227.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天壕环境10月20日被深股通减持23.37万股</t>
+          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-21 07:49</t>
+          <t>10-25 08:54</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1237348224.html</t>
+          <t>/news,300332,1238458609.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境10月19日被深股通减持2.68万股</t>
+          <t>天壕环境10月24日获深股通增持73.9万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,51 +2653,51 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1236888073.html</t>
+          <t>/news,300332,1238448588.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>941</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
+          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-19 15:02</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1236724772.html</t>
+          <t>/news,300332,1237859534.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境10月21日获深股通增持58.93万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-19 14:46</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1236709929.html</t>
+          <t>/news,300332,1237796555.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境10月18日被深股通减持16.05万股</t>
+          <t>天壕环境10月20日被深股通减持23.37万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-21 07:49</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1236439001.html</t>
+          <t>/news,300332,1237348224.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境10月17日被深股通减持61.84万股</t>
+          <t>天壕环境10月19日被深股通减持2.68万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1236041227.html</t>
+          <t>/news,300332,1236888073.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>904</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
+          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-19 15:02</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1235575701.html</t>
+          <t>/news,300332,1236724772.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境10月14日获深股通增持2.71万股</t>
+          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-15 07:47</t>
+          <t>10-19 14:46</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1235511242.html</t>
+          <t>/news,300332,1236709929.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境10月13日被深股通减持1.47万股</t>
+          <t>天壕环境10月18日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-14 07:51</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1235082412.html</t>
+          <t>/news,300332,1236439001.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境10月12日被深股通减持15.75万股</t>
+          <t>天壕环境10月17日被深股通减持61.84万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,51 +2909,51 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-13 07:58</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1234647085.html</t>
+          <t>/news,300332,1236041227.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>908</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境10月11日被深股通减持1.02万股</t>
+          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-16 14:05</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1234212878.html</t>
+          <t>/news,300332,1235575701.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境10月10日获深股通增持74.72万股</t>
+          <t>天壕环境10月14日获深股通增持2.71万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-11 07:50</t>
+          <t>10-15 07:47</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1233836904.html</t>
+          <t>/news,300332,1235511242.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境：“天壕转债”第三季度转股330股</t>
+          <t>天壕环境10月13日被深股通减持1.47万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-10 16:58</t>
+          <t>10-14 07:51</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1233707406.html</t>
+          <t>/news,300332,1235082412.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -937,7 +937,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1385,7 +1385,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>724</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1417,7 +1417,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>735</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1865,7 +1865,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1645</t>
+          <t>1646</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>108</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
+          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,147 +477,147 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-21 08:52</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1248872863.html</t>
+          <t>/news,300332,1249356759.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
+          <t>天壕环境11月21日获深股通增持17.27万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1248768258.html</t>
+          <t>/news,300332,1249348886.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
+          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-20 14:03</t>
+          <t>11-21 08:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1248762241.html</t>
+          <t>/news,300332,1248872863.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境11月18日获深股通增持52.04万股</t>
+          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1248639123.html</t>
+          <t>/news,300332,1248768258.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
+          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-18 08:44</t>
+          <t>11-20 14:03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1248161488.html</t>
+          <t>/news,300332,1248762241.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境11月17日被深股通减持11.85万股</t>
+          <t>天壕环境11月18日获深股通增持52.04万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1248151600.html</t>
+          <t>/news,300332,1248639123.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
+          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-17 08:46</t>
+          <t>11-18 08:44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1247676194.html</t>
+          <t>/news,300332,1248161488.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境11月16日被深股通减持16.06万股</t>
+          <t>天壕环境11月17日被深股通减持11.85万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1247664267.html</t>
+          <t>/news,300332,1248151600.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
+          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-16 08:51</t>
+          <t>11-17 08:46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1247184272.html</t>
+          <t>/news,300332,1247676194.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天壕环境11月15日获深股通增持24.7万股</t>
+          <t>天壕环境11月16日被深股通减持16.06万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-16 08:00</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1247177109.html</t>
+          <t>/news,300332,1247664267.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
+          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-15 18:00</t>
+          <t>11-16 08:51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1247068898.html</t>
+          <t>/news,300332,1247184272.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
+          <t>天壕环境11月15日获深股通增持24.7万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-15 09:00</t>
+          <t>11-16 08:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1246700508.html</t>
+          <t>/news,300332,1247177109.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>959</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天壕环境11月14日被深股通减持59.73万股</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-15 07:45</t>
+          <t>11-15 18:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1246689367.html</t>
+          <t>/news,300332,1247068898.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>866</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
+          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-14 18:00</t>
+          <t>11-15 09:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1246572597.html</t>
+          <t>/news,300332,1246700508.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
+          <t>天壕环境11月14日被深股通减持59.73万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,51 +925,51 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-15 07:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1246197232.html</t>
+          <t>/news,300332,1246689367.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>876</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-13 15:03</t>
+          <t>11-14 18:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1246098041.html</t>
+          <t>/news,300332,1246572597.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,61 +979,61 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
+          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-13 14:04</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1246093182.html</t>
+          <t>/news,300332,1246197232.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天壕环境11月11日被深股通减持39.15万股</t>
+          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-12 07:50</t>
+          <t>11-13 15:03</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1245986756.html</t>
+          <t>/news,300332,1246098041.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,39 +1043,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
+          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-11 08:46</t>
+          <t>11-13 14:04</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1245423620.html</t>
+          <t>/news,300332,1246093182.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天壕环境11月10日被深股通减持21.01万股</t>
+          <t>天壕环境11月11日被深股通减持39.15万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-11 07:58</t>
+          <t>11-12 07:50</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1245414409.html</t>
+          <t>/news,300332,1245986756.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
+          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-11 08:46</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1245274849.html</t>
+          <t>/news,300332,1245423620.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
+          <t>天壕环境11月10日被深股通减持21.01万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 07:58</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1244901110.html</t>
+          <t>/news,300332,1245414409.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>839</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天壕环境11月09日被深股通减持5.04万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-10 07:52</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1244891594.html</t>
+          <t>/news,300332,1245274849.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
+          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-09 18:00</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1244788399.html</t>
+          <t>/news,300332,1244901110.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
+          <t>天壕环境11月09日被深股通减持5.04万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-09 08:48</t>
+          <t>11-10 07:52</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1244436172.html</t>
+          <t>/news,300332,1244891594.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天壕环境11月08日被深股通减持43.85万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-09 18:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1244426484.html</t>
+          <t>/news,300332,1244788399.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
+          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-09 08:48</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1243984572.html</t>
+          <t>/news,300332,1244436172.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天壕环境11月07日获深股通增持90.51万股</t>
+          <t>天壕环境11月08日被深股通减持43.85万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1243976303.html</t>
+          <t>/news,300332,1244426484.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
+          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1243513721.html</t>
+          <t>/news,300332,1243984572.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
+          <t>天壕环境11月07日获深股通增持90.51万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1243408938.html</t>
+          <t>/news,300332,1243976303.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1243403871.html</t>
+          <t>/news,300332,1243513721.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>753</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天壕环境11月04日获深股通增持96.88万股</t>
+          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1243317870.html</t>
+          <t>/news,300332,1243408938.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>769</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
+          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1242826526.html</t>
+          <t>/news,300332,1243403871.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天壕环境11月03日获深股通增持46.33万股</t>
+          <t>天壕环境11月04日获深股通增持96.88万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1242815770.html</t>
+          <t>/news,300332,1243317870.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
+          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-03 08:54</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1242334790.html</t>
+          <t>/news,300332,1242826526.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天壕环境11月02日获深股通增持48.01万股</t>
+          <t>天壕环境11月03日获深股通增持46.33万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1242326444.html</t>
+          <t>/news,300332,1242815770.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
+          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-02 09:01</t>
+          <t>11-03 08:54</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1241811394.html</t>
+          <t>/news,300332,1242334790.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天壕环境11月01日获深股通增持1.71万股</t>
+          <t>天壕环境11月02日获深股通增持48.01万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-02 07:54</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1241801859.html</t>
+          <t>/news,300332,1242326444.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
+          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-02 09:01</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1241305451.html</t>
+          <t>/news,300332,1241811394.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天壕环境10月31日被深股通减持30.15万股</t>
+          <t>天壕环境11月01日获深股通增持1.71万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 07:54</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1241297004.html</t>
+          <t>/news,300332,1241801859.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
+          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,51 +1757,51 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-31 09:10</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1240801149.html</t>
+          <t>/news,300332,1241305451.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
+          <t>天壕环境10月31日被深股通减持30.15万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-30 15:04</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1240711492.html</t>
+          <t>/news,300332,1241297004.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,93 +1811,93 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>10-31 09:10</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1240706711.html</t>
+          <t>/news,300332,1240801149.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>1034</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天壕环境10月28日被深股通减持108.43万股</t>
+          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>10-30 15:04</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1240600533.html</t>
+          <t>/news,300332,1240711492.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1646</t>
+          <t>986</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
+          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1240465048.html</t>
+          <t>/news,300332,1240706711.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
+          <t>天壕环境10月28日被深股通减持108.43万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,61 +1917,61 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 09:10</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1240061867.html</t>
+          <t>/news,300332,1240600533.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>1680</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天壕环境10月27日被深股通减持84.17万股</t>
+          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 07:46</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1240047233.html</t>
+          <t>/news,300332,1240465048.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天壕环境接受76家机构调研！</t>
+          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-27 17:02</t>
+          <t>10-28 09:10</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1239887493.html</t>
+          <t>/news,300332,1240061867.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境10月27日被深股通减持84.17万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-27 16:53</t>
+          <t>10-28 07:46</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1239955885.html</t>
+          <t>/news,300332,1240047233.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>784</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
+          <t>天壕环境接受76家机构调研！</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-27 09:03</t>
+          <t>10-27 17:02</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1239508715.html</t>
+          <t>/news,300332,1239887493.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天壕环境10月26日被深股通减持70.43万股</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-27 07:49</t>
+          <t>10-27 16:53</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1239497271.html</t>
+          <t>/news,300332,1239955885.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-26 19:48</t>
+          <t>10-27 09:03</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1239404765.html</t>
+          <t>/news,300332,1239508715.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
+          <t>天壕环境10月26日被深股通减持70.43万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,93 +2141,93 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-26 18:38</t>
+          <t>10-27 07:49</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1239385003.html</t>
+          <t>/news,300332,1239497271.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>890</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 12:56</t>
+          <t>10-26 19:48</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1239194248.html</t>
+          <t>/news,300332,1239404765.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-26 12:39</t>
+          <t>10-26 18:38</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1239184216.html</t>
+          <t>/news,300332,1239385003.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
+          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-26 11:42</t>
+          <t>10-26 12:56</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1239171537.html</t>
+          <t>/news,300332,1239194248.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-26 11:37</t>
+          <t>10-26 12:39</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1239168937.html</t>
+          <t>/news,300332,1239184216.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
+          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 09:52</t>
+          <t>10-26 11:42</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1239048382.html</t>
+          <t>/news,300332,1239171537.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
+          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-26 09:51</t>
+          <t>10-26 11:37</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1239043260.html</t>
+          <t>/news,300332,1239168937.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
+          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-26 09:02</t>
+          <t>10-26 09:52</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1238981241.html</t>
+          <t>/news,300332,1239048382.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天壕环境10月25日获深股通增持50.07万股</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 09:51</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1238968103.html</t>
+          <t>/news,300332,1239043260.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
+          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 19:43</t>
+          <t>10-26 09:02</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1238869154.html</t>
+          <t>/news,300332,1238981241.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天壕环境：前三季度净利润同比增长415.90%</t>
+          <t>天壕环境10月25日获深股通增持50.07万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 19:27</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1238864925.html</t>
+          <t>/news,300332,1238968103.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
+          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 16:58</t>
+          <t>10-25 19:43</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1238818536.html</t>
+          <t>/news,300332,1238869154.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
+          <t>天壕环境：前三季度净利润同比增长415.90%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 16:27</t>
+          <t>10-25 19:27</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1238808877.html</t>
+          <t>/news,300332,1238864925.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
+          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,51 +2557,51 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 16:58</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1238806429.html</t>
+          <t>/news,300332,1238818536.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1071</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
+          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 16:06</t>
+          <t>10-25 16:27</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1238803227.html</t>
+          <t>/news,300332,1238808877.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
+          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,83 +2621,83 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 08:54</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1238458609.html</t>
+          <t>/news,300332,1238806429.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境10月24日获深股通增持73.9万股</t>
+          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 16:06</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1238448588.html</t>
+          <t>/news,300332,1238803227.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
+          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 08:54</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1237859534.html</t>
+          <t>/news,300332,1238458609.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天壕环境10月21日获深股通增持58.93万股</t>
+          <t>天壕环境10月24日获深股通增持73.9万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,51 +2717,51 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1237796555.html</t>
+          <t>/news,300332,1238448588.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>944</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境10月20日被深股通减持23.37万股</t>
+          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-21 07:49</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1237348224.html</t>
+          <t>/news,300332,1237859534.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境10月19日被深股通减持2.68万股</t>
+          <t>天壕环境10月21日获深股通增持58.93万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1236888073.html</t>
+          <t>/news,300332,1237796555.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
+          <t>天壕环境10月20日被深股通减持23.37万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-19 15:02</t>
+          <t>10-21 07:49</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1236724772.html</t>
+          <t>/news,300332,1237348224.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境10月19日被深股通减持2.68万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-19 14:46</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1236709929.html</t>
+          <t>/news,300332,1236888073.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境10月18日被深股通减持16.05万股</t>
+          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-19 15:02</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1236439001.html</t>
+          <t>/news,300332,1236724772.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境10月17日被深股通减持61.84万股</t>
+          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-19 14:46</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1236041227.html</t>
+          <t>/news,300332,1236709929.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
+          <t>天壕环境10月18日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1235575701.html</t>
+          <t>/news,300332,1236439001.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境10月14日获深股通增持2.71万股</t>
+          <t>天壕环境10月17日被深股通减持61.84万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-15 07:47</t>
+          <t>10-18 07:43</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1235511242.html</t>
+          <t>/news,300332,1236041227.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>909</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境10月13日被深股通减持1.47万股</t>
+          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-14 07:51</t>
+          <t>10-16 14:05</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1235082412.html</t>
+          <t>/news,300332,1235575701.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
+          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1249356759.html</t>
+          <t>/news,300332,1249883362.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境11月21日获深股通增持17.27万股</t>
+          <t>天壕环境11月22日获深股通增持5.76万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,12 +509,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1249348886.html</t>
+          <t>/news,300332,1249875643.html</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
+          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,147 +541,147 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-21 08:52</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1248872863.html</t>
+          <t>/news,300332,1249356759.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
+          <t>天壕环境11月21日获深股通增持17.27万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1248768258.html</t>
+          <t>/news,300332,1249348886.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
+          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-20 14:03</t>
+          <t>11-21 08:52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1248762241.html</t>
+          <t>/news,300332,1248872863.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境11月18日获深股通增持52.04万股</t>
+          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1248639123.html</t>
+          <t>/news,300332,1248768258.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
+          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-18 08:44</t>
+          <t>11-20 14:03</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1248161488.html</t>
+          <t>/news,300332,1248762241.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境11月17日被深股通减持11.85万股</t>
+          <t>天壕环境11月18日获深股通增持52.04万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1248151600.html</t>
+          <t>/news,300332,1248639123.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
+          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-17 08:46</t>
+          <t>11-18 08:44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1247676194.html</t>
+          <t>/news,300332,1248161488.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天壕环境11月16日被深股通减持16.06万股</t>
+          <t>天壕环境11月17日被深股通减持11.85万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1247664267.html</t>
+          <t>/news,300332,1248151600.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
+          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-16 08:51</t>
+          <t>11-17 08:46</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1247184272.html</t>
+          <t>/news,300332,1247676194.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境11月15日获深股通增持24.7万股</t>
+          <t>天壕环境11月16日被深股通减持16.06万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-16 08:00</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1247177109.html</t>
+          <t>/news,300332,1247664267.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>959</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
+          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-15 18:00</t>
+          <t>11-16 08:51</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1247068898.html</t>
+          <t>/news,300332,1247184272.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
+          <t>天壕环境11月15日获深股通增持24.7万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-15 09:00</t>
+          <t>11-16 08:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1246700508.html</t>
+          <t>/news,300332,1247177109.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>967</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天壕环境11月14日被深股通减持59.73万股</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-15 07:45</t>
+          <t>11-15 18:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1246689367.html</t>
+          <t>/news,300332,1247068898.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
+          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-14 18:00</t>
+          <t>11-15 09:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1246572597.html</t>
+          <t>/news,300332,1246700508.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
+          <t>天壕环境11月14日被深股通减持59.73万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,51 +989,51 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-15 07:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1246197232.html</t>
+          <t>/news,300332,1246689367.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>881</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-13 15:03</t>
+          <t>11-14 18:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1246098041.html</t>
+          <t>/news,300332,1246572597.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,61 +1043,61 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
+          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-13 14:04</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1246093182.html</t>
+          <t>/news,300332,1246197232.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天壕环境11月11日被深股通减持39.15万股</t>
+          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-12 07:50</t>
+          <t>11-13 15:03</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1245986756.html</t>
+          <t>/news,300332,1246098041.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>505</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,39 +1107,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
+          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-11 08:46</t>
+          <t>11-13 14:04</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1245423620.html</t>
+          <t>/news,300332,1246093182.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天壕环境11月10日被深股通减持21.01万股</t>
+          <t>天壕环境11月11日被深股通减持39.15万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-11 07:58</t>
+          <t>11-12 07:50</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1245414409.html</t>
+          <t>/news,300332,1245986756.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
+          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-11 08:46</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1245274849.html</t>
+          <t>/news,300332,1245423620.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
+          <t>天壕环境11月10日被深股通减持21.01万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 07:58</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1244901110.html</t>
+          <t>/news,300332,1245414409.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>841</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天壕环境11月09日被深股通减持5.04万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-10 07:52</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1244891594.html</t>
+          <t>/news,300332,1245274849.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
+          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-09 18:00</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1244788399.html</t>
+          <t>/news,300332,1244901110.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
+          <t>天壕环境11月09日被深股通减持5.04万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-09 08:48</t>
+          <t>11-10 07:52</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1244436172.html</t>
+          <t>/news,300332,1244891594.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天壕环境11月08日被深股通减持43.85万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-09 18:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1244426484.html</t>
+          <t>/news,300332,1244788399.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
+          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-09 08:48</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1243984572.html</t>
+          <t>/news,300332,1244436172.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天壕环境11月07日获深股通增持90.51万股</t>
+          <t>天壕环境11月08日被深股通减持43.85万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1243976303.html</t>
+          <t>/news,300332,1244426484.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
+          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1243513721.html</t>
+          <t>/news,300332,1243984572.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
+          <t>天壕环境11月07日获深股通增持90.51万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1243408938.html</t>
+          <t>/news,300332,1243976303.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1243403871.html</t>
+          <t>/news,300332,1243513721.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>780</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天壕环境11月04日获深股通增持96.88万股</t>
+          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1243317870.html</t>
+          <t>/news,300332,1243408938.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>794</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
+          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1242826526.html</t>
+          <t>/news,300332,1243403871.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天壕环境11月03日获深股通增持46.33万股</t>
+          <t>天壕环境11月04日获深股通增持96.88万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1242815770.html</t>
+          <t>/news,300332,1243317870.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
+          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-03 08:54</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1242334790.html</t>
+          <t>/news,300332,1242826526.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天壕环境11月02日获深股通增持48.01万股</t>
+          <t>天壕环境11月03日获深股通增持46.33万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1242326444.html</t>
+          <t>/news,300332,1242815770.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
+          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-02 09:01</t>
+          <t>11-03 08:54</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1241811394.html</t>
+          <t>/news,300332,1242334790.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天壕环境11月01日获深股通增持1.71万股</t>
+          <t>天壕环境11月02日获深股通增持48.01万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-02 07:54</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1241801859.html</t>
+          <t>/news,300332,1242326444.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
+          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-02 09:01</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1241305451.html</t>
+          <t>/news,300332,1241811394.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境10月31日被深股通减持30.15万股</t>
+          <t>天壕环境11月01日获深股通增持1.71万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 07:54</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1241297004.html</t>
+          <t>/news,300332,1241801859.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
+          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,51 +1821,51 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-31 09:10</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1240801149.html</t>
+          <t>/news,300332,1241305451.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1034</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
+          <t>天壕环境10月31日被深股通减持30.15万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-30 15:04</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1240711492.html</t>
+          <t>/news,300332,1241297004.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,93 +1875,93 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>10-31 09:10</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1240706711.html</t>
+          <t>/news,300332,1240801149.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>1035</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天壕环境10月28日被深股通减持108.43万股</t>
+          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>10-30 15:04</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1240600533.html</t>
+          <t>/news,300332,1240711492.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>988</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
+          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1240465048.html</t>
+          <t>/news,300332,1240706711.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
+          <t>天壕环境10月28日被深股通减持108.43万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 09:10</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1240061867.html</t>
+          <t>/news,300332,1240600533.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>1683</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天壕环境10月27日被深股通减持84.17万股</t>
+          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 07:46</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1240047233.html</t>
+          <t>/news,300332,1240465048.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境接受76家机构调研！</t>
+          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-27 17:02</t>
+          <t>10-28 09:10</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1239887493.html</t>
+          <t>/news,300332,1240061867.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境10月27日被深股通减持84.17万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-27 16:53</t>
+          <t>10-28 07:46</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1239955885.html</t>
+          <t>/news,300332,1240047233.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>790</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
+          <t>天壕环境接受76家机构调研！</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-27 09:03</t>
+          <t>10-27 17:02</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1239508715.html</t>
+          <t>/news,300332,1239887493.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天壕环境10月26日被深股通减持70.43万股</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-27 07:49</t>
+          <t>10-27 16:53</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1239497271.html</t>
+          <t>/news,300332,1239955885.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 19:48</t>
+          <t>10-27 09:03</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1239404765.html</t>
+          <t>/news,300332,1239508715.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
+          <t>天壕环境10月26日被深股通减持70.43万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,93 +2205,93 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-26 18:38</t>
+          <t>10-27 07:49</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1239385003.html</t>
+          <t>/news,300332,1239497271.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>891</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-26 12:56</t>
+          <t>10-26 19:48</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1239194248.html</t>
+          <t>/news,300332,1239404765.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-26 12:39</t>
+          <t>10-26 18:38</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1239184216.html</t>
+          <t>/news,300332,1239385003.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
+          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 11:42</t>
+          <t>10-26 12:56</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1239171537.html</t>
+          <t>/news,300332,1239194248.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-26 11:37</t>
+          <t>10-26 12:39</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1239168937.html</t>
+          <t>/news,300332,1239184216.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
+          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-26 09:52</t>
+          <t>10-26 11:42</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1239048382.html</t>
+          <t>/news,300332,1239171537.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
+          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-26 09:51</t>
+          <t>10-26 11:37</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1239043260.html</t>
+          <t>/news,300332,1239168937.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
+          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-26 09:02</t>
+          <t>10-26 09:52</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1238981241.html</t>
+          <t>/news,300332,1239048382.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天壕环境10月25日获深股通增持50.07万股</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 09:51</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1238968103.html</t>
+          <t>/news,300332,1239043260.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
+          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 19:43</t>
+          <t>10-26 09:02</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1238869154.html</t>
+          <t>/news,300332,1238981241.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天壕环境：前三季度净利润同比增长415.90%</t>
+          <t>天壕环境10月25日获深股通增持50.07万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 19:27</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1238864925.html</t>
+          <t>/news,300332,1238968103.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
+          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 16:58</t>
+          <t>10-25 19:43</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1238818536.html</t>
+          <t>/news,300332,1238869154.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
+          <t>天壕环境：前三季度净利润同比增长415.90%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 16:27</t>
+          <t>10-25 19:27</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1238808877.html</t>
+          <t>/news,300332,1238864925.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
+          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 16:58</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1238806429.html</t>
+          <t>/news,300332,1238818536.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
+          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 16:06</t>
+          <t>10-25 16:27</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1238803227.html</t>
+          <t>/news,300332,1238808877.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
+          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,83 +2685,83 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 08:54</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1238458609.html</t>
+          <t>/news,300332,1238806429.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>1075</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天壕环境10月24日获深股通增持73.9万股</t>
+          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 16:06</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1238448588.html</t>
+          <t>/news,300332,1238803227.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>944</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
+          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 08:54</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1237859534.html</t>
+          <t>/news,300332,1238458609.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境10月21日获深股通增持58.93万股</t>
+          <t>天壕环境10月24日获深股通增持73.9万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1237796555.html</t>
+          <t>/news,300332,1238448588.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>945</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天壕环境10月20日被深股通减持23.37万股</t>
+          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-21 07:49</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1237348224.html</t>
+          <t>/news,300332,1237859534.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境10月19日被深股通减持2.68万股</t>
+          <t>天壕环境10月21日获深股通增持58.93万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1236888073.html</t>
+          <t>/news,300332,1237796555.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
+          <t>天壕环境10月20日被深股通减持23.37万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-19 15:02</t>
+          <t>10-21 07:49</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1236724772.html</t>
+          <t>/news,300332,1237348224.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境10月19日被深股通减持2.68万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-19 14:46</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1236709929.html</t>
+          <t>/news,300332,1236888073.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境10月18日被深股通减持16.05万股</t>
+          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-19 15:02</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1236439001.html</t>
+          <t>/news,300332,1236724772.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境10月17日被深股通减持61.84万股</t>
+          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-18 07:43</t>
+          <t>10-19 14:46</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1236041227.html</t>
+          <t>/news,300332,1236709929.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加707.84万元，居燃气板块第四</t>
+          <t>天壕环境10月18日被深股通减持16.05万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1235575701.html</t>
+          <t>/news,300332,1236439001.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
+          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>11-24 08:53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1249883362.html</t>
+          <t>/news,300332,1250429887.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境11月22日获深股通增持5.76万股</t>
+          <t>天壕环境11月23日获深股通增持68.03万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-24 07:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1249875643.html</t>
+          <t>/news,300332,1250421100.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
+          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,12 +541,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1249356759.html</t>
+          <t>/news,300332,1249883362.html</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境11月21日获深股通增持17.27万股</t>
+          <t>天壕环境11月22日获深股通增持5.76万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1249348886.html</t>
+          <t>/news,300332,1249875643.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
+          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,147 +605,147 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-21 08:52</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1248872863.html</t>
+          <t>/news,300332,1249356759.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
+          <t>天壕环境11月21日获深股通增持17.27万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1248768258.html</t>
+          <t>/news,300332,1249348886.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
+          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-20 14:03</t>
+          <t>11-21 08:52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1248762241.html</t>
+          <t>/news,300332,1248872863.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境11月18日获深股通增持52.04万股</t>
+          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1248639123.html</t>
+          <t>/news,300332,1248768258.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
+          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-18 08:44</t>
+          <t>11-20 14:03</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1248161488.html</t>
+          <t>/news,300332,1248762241.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天壕环境11月17日被深股通减持11.85万股</t>
+          <t>天壕环境11月18日获深股通增持52.04万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1248151600.html</t>
+          <t>/news,300332,1248639123.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
+          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-17 08:46</t>
+          <t>11-18 08:44</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1247676194.html</t>
+          <t>/news,300332,1248161488.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境11月16日被深股通减持16.06万股</t>
+          <t>天壕环境11月17日被深股通减持11.85万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1247664267.html</t>
+          <t>/news,300332,1248151600.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
+          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-16 08:51</t>
+          <t>11-17 08:46</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1247184272.html</t>
+          <t>/news,300332,1247676194.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天壕环境11月15日获深股通增持24.7万股</t>
+          <t>天壕环境11月16日被深股通减持16.06万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-16 08:00</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1247177109.html</t>
+          <t>/news,300332,1247664267.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
+          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-15 18:00</t>
+          <t>11-16 08:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1247068898.html</t>
+          <t>/news,300332,1247184272.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
+          <t>天壕环境11月15日获深股通增持24.7万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-15 09:00</t>
+          <t>11-16 08:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1246700508.html</t>
+          <t>/news,300332,1247177109.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>969</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天壕环境11月14日被深股通减持59.73万股</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-15 07:45</t>
+          <t>11-15 18:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1246689367.html</t>
+          <t>/news,300332,1247068898.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
+          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-14 18:00</t>
+          <t>11-15 09:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1246572597.html</t>
+          <t>/news,300332,1246700508.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
+          <t>天壕环境11月14日被深股通减持59.73万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,51 +1053,51 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-15 07:45</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1246197232.html</t>
+          <t>/news,300332,1246689367.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>881</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-13 15:03</t>
+          <t>11-14 18:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1246098041.html</t>
+          <t>/news,300332,1246572597.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,61 +1107,61 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
+          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-13 14:04</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1246093182.html</t>
+          <t>/news,300332,1246197232.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天壕环境11月11日被深股通减持39.15万股</t>
+          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-12 07:50</t>
+          <t>11-13 15:03</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1245986756.html</t>
+          <t>/news,300332,1246098041.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,39 +1171,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
+          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-11 08:46</t>
+          <t>11-13 14:04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1245423620.html</t>
+          <t>/news,300332,1246093182.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天壕环境11月10日被深股通减持21.01万股</t>
+          <t>天壕环境11月11日被深股通减持39.15万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-11 07:58</t>
+          <t>11-12 07:50</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1245414409.html</t>
+          <t>/news,300332,1245986756.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
+          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-11 08:46</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1245274849.html</t>
+          <t>/news,300332,1245423620.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
+          <t>天壕环境11月10日被深股通减持21.01万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 07:58</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1244901110.html</t>
+          <t>/news,300332,1245414409.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>844</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天壕环境11月09日被深股通减持5.04万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-10 07:52</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1244891594.html</t>
+          <t>/news,300332,1245274849.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
+          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-09 18:00</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1244788399.html</t>
+          <t>/news,300332,1244901110.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
+          <t>天壕环境11月09日被深股通减持5.04万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-09 08:48</t>
+          <t>11-10 07:52</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1244436172.html</t>
+          <t>/news,300332,1244891594.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天壕环境11月08日被深股通减持43.85万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-09 18:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1244426484.html</t>
+          <t>/news,300332,1244788399.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
+          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-09 08:48</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1243984572.html</t>
+          <t>/news,300332,1244436172.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天壕环境11月07日获深股通增持90.51万股</t>
+          <t>天壕环境11月08日被深股通减持43.85万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1243976303.html</t>
+          <t>/news,300332,1244426484.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
+          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1243513721.html</t>
+          <t>/news,300332,1243984572.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
+          <t>天壕环境11月07日获深股通增持90.51万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1243408938.html</t>
+          <t>/news,300332,1243976303.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>794</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1243403871.html</t>
+          <t>/news,300332,1243513721.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>802</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天壕环境11月04日获深股通增持96.88万股</t>
+          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1243317870.html</t>
+          <t>/news,300332,1243408938.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>818</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
+          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1242826526.html</t>
+          <t>/news,300332,1243403871.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天壕环境11月03日获深股通增持46.33万股</t>
+          <t>天壕环境11月04日获深股通增持96.88万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1242815770.html</t>
+          <t>/news,300332,1243317870.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
+          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-03 08:54</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1242334790.html</t>
+          <t>/news,300332,1242826526.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天壕环境11月02日获深股通增持48.01万股</t>
+          <t>天壕环境11月03日获深股通增持46.33万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1242326444.html</t>
+          <t>/news,300332,1242815770.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
+          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-02 09:01</t>
+          <t>11-03 08:54</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1241811394.html</t>
+          <t>/news,300332,1242334790.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境11月01日获深股通增持1.71万股</t>
+          <t>天壕环境11月02日获深股通增持48.01万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-02 07:54</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1241801859.html</t>
+          <t>/news,300332,1242326444.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
+          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-02 09:01</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1241305451.html</t>
+          <t>/news,300332,1241811394.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天壕环境10月31日被深股通减持30.15万股</t>
+          <t>天壕环境11月01日获深股通增持1.71万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 07:54</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1241297004.html</t>
+          <t>/news,300332,1241801859.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
+          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,51 +1885,51 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-31 09:10</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1240801149.html</t>
+          <t>/news,300332,1241305451.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1035</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
+          <t>天壕环境10月31日被深股通减持30.15万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-30 15:04</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1240711492.html</t>
+          <t>/news,300332,1241297004.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,93 +1939,93 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>10-31 09:10</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1240706711.html</t>
+          <t>/news,300332,1240801149.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天壕环境10月28日被深股通减持108.43万股</t>
+          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>10-30 15:04</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1240600533.html</t>
+          <t>/news,300332,1240711492.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1683</t>
+          <t>992</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
+          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1240465048.html</t>
+          <t>/news,300332,1240706711.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
+          <t>天壕环境10月28日被深股通减持108.43万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,61 +2045,61 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 09:10</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1240061867.html</t>
+          <t>/news,300332,1240600533.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>1686</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天壕环境10月27日被深股通减持84.17万股</t>
+          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 07:46</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1240047233.html</t>
+          <t>/news,300332,1240465048.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天壕环境接受76家机构调研！</t>
+          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-27 17:02</t>
+          <t>10-28 09:10</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1239887493.html</t>
+          <t>/news,300332,1240061867.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境10月27日被深股通减持84.17万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-27 16:53</t>
+          <t>10-28 07:46</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1239955885.html</t>
+          <t>/news,300332,1240047233.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>795</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
+          <t>天壕环境接受76家机构调研！</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-27 09:03</t>
+          <t>10-27 17:02</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1239508715.html</t>
+          <t>/news,300332,1239887493.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天壕环境10月26日被深股通减持70.43万股</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-27 07:49</t>
+          <t>10-27 16:53</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1239497271.html</t>
+          <t>/news,300332,1239955885.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>891</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-26 19:48</t>
+          <t>10-27 09:03</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1239404765.html</t>
+          <t>/news,300332,1239508715.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
+          <t>天壕环境10月26日被深股通减持70.43万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,93 +2269,93 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-26 18:38</t>
+          <t>10-27 07:49</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1239385003.html</t>
+          <t>/news,300332,1239497271.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>894</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 12:56</t>
+          <t>10-26 19:48</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1239194248.html</t>
+          <t>/news,300332,1239404765.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-26 12:39</t>
+          <t>10-26 18:38</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1239184216.html</t>
+          <t>/news,300332,1239385003.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
+          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-26 11:42</t>
+          <t>10-26 12:56</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1239171537.html</t>
+          <t>/news,300332,1239194248.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-26 11:37</t>
+          <t>10-26 12:39</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1239168937.html</t>
+          <t>/news,300332,1239184216.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
+          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-26 09:52</t>
+          <t>10-26 11:42</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1239048382.html</t>
+          <t>/news,300332,1239171537.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
+          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-26 09:51</t>
+          <t>10-26 11:37</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1239043260.html</t>
+          <t>/news,300332,1239168937.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
+          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-26 09:02</t>
+          <t>10-26 09:52</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1238981241.html</t>
+          <t>/news,300332,1239048382.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天壕环境10月25日获深股通增持50.07万股</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 09:51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1238968103.html</t>
+          <t>/news,300332,1239043260.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
+          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 19:43</t>
+          <t>10-26 09:02</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1238869154.html</t>
+          <t>/news,300332,1238981241.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境：前三季度净利润同比增长415.90%</t>
+          <t>天壕环境10月25日获深股通增持50.07万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 19:27</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1238864925.html</t>
+          <t>/news,300332,1238968103.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
+          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 16:58</t>
+          <t>10-25 19:43</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1238818536.html</t>
+          <t>/news,300332,1238869154.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
+          <t>天壕环境：前三季度净利润同比增长415.90%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 16:27</t>
+          <t>10-25 19:27</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1238808877.html</t>
+          <t>/news,300332,1238864925.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
+          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,51 +2685,51 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 16:58</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1238806429.html</t>
+          <t>/news,300332,1238818536.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1075</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
+          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 16:06</t>
+          <t>10-25 16:27</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1238803227.html</t>
+          <t>/news,300332,1238808877.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
+          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,83 +2749,83 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 08:54</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1238458609.html</t>
+          <t>/news,300332,1238806429.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境10月24日获深股通增持73.9万股</t>
+          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 16:06</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1238448588.html</t>
+          <t>/news,300332,1238803227.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
+          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 08:54</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1237859534.html</t>
+          <t>/news,300332,1238458609.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境10月21日获深股通增持58.93万股</t>
+          <t>天壕环境10月24日获深股通增持73.9万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,51 +2845,51 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1237796555.html</t>
+          <t>/news,300332,1238448588.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>947</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境10月20日被深股通减持23.37万股</t>
+          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-21 07:49</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1237348224.html</t>
+          <t>/news,300332,1237859534.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境10月19日被深股通减持2.68万股</t>
+          <t>天壕环境10月21日获深股通增持58.93万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1236888073.html</t>
+          <t>/news,300332,1237796555.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
+          <t>天壕环境10月20日被深股通减持23.37万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-19 15:02</t>
+          <t>10-21 07:49</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1236724772.html</t>
+          <t>/news,300332,1237348224.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>德邦证券首次给予天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境10月19日被深股通减持2.68万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-19 14:46</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1236709929.html</t>
+          <t>/news,300332,1236888073.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境10月18日被深股通减持16.05万股</t>
+          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-19 15:02</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1236439001.html</t>
+          <t>/news,300332,1236724772.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>112</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
+          <t>天壕环境：连续6日融资净买入累计2701.38万元（11-24）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-24 08:53</t>
+          <t>11-25 08:49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1250429887.html</t>
+          <t>/news,300332,1250951072.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境11月23日获深股通增持68.03万股</t>
+          <t>天壕环境11月24日获深股通增持102.8万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,61 +509,61 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-24 07:54</t>
+          <t>11-25 07:57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1250421100.html</t>
+          <t>/news,300332,1250944687.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>872</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
+          <t>中信证券首次给予天壕环境买入评级 目标价17元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>11-24 19:37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1249883362.html</t>
+          <t>/news,300332,1250795876.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境11月22日获深股通增持5.76万股</t>
+          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-24 08:53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1249875643.html</t>
+          <t>/news,300332,1250429887.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
+          <t>天壕环境11月23日获深股通增持68.03万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-24 07:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1249356759.html</t>
+          <t>/news,300332,1250421100.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境11月21日获深股通增持17.27万股</t>
+          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1249348886.html</t>
+          <t>/news,300332,1249883362.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
+          <t>天壕环境11月22日获深股通增持5.76万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,83 +669,83 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-21 08:52</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1248872863.html</t>
+          <t>/news,300332,1249875643.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
+          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1248768258.html</t>
+          <t>/news,300332,1249356759.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
+          <t>天壕环境11月21日获深股通增持17.27万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-20 14:03</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1248762241.html</t>
+          <t>/news,300332,1249348886.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天壕环境11月18日获深股通增持52.04万股</t>
+          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,83 +765,83 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-21 08:52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1248639123.html</t>
+          <t>/news,300332,1248872863.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
+          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-18 08:44</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1248161488.html</t>
+          <t>/news,300332,1248768258.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境11月17日被深股通减持11.85万股</t>
+          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-20 14:03</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1248151600.html</t>
+          <t>/news,300332,1248762241.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
+          <t>天壕环境11月18日获深股通增持52.04万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-17 08:46</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1247676194.html</t>
+          <t>/news,300332,1248639123.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天壕环境11月16日被深股通减持16.06万股</t>
+          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-18 08:44</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1247664267.html</t>
+          <t>/news,300332,1248161488.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
+          <t>天壕环境11月17日被深股通减持11.85万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-16 08:51</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1247184272.html</t>
+          <t>/news,300332,1248151600.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天壕环境11月15日获深股通增持24.7万股</t>
+          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-16 08:00</t>
+          <t>11-17 08:46</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1247177109.html</t>
+          <t>/news,300332,1247676194.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>969</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
+          <t>天壕环境11月16日被深股通减持16.06万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-15 18:00</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1247068898.html</t>
+          <t>/news,300332,1247664267.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
+          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-15 09:00</t>
+          <t>11-16 08:51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1246700508.html</t>
+          <t>/news,300332,1247184272.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天壕环境11月14日被深股通减持59.73万股</t>
+          <t>天壕环境11月15日获深股通增持24.7万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-15 07:45</t>
+          <t>11-16 08:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1246689367.html</t>
+          <t>/news,300332,1247177109.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>976</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-14 18:00</t>
+          <t>11-15 18:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1246572597.html</t>
+          <t>/news,300332,1247068898.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
+          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-15 09:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1246197232.html</t>
+          <t>/news,300332,1246700508.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,71 +1139,71 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
+          <t>天壕环境11月14日被深股通减持59.73万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-13 15:03</t>
+          <t>11-15 07:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1246098041.html</t>
+          <t>/news,300332,1246689367.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>886</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-13 14:04</t>
+          <t>11-14 18:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1246093182.html</t>
+          <t>/news,300332,1246572597.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天壕环境11月11日被深股通减持39.15万股</t>
+          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-12 07:50</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1245986756.html</t>
+          <t>/news,300332,1246197232.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
+          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-11 08:46</t>
+          <t>11-13 15:03</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1245423620.html</t>
+          <t>/news,300332,1246098041.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,39 +1267,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天壕环境11月10日被深股通减持21.01万股</t>
+          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-11 07:58</t>
+          <t>11-13 14:04</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1245414409.html</t>
+          <t>/news,300332,1246093182.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
+          <t>天壕环境11月11日被深股通减持39.15万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-12 07:50</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1245274849.html</t>
+          <t>/news,300332,1245986756.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
+          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 08:46</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1244901110.html</t>
+          <t>/news,300332,1245423620.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天壕环境11月09日被深股通减持5.04万股</t>
+          <t>天壕环境11月10日被深股通减持21.01万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-10 07:52</t>
+          <t>11-11 07:58</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1244891594.html</t>
+          <t>/news,300332,1245414409.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>846</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
+          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-09 18:00</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1244788399.html</t>
+          <t>/news,300332,1245274849.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
+          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-09 08:48</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1244436172.html</t>
+          <t>/news,300332,1244901110.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天壕环境11月08日被深股通减持43.85万股</t>
+          <t>天壕环境11月09日被深股通减持5.04万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-10 07:52</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1244426484.html</t>
+          <t>/news,300332,1244891594.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
+          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-09 18:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1243984572.html</t>
+          <t>/news,300332,1244788399.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天壕环境11月07日获深股通增持90.51万股</t>
+          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 08:48</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1243976303.html</t>
+          <t>/news,300332,1244436172.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
+          <t>天壕环境11月08日被深股通减持43.85万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1243513721.html</t>
+          <t>/news,300332,1244426484.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
+          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1243408938.html</t>
+          <t>/news,300332,1243984572.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
+          <t>天壕环境11月07日获深股通增持90.51万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1243403871.html</t>
+          <t>/news,300332,1243976303.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天壕环境11月04日获深股通增持96.88万股</t>
+          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1243317870.html</t>
+          <t>/news,300332,1243513721.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>806</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
+          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1242826526.html</t>
+          <t>/news,300332,1243408938.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>821</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天壕环境11月03日获深股通增持46.33万股</t>
+          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1242815770.html</t>
+          <t>/news,300332,1243403871.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
+          <t>天壕环境11月04日获深股通增持96.88万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-03 08:54</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1242334790.html</t>
+          <t>/news,300332,1243317870.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境11月02日获深股通增持48.01万股</t>
+          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1242326444.html</t>
+          <t>/news,300332,1242826526.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
+          <t>天壕环境11月03日获深股通增持46.33万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-02 09:01</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1241811394.html</t>
+          <t>/news,300332,1242815770.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天壕环境11月01日获深股通增持1.71万股</t>
+          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-02 07:54</t>
+          <t>11-03 08:54</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1241801859.html</t>
+          <t>/news,300332,1242334790.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
+          <t>天壕环境11月02日获深股通增持48.01万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1241305451.html</t>
+          <t>/news,300332,1242326444.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天壕环境10月31日被深股通减持30.15万股</t>
+          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 09:01</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1241297004.html</t>
+          <t>/news,300332,1241811394.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
+          <t>天壕环境11月01日获深股通增持1.71万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,83 +1949,83 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-31 09:10</t>
+          <t>11-02 07:54</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1240801149.html</t>
+          <t>/news,300332,1241801859.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
+          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-30 15:04</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1240711492.html</t>
+          <t>/news,300332,1241305451.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>992</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
+          <t>天壕环境10月31日被深股通减持30.15万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1240706711.html</t>
+          <t>/news,300332,1241297004.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境10月28日被深股通减持108.43万股</t>
+          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,51 +2045,51 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>10-31 09:10</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1240600533.html</t>
+          <t>/news,300332,1240801149.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1686</t>
+          <t>1043</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
+          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>10-30 15:04</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1240465048.html</t>
+          <t>/news,300332,1240711492.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>994</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
+          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 09:10</t>
+          <t>10-30 14:05</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1240061867.html</t>
+          <t>/news,300332,1240706711.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天壕环境10月27日被深股通减持84.17万股</t>
+          <t>天壕环境10月28日被深股通减持108.43万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,51 +2141,51 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 07:46</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1240047233.html</t>
+          <t>/news,300332,1240600533.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>1691</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天壕环境接受76家机构调研！</t>
+          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-27 17:02</t>
+          <t>10-28 16:51</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1239887493.html</t>
+          <t>/news,300332,1240465048.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-27 16:53</t>
+          <t>10-28 09:10</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1239955885.html</t>
+          <t>/news,300332,1240061867.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
+          <t>天壕环境10月27日被深股通减持84.17万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-27 09:03</t>
+          <t>10-28 07:46</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1239508715.html</t>
+          <t>/news,300332,1240047233.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>802</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天壕环境10月26日被深股通减持70.43万股</t>
+          <t>天壕环境接受76家机构调研！</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-27 07:49</t>
+          <t>10-27 17:02</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1239497271.html</t>
+          <t>/news,300332,1239887493.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 19:48</t>
+          <t>10-27 16:53</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1239404765.html</t>
+          <t>/news,300332,1239955885.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
+          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-26 18:38</t>
+          <t>10-27 09:03</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1239385003.html</t>
+          <t>/news,300332,1239508715.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
+          <t>天壕环境10月26日被深股通减持70.43万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-26 12:56</t>
+          <t>10-27 07:49</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1239194248.html</t>
+          <t>/news,300332,1239497271.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1008</t>
+          <t>898</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-26 12:39</t>
+          <t>10-26 19:48</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1239184216.html</t>
+          <t>/news,300332,1239404765.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
+          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,115 +2429,115 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-26 11:42</t>
+          <t>10-26 18:38</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1239171537.html</t>
+          <t>/news,300332,1239385003.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
+          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-26 11:37</t>
+          <t>10-26 12:56</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1239168937.html</t>
+          <t>/news,300332,1239194248.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-26 09:52</t>
+          <t>10-26 12:39</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1239048382.html</t>
+          <t>/news,300332,1239184216.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
+          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-26 09:51</t>
+          <t>10-26 11:42</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1239043260.html</t>
+          <t>/news,300332,1239171537.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
+          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-26 09:02</t>
+          <t>10-26 11:37</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1238981241.html</t>
+          <t>/news,300332,1239168937.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境10月25日获深股通增持50.07万股</t>
+          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>10-26 09:52</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1238968103.html</t>
+          <t>/news,300332,1239048382.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 19:43</t>
+          <t>10-26 09:51</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1238869154.html</t>
+          <t>/news,300332,1239043260.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境：前三季度净利润同比增长415.90%</t>
+          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 19:27</t>
+          <t>10-26 09:02</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1238864925.html</t>
+          <t>/news,300332,1238981241.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
+          <t>天壕环境10月25日获深股通增持50.07万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 16:58</t>
+          <t>10-26 07:46</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1238818536.html</t>
+          <t>/news,300332,1238968103.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
+          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 16:27</t>
+          <t>10-25 19:43</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1238808877.html</t>
+          <t>/news,300332,1238869154.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
+          <t>天壕环境：前三季度净利润同比增长415.90%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 19:27</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1238806429.html</t>
+          <t>/news,300332,1238864925.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
+          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-25 16:06</t>
+          <t>10-25 16:58</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1238803227.html</t>
+          <t>/news,300332,1238818536.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
+          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-25 08:54</t>
+          <t>10-25 16:27</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1238458609.html</t>
+          <t>/news,300332,1238808877.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境10月24日获深股通增持73.9万股</t>
+          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1238448588.html</t>
+          <t>/news,300332,1238806429.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>1081</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
+          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-25 16:06</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1237859534.html</t>
+          <t>/news,300332,1238803227.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境10月21日获深股通增持58.93万股</t>
+          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-25 08:54</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1237796555.html</t>
+          <t>/news,300332,1238458609.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境10月20日被深股通减持23.37万股</t>
+          <t>天壕环境10月24日获深股通增持73.9万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,51 +2941,51 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-21 07:49</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1237348224.html</t>
+          <t>/news,300332,1238448588.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>947</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境10月19日被深股通减持2.68万股</t>
+          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1236888073.html</t>
+          <t>/news,300332,1237859534.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安渐成 稀缺管道价值获业绩验证</t>
+          <t>天壕环境10月21日获深股通增持58.93万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-19 15:02</t>
+          <t>10-22 07:47</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1236724772.html</t>
+          <t>/news,300332,1237796555.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：连续6日融资净买入累计2701.38万元（11-24）</t>
+          <t>天壕环境：连续5日融资净买入累计5121.81万元（12-02）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-25 08:49</t>
+          <t>12-05 08:54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1250951072.html</t>
+          <t>/news,300332,1254803303.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,71 +499,71 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境11月24日获深股通增持102.8万股</t>
+          <t>天壕环境本周融资净买入4668.45万元，居燃气板块第一</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-25 07:57</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1250944687.html</t>
+          <t>/news,300332,1254648841.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>872</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信证券首次给予天壕环境买入评级 目标价17元</t>
+          <t>天壕环境本周深股通持股市值减少931.03万元，居燃气板块第七</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-24 19:37</t>
+          <t>12-04 14:03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1250795876.html</t>
+          <t>/news,300332,1254642137.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
+          <t>天壕环境12月02日获深股通增持31.83万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-24 08:53</t>
+          <t>12-03 07:57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1250429887.html</t>
+          <t>/news,300332,1254513245.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境11月23日获深股通增持68.03万股</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-24 07:54</t>
+          <t>12-02 21:34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1250421100.html</t>
+          <t>/news,300332,1254413587.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
+          <t>天壕环境：接受东吴证券等机构调研</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>12-02 17:35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1249883362.html</t>
+          <t>/news,300332,1254324899.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境11月22日获深股通增持5.76万股</t>
+          <t>天壕环境：连续4日融资净买入累计4668.45万元（12-01）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>12-02 08:48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1249875643.html</t>
+          <t>/news,300332,1253920257.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>678</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
+          <t>德邦证券给予天壕环境增持评级 神安管道全线贯通 稀缺资产有望持续贡献业绩增量</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>12-02 08:40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1249356759.html</t>
+          <t>/news,300332,1253919008.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天壕环境11月21日获深股通增持17.27万股</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>12-02 08:38</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1249348886.html</t>
+          <t>/news,300332,1253918384.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-21 08:52</t>
+          <t>12-02 08:33</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1248872863.html</t>
+          <t>/news,300332,1253917819.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,61 +787,61 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
+          <t>天壕环境12月01日被深股通减持106.14万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>12-02 07:51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1248768258.html</t>
+          <t>/news,300332,1253913454.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>755</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
+          <t>东亚前海证券给予天壕环境推荐评级：神安线管道全线贯通 下游分销持续拓展</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-20 14:03</t>
+          <t>12-02 07:19</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1248762241.html</t>
+          <t>/news,300332,1253908820.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天壕环境11月18日获深股通增持52.04万股</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长99.38%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>12-02 06:58</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1248639123.html</t>
+          <t>/news,300332,1253907204.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>739</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
+          <t>天壕环境：神安线管道项目陕西-山西段正式通气</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-18 08:44</t>
+          <t>12-01 11:14</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1248161488.html</t>
+          <t>/news,300332,1253517481.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>2080</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天壕环境11月17日被深股通减持11.85万股</t>
+          <t>天壕环境对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>12-01 09:27</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1248151600.html</t>
+          <t>/news,300332,1253328904.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>659</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
+          <t>天壕环境：神安线管道实现全线贯通</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-17 08:46</t>
+          <t>12-01 09:08</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1247676194.html</t>
+          <t>/news,300332,1253314614.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天壕环境11月16日被深股通减持16.06万股</t>
+          <t>天壕环境：连续3日融资净买入累计2801.42万元（11-30）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>12-01 08:47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1247664267.html</t>
+          <t>/news,300332,1253310008.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>2548</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
+          <t>早间公告：天壕环境对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-16 08:51</t>
+          <t>12-01 08:22</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1247184272.html</t>
+          <t>/news,300332,1253306049.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天壕环境11月15日获深股通增持24.7万股</t>
+          <t>天壕环境：对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-16 08:00</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1247177109.html</t>
+          <t>/news,300332,1253302871.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
+          <t>天壕环境11月30日获深股通增持27.03万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-15 18:00</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1247068898.html</t>
+          <t>/news,300332,1253301858.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
+          <t>天壕环境：融资净买入1117.23万元，融资余额1.24亿元（11-29）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-15 09:00</t>
+          <t>11-30 08:57</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1246700508.html</t>
+          <t>/news,300332,1252788004.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天壕环境11月14日被深股通减持59.73万股</t>
+          <t>天壕环境11月29日被深股通减持70.8万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-15 07:45</t>
+          <t>11-30 07:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1246689367.html</t>
+          <t>/news,300332,1252777359.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
+          <t>天壕环境：融资净买入643.13万元，融资余额1.13亿元（11-28）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-14 18:00</t>
+          <t>11-29 08:46</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1246572597.html</t>
+          <t>/news,300332,1252221985.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
+          <t>天壕环境11月28日获深股通增持47.48万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,51 +1213,51 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-29 07:47</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1246197232.html</t>
+          <t>/news,300332,1252212181.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>1783</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
+          <t>天壕环境：我公司持有中联华瑞49%的股权 中联华瑞不在公司的合并报表范围内</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-13 15:03</t>
+          <t>11-28 15:44</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1246098041.html</t>
+          <t>/news,300332,1252043032.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,61 +1267,61 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
+          <t>天壕环境：融资净偿还16.7万元，融资余额1.07亿元（11-25）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-13 14:04</t>
+          <t>11-28 08:56</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1246093182.html</t>
+          <t>/news,300332,1251736216.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天壕环境11月11日被深股通减持39.15万股</t>
+          <t>天壕环境本周融资净买入1331.01万元，居燃气板块第一</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-12 07:50</t>
+          <t>11-27 15:05</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1245986756.html</t>
+          <t>/news,300332,1251589649.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,39 +1331,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
+          <t>天壕环境本周深股通持股市值增加2854.94万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-11 08:46</t>
+          <t>11-27 14:04</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1245423620.html</t>
+          <t>/news,300332,1251583660.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>475</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天壕环境11月10日被深股通减持21.01万股</t>
+          <t>天壕环境11月25日获深股通增持23.27万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-11 07:58</t>
+          <t>11-26 07:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1245414409.html</t>
+          <t>/news,300332,1251434804.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
+          <t>天壕环境：连续6日融资净买入累计2701.38万元（11-24）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-25 08:49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1245274849.html</t>
+          <t>/news,300332,1250951072.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
+          <t>天壕环境11月24日获深股通增持102.8万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,61 +1437,61 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-25 07:57</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1244901110.html</t>
+          <t>/news,300332,1250944687.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>1342</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天壕环境11月09日被深股通减持5.04万股</t>
+          <t>中信证券首次给予天壕环境买入评级 目标价17元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-10 07:52</t>
+          <t>11-24 19:37</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1244891594.html</t>
+          <t>/news,300332,1250795876.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
+          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-09 18:00</t>
+          <t>11-24 08:53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1244788399.html</t>
+          <t>/news,300332,1250429887.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
+          <t>天壕环境11月23日获深股通增持68.03万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-09 08:48</t>
+          <t>11-24 07:54</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1244436172.html</t>
+          <t>/news,300332,1250421100.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天壕环境11月08日被深股通减持43.85万股</t>
+          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1244426484.html</t>
+          <t>/news,300332,1249883362.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
+          <t>天壕环境11月22日获深股通增持5.76万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1243984572.html</t>
+          <t>/news,300332,1249875643.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天壕环境11月07日获深股通增持90.51万股</t>
+          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1243976303.html</t>
+          <t>/news,300332,1249356759.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
+          <t>天壕环境11月21日获深股通增持17.27万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1243513721.html</t>
+          <t>/news,300332,1249348886.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,93 +1683,93 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
+          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-21 08:52</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1243408938.html</t>
+          <t>/news,300332,1248872863.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>486</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
+          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1243403871.html</t>
+          <t>/news,300332,1248768258.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天壕环境11月04日获深股通增持96.88万股</t>
+          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-20 14:03</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1243317870.html</t>
+          <t>/news,300332,1248762241.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
+          <t>天壕环境11月18日获深股通增持52.04万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1242826526.html</t>
+          <t>/news,300332,1248639123.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天壕环境11月03日获深股通增持46.33万股</t>
+          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-18 08:44</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1242815770.html</t>
+          <t>/news,300332,1248161488.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
+          <t>天壕环境11月17日被深股通减持11.85万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-03 08:54</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1242334790.html</t>
+          <t>/news,300332,1248151600.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境11月02日获深股通增持48.01万股</t>
+          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-17 08:46</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1242326444.html</t>
+          <t>/news,300332,1247676194.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
+          <t>天壕环境11月16日被深股通减持16.06万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-02 09:01</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1241811394.html</t>
+          <t>/news,300332,1247664267.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天壕环境11月01日获深股通增持1.71万股</t>
+          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-02 07:54</t>
+          <t>11-16 08:51</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1241801859.html</t>
+          <t>/news,300332,1247184272.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
+          <t>天壕环境11月15日获深股通增持24.7万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-16 08:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1241305451.html</t>
+          <t>/news,300332,1247177109.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天壕环境10月31日被深股通减持30.15万股</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-15 18:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1241297004.html</t>
+          <t>/news,300332,1247068898.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
+          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,83 +2045,83 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-31 09:10</t>
+          <t>11-15 09:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1240801149.html</t>
+          <t>/news,300332,1246700508.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1043</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
+          <t>天壕环境11月14日被深股通减持59.73万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-30 15:04</t>
+          <t>11-15 07:45</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1240711492.html</t>
+          <t>/news,300332,1246689367.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>994</t>
+          <t>911</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1712.15万元，居燃气板块第二</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-30 14:05</t>
+          <t>11-14 18:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1240706711.html</t>
+          <t>/news,300332,1246572597.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天壕环境10月28日被深股通减持108.43万股</t>
+          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,51 +2141,51 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1240600533.html</t>
+          <t>/news,300332,1246197232.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1691</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>广发证券维持天壕环境买入评级 目标价20.54元</t>
+          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 16:51</t>
+          <t>11-13 15:03</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1240465048.html</t>
+          <t>/news,300332,1246098041.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>640</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,39 +2195,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入491.81万元，融资余额2690.91万元（10-27）</t>
+          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-28 09:10</t>
+          <t>11-13 14:04</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1240061867.html</t>
+          <t>/news,300332,1246093182.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天壕环境10月27日被深股通减持84.17万股</t>
+          <t>天壕环境11月11日被深股通减持39.15万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 07:46</t>
+          <t>11-12 07:50</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1240047233.html</t>
+          <t>/news,300332,1245986756.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天壕环境接受76家机构调研！</t>
+          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-27 17:02</t>
+          <t>11-11 08:46</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1239887493.html</t>
+          <t>/news,300332,1245423620.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境11月10日被深股通减持21.01万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-27 16:53</t>
+          <t>11-11 07:58</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1239955885.html</t>
+          <t>/news,300332,1245414409.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>868</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入802.39万元，融资余额2199.09万元（10-26）</t>
+          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-27 09:03</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1239508715.html</t>
+          <t>/news,300332,1245274849.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天壕环境10月26日被深股通减持70.43万股</t>
+          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-27 07:49</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1239497271.html</t>
+          <t>/news,300332,1244901110.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境11月09日被深股通减持5.04万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-26 19:48</t>
+          <t>11-10 07:52</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1239404765.html</t>
+          <t>/news,300332,1244891594.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 2022Q3营收同比高增123% 验证神安价值</t>
+          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-26 18:38</t>
+          <t>11-09 18:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1239385003.html</t>
+          <t>/news,300332,1244788399.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>东吴证券给予天壕环境买入评级：业绩持续高增验证盈利模式 期待供需错配下稀缺跨省长输发展</t>
+          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,61 +2461,61 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-26 12:56</t>
+          <t>11-09 08:48</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1239194248.html</t>
+          <t>/news,300332,1244436172.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>天壕环境11月08日被深股通减持43.85万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-26 12:39</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1239184216.html</t>
+          <t>/news,300332,1244426484.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中国银河给予天壕环境推荐评级 售气量增加拉动业绩高增长 期待四季度神安线全线贯通</t>
+          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-26 11:42</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1239171537.html</t>
+          <t>/news,300332,1243984572.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中国银河首次给予天壕环境推荐评级 预计2022年净利润同比增长96.83%</t>
+          <t>天壕环境11月07日获深股通增持90.51万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-26 11:37</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1239168937.html</t>
+          <t>/news,300332,1243976303.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：下游分销持续开拓 售气规模有望高速增长</t>
+          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-26 09:52</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1239048382.html</t>
+          <t>/news,300332,1243513721.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>835</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长126.08%</t>
+          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-26 09:51</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1239043260.html</t>
+          <t>/news,300332,1243408938.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>842</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1066.95万元，融资余额1396.71万元（10-25）</t>
+          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-26 09:02</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1238981241.html</t>
+          <t>/news,300332,1243403871.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境10月25日获深股通增持50.07万股</t>
+          <t>天壕环境11月04日获深股通增持96.88万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-26 07:46</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1238968103.html</t>
+          <t>/news,300332,1243317870.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>【图解季报】天壕环境：2022年前三季度归母净利润同比翻4倍，约为2.6亿元</t>
+          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 19:43</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1238869154.html</t>
+          <t>/news,300332,1242826526.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境：前三季度净利润同比增长415.90%</t>
+          <t>天壕环境11月03日获深股通增持46.33万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 19:27</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1238864925.html</t>
+          <t>/news,300332,1242815770.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境：前三季实现净利润2.64亿元，同比增长416%</t>
+          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-25 16:58</t>
+          <t>11-03 08:54</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1238818536.html</t>
+          <t>/news,300332,1242334790.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天壕环境股东户数下降10.65%，户均持股55.8万元</t>
+          <t>天壕环境11月02日获深股通增持48.01万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-25 16:27</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1238808877.html</t>
+          <t>/news,300332,1242326444.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润约2.64亿元</t>
+          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,51 +2845,51 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>11-02 09:01</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1238806429.html</t>
+          <t>/news,300332,1241811394.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1081</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境：2022年前三季度净利润同比增长415.9%</t>
+          <t>天壕环境11月01日获深股通增持1.71万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-25 16:06</t>
+          <t>11-02 07:54</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1238803227.html</t>
+          <t>/news,300332,1241801859.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境：纳入融资融券标的首日，融资买入333.02万元（10-24）</t>
+          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-25 08:54</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1238458609.html</t>
+          <t>/news,300332,1241305451.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境10月24日获深股通增持73.9万股</t>
+          <t>天壕环境10月31日被深股通减持30.15万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,76 +2941,76 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1238448588.html</t>
+          <t>/news,300332,1241297004.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少589.57万元，居燃气板块第六</t>
+          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-31 09:10</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1237859534.html</t>
+          <t>/news,300332,1240801149.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>1063</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境10月21日获深股通增持58.93万股</t>
+          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-22 07:47</t>
+          <t>10-30 15:04</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1237796555.html</t>
+          <t>/news,300332,1240711492.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>113</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计5121.81万元（12-02）</t>
+          <t>天壕环境：融资净偿还585.76万元，融资余额1.52亿元（12-05）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-05 08:54</t>
+          <t>12-06 08:49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1254803303.html</t>
+          <t>/news,300332,1255457315.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入4668.45万元，居燃气板块第一</t>
+          <t>天壕环境12月05日被深股通减持20.57万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-06 07:57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1254648841.html</t>
+          <t>/news,300332,1255449685.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少931.03万元，居燃气板块第七</t>
+          <t>天壕环境：连续5日融资净买入累计5121.81万元（12-02）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-04 14:03</t>
+          <t>12-05 08:54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1254642137.html</t>
+          <t>/news,300332,1254803303.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,61 +563,61 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境12月02日获深股通增持31.83万股</t>
+          <t>天壕环境本周融资净买入4668.45万元，居燃气板块第一</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-03 07:57</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1254513245.html</t>
+          <t>/news,300332,1254648841.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境本周深股通持股市值减少931.03万元，居燃气板块第七</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-02 21:34</t>
+          <t>12-04 14:03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1254413587.html</t>
+          <t>/news,300332,1254642137.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境：接受东吴证券等机构调研</t>
+          <t>天壕环境12月02日获深股通增持31.83万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-02 17:35</t>
+          <t>12-03 07:57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1254324899.html</t>
+          <t>/news,300332,1254513245.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>599</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计4668.45万元（12-01）</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-02 08:48</t>
+          <t>12-02 21:34</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1253920257.html</t>
+          <t>/news,300332,1254413587.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安管道全线贯通 稀缺资产有望持续贡献业绩增量</t>
+          <t>天壕环境：接受东吴证券等机构调研</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-02 08:40</t>
+          <t>12-02 17:35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1253919008.html</t>
+          <t>/news,300332,1254324899.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,167 +723,167 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>天壕环境：连续4日融资净买入累计4668.45万元（12-01）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-02 08:38</t>
+          <t>12-02 08:48</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1253918384.html</t>
+          <t>/news,300332,1253920257.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>705</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>德邦证券给予天壕环境增持评级 神安管道全线贯通 稀缺资产有望持续贡献业绩增量</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 08:33</t>
+          <t>12-02 08:40</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1253917819.html</t>
+          <t>/news,300332,1253919008.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天壕环境12月01日被深股通减持106.14万股</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 07:51</t>
+          <t>12-02 08:38</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1253913454.html</t>
+          <t>/news,300332,1253918384.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：神安线管道全线贯通 下游分销持续拓展</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 07:19</t>
+          <t>12-02 08:33</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1253908820.html</t>
+          <t>/news,300332,1253917819.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长99.38%</t>
+          <t>天壕环境12月01日被深股通减持106.14万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 06:58</t>
+          <t>12-02 07:51</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1253907204.html</t>
+          <t>/news,300332,1253913454.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>796</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天壕环境：神安线管道项目陕西-山西段正式通气</t>
+          <t>东亚前海证券给予天壕环境推荐评级：神安线管道全线贯通 下游分销持续拓展</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,51 +893,51 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-01 11:14</t>
+          <t>12-02 07:19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1253517481.html</t>
+          <t>/news,300332,1253908820.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2080</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天壕环境对外投资项目神安线管道全线贯通</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长99.38%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-01 09:27</t>
+          <t>12-02 06:58</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1253328904.html</t>
+          <t>/news,300332,1253907204.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>747</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天壕环境：神安线管道实现全线贯通</t>
+          <t>天壕环境：神安线管道项目陕西-山西段正式通气</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 09:08</t>
+          <t>12-01 11:14</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1253314614.html</t>
+          <t>/news,300332,1253517481.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>2086</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2801.42万元（11-30）</t>
+          <t>天壕环境对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-01 08:47</t>
+          <t>12-01 09:27</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1253310008.html</t>
+          <t>/news,300332,1253328904.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2548</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>早间公告：天壕环境对外投资项目神安线管道全线贯通</t>
+          <t>天壕环境：神安线管道实现全线贯通</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-01 08:22</t>
+          <t>12-01 09:08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1253306049.html</t>
+          <t>/news,300332,1253314614.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天壕环境：对外投资项目神安线管道全线贯通</t>
+          <t>天壕环境：连续3日融资净买入累计2801.42万元（11-30）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-01 08:47</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1253302871.html</t>
+          <t>/news,300332,1253310008.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>2553</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天壕环境11月30日获深股通增持27.03万股</t>
+          <t>早间公告：天壕环境对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-01 08:22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1253301858.html</t>
+          <t>/news,300332,1253306049.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1117.23万元，融资余额1.24亿元（11-29）</t>
+          <t>天壕环境：对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-30 08:57</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1252788004.html</t>
+          <t>/news,300332,1253302871.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天壕环境11月29日被深股通减持70.8万股</t>
+          <t>天壕环境11月30日获深股通增持27.03万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-30 07:45</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1252777359.html</t>
+          <t>/news,300332,1253301858.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入643.13万元，融资余额1.13亿元（11-28）</t>
+          <t>天壕环境：融资净买入1117.23万元，融资余额1.24亿元（11-29）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-29 08:46</t>
+          <t>11-30 08:57</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1252221985.html</t>
+          <t>/news,300332,1252788004.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天壕环境11月28日获深股通增持47.48万股</t>
+          <t>天壕环境11月29日被深股通减持70.8万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-29 07:47</t>
+          <t>11-30 07:45</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1252212181.html</t>
+          <t>/news,300332,1252777359.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1783</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天壕环境：我公司持有中联华瑞49%的股权 中联华瑞不在公司的合并报表范围内</t>
+          <t>天壕环境：融资净买入643.13万元，融资余额1.13亿元（11-28）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-28 15:44</t>
+          <t>11-29 08:46</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1252043032.html</t>
+          <t>/news,300332,1252221985.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还16.7万元，融资余额1.07亿元（11-25）</t>
+          <t>天壕环境11月28日获深股通增持47.48万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-28 08:56</t>
+          <t>11-29 07:47</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1251736216.html</t>
+          <t>/news,300332,1252212181.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>1791</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1331.01万元，居燃气板块第一</t>
+          <t>天壕环境：我公司持有中联华瑞49%的股权 中联华瑞不在公司的合并报表范围内</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-27 15:05</t>
+          <t>11-28 15:44</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1251589649.html</t>
+          <t>/news,300332,1252043032.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,61 +1331,61 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2854.94万元，居燃气板块第二</t>
+          <t>天壕环境：融资净偿还16.7万元，融资余额1.07亿元（11-25）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-27 14:04</t>
+          <t>11-28 08:56</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1251583660.html</t>
+          <t>/news,300332,1251736216.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天壕环境11月25日获深股通增持23.27万股</t>
+          <t>天壕环境本周融资净买入1331.01万元，居燃气板块第一</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-26 07:56</t>
+          <t>11-27 15:05</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1251434804.html</t>
+          <t>/news,300332,1251589649.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,39 +1395,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天壕环境：连续6日融资净买入累计2701.38万元（11-24）</t>
+          <t>天壕环境本周深股通持股市值增加2854.94万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-25 08:49</t>
+          <t>11-27 14:04</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1250951072.html</t>
+          <t>/news,300332,1251583660.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天壕环境11月24日获深股通增持102.8万股</t>
+          <t>天壕环境11月25日获深股通增持23.27万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,61 +1437,61 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-25 07:57</t>
+          <t>11-26 07:56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1250944687.html</t>
+          <t>/news,300332,1251434804.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1342</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中信证券首次给予天壕环境买入评级 目标价17元</t>
+          <t>天壕环境：连续6日融资净买入累计2701.38万元（11-24）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-24 19:37</t>
+          <t>11-25 08:49</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1250795876.html</t>
+          <t>/news,300332,1250951072.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
+          <t>天壕环境11月24日获深股通增持102.8万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,61 +1501,61 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-24 08:53</t>
+          <t>11-25 07:57</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1250429887.html</t>
+          <t>/news,300332,1250944687.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>1344</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天壕环境11月23日获深股通增持68.03万股</t>
+          <t>中信证券首次给予天壕环境买入评级 目标价17元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-24 07:54</t>
+          <t>11-24 19:37</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1250421100.html</t>
+          <t>/news,300332,1250795876.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
+          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>11-24 08:53</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1249883362.html</t>
+          <t>/news,300332,1250429887.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天壕环境11月22日获深股通增持5.76万股</t>
+          <t>天壕环境11月23日获深股通增持68.03万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-24 07:54</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1249875643.html</t>
+          <t>/news,300332,1250421100.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
+          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1249356759.html</t>
+          <t>/news,300332,1249883362.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天壕环境11月21日获深股通增持17.27万股</t>
+          <t>天壕环境11月22日获深股通增持5.76万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1249348886.html</t>
+          <t>/news,300332,1249875643.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
+          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,147 +1693,147 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-21 08:52</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1248872863.html</t>
+          <t>/news,300332,1249356759.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
+          <t>天壕环境11月21日获深股通增持17.27万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1248768258.html</t>
+          <t>/news,300332,1249348886.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
+          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-20 14:03</t>
+          <t>11-21 08:52</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1248762241.html</t>
+          <t>/news,300332,1248872863.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境11月18日获深股通增持52.04万股</t>
+          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1248639123.html</t>
+          <t>/news,300332,1248768258.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
+          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-18 08:44</t>
+          <t>11-20 14:03</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1248161488.html</t>
+          <t>/news,300332,1248762241.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天壕环境11月17日被深股通减持11.85万股</t>
+          <t>天壕环境11月18日获深股通增持52.04万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1248151600.html</t>
+          <t>/news,300332,1248639123.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
+          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-17 08:46</t>
+          <t>11-18 08:44</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1247676194.html</t>
+          <t>/news,300332,1248161488.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天壕环境11月16日被深股通减持16.06万股</t>
+          <t>天壕环境11月17日被深股通减持11.85万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1247664267.html</t>
+          <t>/news,300332,1248151600.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
+          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-16 08:51</t>
+          <t>11-17 08:46</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1247184272.html</t>
+          <t>/news,300332,1247676194.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天壕环境11月15日获深股通增持24.7万股</t>
+          <t>天壕环境11月16日被深股通减持16.06万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-16 08:00</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1247177109.html</t>
+          <t>/news,300332,1247664267.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
+          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-15 18:00</t>
+          <t>11-16 08:51</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1247068898.html</t>
+          <t>/news,300332,1247184272.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
+          <t>天壕环境11月15日获深股通增持24.7万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-15 09:00</t>
+          <t>11-16 08:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1246700508.html</t>
+          <t>/news,300332,1247177109.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天壕环境11月14日被深股通减持59.73万股</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-15 07:45</t>
+          <t>11-15 18:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1246689367.html</t>
+          <t>/news,300332,1247068898.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
+          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-14 18:00</t>
+          <t>11-15 09:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1246572597.html</t>
+          <t>/news,300332,1246700508.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
+          <t>天壕环境11月14日被深股通减持59.73万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,51 +2141,51 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-15 07:45</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1246197232.html</t>
+          <t>/news,300332,1246689367.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>912</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-13 15:03</t>
+          <t>11-14 18:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1246098041.html</t>
+          <t>/news,300332,1246572597.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,61 +2195,61 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
+          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-13 14:04</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1246093182.html</t>
+          <t>/news,300332,1246197232.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天壕环境11月11日被深股通减持39.15万股</t>
+          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-12 07:50</t>
+          <t>11-13 15:03</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1245986756.html</t>
+          <t>/news,300332,1246098041.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>641</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,39 +2259,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
+          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-11 08:46</t>
+          <t>11-13 14:04</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1245423620.html</t>
+          <t>/news,300332,1246093182.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天壕环境11月10日被深股通减持21.01万股</t>
+          <t>天壕环境11月11日被深股通减持39.15万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-11 07:58</t>
+          <t>11-12 07:50</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1245414409.html</t>
+          <t>/news,300332,1245986756.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
+          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-11 08:46</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1245274849.html</t>
+          <t>/news,300332,1245423620.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
+          <t>天壕环境11月10日被深股通减持21.01万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 07:58</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1244901110.html</t>
+          <t>/news,300332,1245414409.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>868</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天壕环境11月09日被深股通减持5.04万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-10 07:52</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1244891594.html</t>
+          <t>/news,300332,1245274849.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
+          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-09 18:00</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1244788399.html</t>
+          <t>/news,300332,1244901110.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
+          <t>天壕环境11月09日被深股通减持5.04万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-09 08:48</t>
+          <t>11-10 07:52</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1244436172.html</t>
+          <t>/news,300332,1244891594.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天壕环境11月08日被深股通减持43.85万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-09 18:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1244426484.html</t>
+          <t>/news,300332,1244788399.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
+          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-09 08:48</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1243984572.html</t>
+          <t>/news,300332,1244436172.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天壕环境11月07日获深股通增持90.51万股</t>
+          <t>天壕环境11月08日被深股通减持43.85万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1243976303.html</t>
+          <t>/news,300332,1244426484.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
+          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1243513721.html</t>
+          <t>/news,300332,1243984572.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
+          <t>天壕环境11月07日获深股通增持90.51万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1243408938.html</t>
+          <t>/news,300332,1243976303.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1243403871.html</t>
+          <t>/news,300332,1243513721.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>835</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境11月04日获深股通增持96.88万股</t>
+          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1243317870.html</t>
+          <t>/news,300332,1243408938.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>842</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
+          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1242826526.html</t>
+          <t>/news,300332,1243403871.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境11月03日获深股通增持46.33万股</t>
+          <t>天壕环境11月04日获深股通增持96.88万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1242815770.html</t>
+          <t>/news,300332,1243317870.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
+          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-03 08:54</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1242334790.html</t>
+          <t>/news,300332,1242826526.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天壕环境11月02日获深股通增持48.01万股</t>
+          <t>天壕环境11月03日获深股通增持46.33万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1242326444.html</t>
+          <t>/news,300332,1242815770.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
+          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-02 09:01</t>
+          <t>11-03 08:54</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1241811394.html</t>
+          <t>/news,300332,1242334790.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境11月01日获深股通增持1.71万股</t>
+          <t>天壕环境11月02日获深股通增持48.01万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-02 07:54</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1241801859.html</t>
+          <t>/news,300332,1242326444.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
+          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-02 09:01</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1241305451.html</t>
+          <t>/news,300332,1241811394.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境10月31日被深股通减持30.15万股</t>
+          <t>天壕环境11月01日获深股通增持1.71万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 07:54</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1241297004.html</t>
+          <t>/news,300332,1241801859.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入606.01万元，融资余额3296.92万元（10-28）</t>
+          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-31 09:10</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1240801149.html</t>
+          <t>/news,300332,1241305451.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1063</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入2361.15万元，居燃气板块第二</t>
+          <t>天壕环境10月31日被深股通减持30.15万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-30 15:04</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1240711492.html</t>
+          <t>/news,300332,1241297004.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还585.76万元，融资余额1.52亿元（12-05）</t>
+          <t>天壕环境：融资净偿还607.77万元，融资余额1.46亿元（12-06）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-06 08:49</t>
+          <t>12-07 09:01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1255457315.html</t>
+          <t>/news,300332,1256101773.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境12月05日被深股通减持20.57万股</t>
+          <t>天壕环境12月06日获深股通增持28.15万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-06 07:57</t>
+          <t>12-07 07:52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1255449685.html</t>
+          <t>/news,300332,1256091546.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计5121.81万元（12-02）</t>
+          <t>天壕环境：融资净偿还585.76万元，融资余额1.52亿元（12-05）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-05 08:54</t>
+          <t>12-06 08:49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1254803303.html</t>
+          <t>/news,300332,1255457315.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入4668.45万元，居燃气板块第一</t>
+          <t>天壕环境12月05日被深股通减持20.57万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-06 07:57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1254648841.html</t>
+          <t>/news,300332,1255449685.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少931.03万元，居燃气板块第七</t>
+          <t>天壕环境：连续5日融资净买入累计5121.81万元（12-02）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-04 14:03</t>
+          <t>12-05 08:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1254642137.html</t>
+          <t>/news,300332,1254803303.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,61 +627,61 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境12月02日获深股通增持31.83万股</t>
+          <t>天壕环境本周融资净买入4668.45万元，居燃气板块第一</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-03 07:57</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1254513245.html</t>
+          <t>/news,300332,1254648841.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境本周深股通持股市值减少931.03万元，居燃气板块第七</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-02 21:34</t>
+          <t>12-04 14:03</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1254413587.html</t>
+          <t>/news,300332,1254642137.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境：接受东吴证券等机构调研</t>
+          <t>天壕环境12月02日获深股通增持31.83万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-02 17:35</t>
+          <t>12-03 07:57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1254324899.html</t>
+          <t>/news,300332,1254513245.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计4668.45万元（12-01）</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-02 08:48</t>
+          <t>12-02 21:34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1253920257.html</t>
+          <t>/news,300332,1254413587.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安管道全线贯通 稀缺资产有望持续贡献业绩增量</t>
+          <t>天壕环境：接受东吴证券等机构调研</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 08:40</t>
+          <t>12-02 17:35</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1253919008.html</t>
+          <t>/news,300332,1254324899.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,167 +787,167 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>天壕环境：连续4日融资净买入累计4668.45万元（12-01）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 08:38</t>
+          <t>12-02 08:48</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1253918384.html</t>
+          <t>/news,300332,1253920257.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>717</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>德邦证券给予天壕环境增持评级 神安管道全线贯通 稀缺资产有望持续贡献业绩增量</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 08:33</t>
+          <t>12-02 08:40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1253917819.html</t>
+          <t>/news,300332,1253919008.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天壕环境12月01日被深股通减持106.14万股</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 07:51</t>
+          <t>12-02 08:38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1253913454.html</t>
+          <t>/news,300332,1253918384.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：神安线管道全线贯通 下游分销持续拓展</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 07:19</t>
+          <t>12-02 08:33</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1253908820.html</t>
+          <t>/news,300332,1253917819.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长99.38%</t>
+          <t>天壕环境12月01日被深股通减持106.14万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-02 06:58</t>
+          <t>12-02 07:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1253907204.html</t>
+          <t>/news,300332,1253913454.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>824</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天壕环境：神安线管道项目陕西-山西段正式通气</t>
+          <t>东亚前海证券给予天壕环境推荐评级：神安线管道全线贯通 下游分销持续拓展</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,51 +957,51 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 11:14</t>
+          <t>12-02 07:19</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1253517481.html</t>
+          <t>/news,300332,1253908820.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天壕环境对外投资项目神安线管道全线贯通</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长99.38%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-01 09:27</t>
+          <t>12-02 06:58</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1253328904.html</t>
+          <t>/news,300332,1253907204.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>751</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天壕环境：神安线管道实现全线贯通</t>
+          <t>天壕环境：神安线管道项目陕西-山西段正式通气</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-01 09:08</t>
+          <t>12-01 11:14</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1253314614.html</t>
+          <t>/news,300332,1253517481.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>2094</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2801.42万元（11-30）</t>
+          <t>天壕环境对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 08:47</t>
+          <t>12-01 09:27</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1253310008.html</t>
+          <t>/news,300332,1253328904.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2553</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>早间公告：天壕环境对外投资项目神安线管道全线贯通</t>
+          <t>天壕环境：神安线管道实现全线贯通</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 08:22</t>
+          <t>12-01 09:08</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1253306049.html</t>
+          <t>/news,300332,1253314614.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天壕环境：对外投资项目神安线管道全线贯通</t>
+          <t>天壕环境：连续3日融资净买入累计2801.42万元（11-30）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-01 08:47</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1253302871.html</t>
+          <t>/news,300332,1253310008.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>2558</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天壕环境11月30日获深股通增持27.03万股</t>
+          <t>早间公告：天壕环境对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-01 08:22</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1253301858.html</t>
+          <t>/news,300332,1253306049.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1117.23万元，融资余额1.24亿元（11-29）</t>
+          <t>天壕环境：对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-30 08:57</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1252788004.html</t>
+          <t>/news,300332,1253302871.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天壕环境11月29日被深股通减持70.8万股</t>
+          <t>天壕环境11月30日获深股通增持27.03万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-30 07:45</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1252777359.html</t>
+          <t>/news,300332,1253301858.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入643.13万元，融资余额1.13亿元（11-28）</t>
+          <t>天壕环境：融资净买入1117.23万元，融资余额1.24亿元（11-29）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-29 08:46</t>
+          <t>11-30 08:57</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1252221985.html</t>
+          <t>/news,300332,1252788004.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天壕环境11月28日获深股通增持47.48万股</t>
+          <t>天壕环境11月29日被深股通减持70.8万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-29 07:47</t>
+          <t>11-30 07:45</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1252212181.html</t>
+          <t>/news,300332,1252777359.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1791</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天壕环境：我公司持有中联华瑞49%的股权 中联华瑞不在公司的合并报表范围内</t>
+          <t>天壕环境：融资净买入643.13万元，融资余额1.13亿元（11-28）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-28 15:44</t>
+          <t>11-29 08:46</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1252043032.html</t>
+          <t>/news,300332,1252221985.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还16.7万元，融资余额1.07亿元（11-25）</t>
+          <t>天壕环境11月28日获深股通增持47.48万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,51 +1341,51 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-28 08:56</t>
+          <t>11-29 07:47</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1251736216.html</t>
+          <t>/news,300332,1252212181.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>1795</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1331.01万元，居燃气板块第一</t>
+          <t>天壕环境：我公司持有中联华瑞49%的股权 中联华瑞不在公司的合并报表范围内</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-27 15:05</t>
+          <t>11-28 15:44</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1251589649.html</t>
+          <t>/news,300332,1252043032.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,61 +1395,61 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2854.94万元，居燃气板块第二</t>
+          <t>天壕环境：融资净偿还16.7万元，融资余额1.07亿元（11-25）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-27 14:04</t>
+          <t>11-28 08:56</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1251583660.html</t>
+          <t>/news,300332,1251736216.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天壕环境11月25日获深股通增持23.27万股</t>
+          <t>天壕环境本周融资净买入1331.01万元，居燃气板块第一</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-26 07:56</t>
+          <t>11-27 15:05</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1251434804.html</t>
+          <t>/news,300332,1251589649.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天壕环境：连续6日融资净买入累计2701.38万元（11-24）</t>
+          <t>天壕环境本周深股通持股市值增加2854.94万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-25 08:49</t>
+          <t>11-27 14:04</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1250951072.html</t>
+          <t>/news,300332,1251583660.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天壕环境11月24日获深股通增持102.8万股</t>
+          <t>天壕环境11月25日获深股通增持23.27万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,61 +1501,61 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-25 07:57</t>
+          <t>11-26 07:56</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1250944687.html</t>
+          <t>/news,300332,1251434804.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1344</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中信证券首次给予天壕环境买入评级 目标价17元</t>
+          <t>天壕环境：连续6日融资净买入累计2701.38万元（11-24）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-24 19:37</t>
+          <t>11-25 08:49</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1250795876.html</t>
+          <t>/news,300332,1250951072.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
+          <t>天壕环境11月24日获深股通增持102.8万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,61 +1565,61 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-24 08:53</t>
+          <t>11-25 07:57</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1250429887.html</t>
+          <t>/news,300332,1250944687.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>1346</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天壕环境11月23日获深股通增持68.03万股</t>
+          <t>中信证券首次给予天壕环境买入评级 目标价17元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-24 07:54</t>
+          <t>11-24 19:37</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1250421100.html</t>
+          <t>/news,300332,1250795876.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
+          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>11-24 08:53</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1249883362.html</t>
+          <t>/news,300332,1250429887.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天壕环境11月22日获深股通增持5.76万股</t>
+          <t>天壕环境11月23日获深股通增持68.03万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-24 07:54</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1249875643.html</t>
+          <t>/news,300332,1250421100.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
+          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1249356759.html</t>
+          <t>/news,300332,1249883362.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天壕环境11月21日获深股通增持17.27万股</t>
+          <t>天壕环境11月22日获深股通增持5.76万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1249348886.html</t>
+          <t>/news,300332,1249875643.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
+          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,147 +1757,147 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-21 08:52</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1248872863.html</t>
+          <t>/news,300332,1249356759.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
+          <t>天壕环境11月21日获深股通增持17.27万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1248768258.html</t>
+          <t>/news,300332,1249348886.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
+          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-20 14:03</t>
+          <t>11-21 08:52</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1248762241.html</t>
+          <t>/news,300332,1248872863.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天壕环境11月18日获深股通增持52.04万股</t>
+          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1248639123.html</t>
+          <t>/news,300332,1248768258.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
+          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-18 08:44</t>
+          <t>11-20 14:03</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1248161488.html</t>
+          <t>/news,300332,1248762241.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天壕环境11月17日被深股通减持11.85万股</t>
+          <t>天壕环境11月18日获深股通增持52.04万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1248151600.html</t>
+          <t>/news,300332,1248639123.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
+          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-17 08:46</t>
+          <t>11-18 08:44</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1247676194.html</t>
+          <t>/news,300332,1248161488.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天壕环境11月16日被深股通减持16.06万股</t>
+          <t>天壕环境11月17日被深股通减持11.85万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1247664267.html</t>
+          <t>/news,300332,1248151600.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
+          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-16 08:51</t>
+          <t>11-17 08:46</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1247184272.html</t>
+          <t>/news,300332,1247676194.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境11月15日获深股通增持24.7万股</t>
+          <t>天壕环境11月16日被深股通减持16.06万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-16 08:00</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1247177109.html</t>
+          <t>/news,300332,1247664267.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
+          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-15 18:00</t>
+          <t>11-16 08:51</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1247068898.html</t>
+          <t>/news,300332,1247184272.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
+          <t>天壕环境11月15日获深股通增持24.7万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-15 09:00</t>
+          <t>11-16 08:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1246700508.html</t>
+          <t>/news,300332,1247177109.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天壕环境11月14日被深股通减持59.73万股</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-15 07:45</t>
+          <t>11-15 18:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1246689367.html</t>
+          <t>/news,300332,1247068898.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
+          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-14 18:00</t>
+          <t>11-15 09:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1246572597.html</t>
+          <t>/news,300332,1246700508.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
+          <t>天壕环境11月14日被深股通减持59.73万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,51 +2205,51 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-15 07:45</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1246197232.html</t>
+          <t>/news,300332,1246689367.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>913</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-13 15:03</t>
+          <t>11-14 18:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1246098041.html</t>
+          <t>/news,300332,1246572597.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,61 +2259,61 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
+          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-13 14:04</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1246093182.html</t>
+          <t>/news,300332,1246197232.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>654</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天壕环境11月11日被深股通减持39.15万股</t>
+          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-12 07:50</t>
+          <t>11-13 15:03</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1245986756.html</t>
+          <t>/news,300332,1246098041.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>641</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
+          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-11 08:46</t>
+          <t>11-13 14:04</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1245423620.html</t>
+          <t>/news,300332,1246093182.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天壕环境11月10日被深股通减持21.01万股</t>
+          <t>天壕环境11月11日被深股通减持39.15万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-11 07:58</t>
+          <t>11-12 07:50</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1245414409.html</t>
+          <t>/news,300332,1245986756.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
+          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-11 08:46</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1245274849.html</t>
+          <t>/news,300332,1245423620.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
+          <t>天壕环境11月10日被深股通减持21.01万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 07:58</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1244901110.html</t>
+          <t>/news,300332,1245414409.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>870</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天壕环境11月09日被深股通减持5.04万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-10 07:52</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1244891594.html</t>
+          <t>/news,300332,1245274849.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
+          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-09 18:00</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1244788399.html</t>
+          <t>/news,300332,1244901110.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
+          <t>天壕环境11月09日被深股通减持5.04万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-09 08:48</t>
+          <t>11-10 07:52</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1244436172.html</t>
+          <t>/news,300332,1244891594.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天壕环境11月08日被深股通减持43.85万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-09 18:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1244426484.html</t>
+          <t>/news,300332,1244788399.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
+          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-09 08:48</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1243984572.html</t>
+          <t>/news,300332,1244436172.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天壕环境11月07日获深股通增持90.51万股</t>
+          <t>天壕环境11月08日被深股通减持43.85万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1243976303.html</t>
+          <t>/news,300332,1244426484.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
+          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1243513721.html</t>
+          <t>/news,300332,1243984572.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
+          <t>天壕环境11月07日获深股通增持90.51万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1243408938.html</t>
+          <t>/news,300332,1243976303.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1243403871.html</t>
+          <t>/news,300332,1243513721.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>835</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境11月04日获深股通增持96.88万股</t>
+          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1243317870.html</t>
+          <t>/news,300332,1243408938.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>844</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
+          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1242826526.html</t>
+          <t>/news,300332,1243403871.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天壕环境11月03日获深股通增持46.33万股</t>
+          <t>天壕环境11月04日获深股通增持96.88万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1242815770.html</t>
+          <t>/news,300332,1243317870.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
+          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-03 08:54</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1242334790.html</t>
+          <t>/news,300332,1242826526.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境11月02日获深股通增持48.01万股</t>
+          <t>天壕环境11月03日获深股通增持46.33万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1242326444.html</t>
+          <t>/news,300332,1242815770.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
+          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-02 09:01</t>
+          <t>11-03 08:54</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1241811394.html</t>
+          <t>/news,300332,1242334790.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境11月01日获深股通增持1.71万股</t>
+          <t>天壕环境11月02日获深股通增持48.01万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-02 07:54</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1241801859.html</t>
+          <t>/news,300332,1242326444.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还13.43万元，融资余额3283.49万元（10-31）</t>
+          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-02 09:01</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1241305451.html</t>
+          <t>/news,300332,1241811394.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境10月31日被深股通减持30.15万股</t>
+          <t>天壕环境11月01日获深股通增持1.71万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 07:54</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1241297004.html</t>
+          <t>/news,300332,1241801859.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还607.77万元，融资余额1.46亿元（12-06）</t>
+          <t>天壕环境：融资净买入747.63万元，融资余额1.54亿元（12-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-07 09:01</t>
+          <t>12-08 08:45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1256101773.html</t>
+          <t>/news,300332,1256765242.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境12月06日获深股通增持28.15万股</t>
+          <t>天壕环境12月07日被深股通减持11.77万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-07 07:52</t>
+          <t>12-08 07:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1256091546.html</t>
+          <t>/news,300332,1256756407.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还585.76万元，融资余额1.52亿元（12-05）</t>
+          <t>天壕环境：融资净偿还607.77万元，融资余额1.46亿元（12-06）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-06 08:49</t>
+          <t>12-07 09:01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1255457315.html</t>
+          <t>/news,300332,1256101773.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境12月05日被深股通减持20.57万股</t>
+          <t>天壕环境12月06日获深股通增持28.15万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-06 07:57</t>
+          <t>12-07 07:52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1255449685.html</t>
+          <t>/news,300332,1256091546.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计5121.81万元（12-02）</t>
+          <t>天壕环境：融资净偿还585.76万元，融资余额1.52亿元（12-05）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-05 08:54</t>
+          <t>12-06 08:49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1254803303.html</t>
+          <t>/news,300332,1255457315.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入4668.45万元，居燃气板块第一</t>
+          <t>天壕环境12月05日被深股通减持20.57万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-06 07:57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1254648841.html</t>
+          <t>/news,300332,1255449685.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少931.03万元，居燃气板块第七</t>
+          <t>天壕环境：连续5日融资净买入累计5121.81万元（12-02）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-04 14:03</t>
+          <t>12-05 08:54</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1254642137.html</t>
+          <t>/news,300332,1254803303.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,61 +691,61 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境12月02日获深股通增持31.83万股</t>
+          <t>天壕环境本周融资净买入4668.45万元，居燃气板块第一</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-03 07:57</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1254513245.html</t>
+          <t>/news,300332,1254648841.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境本周深股通持股市值减少931.03万元，居燃气板块第七</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-02 21:34</t>
+          <t>12-04 14:03</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1254413587.html</t>
+          <t>/news,300332,1254642137.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天壕环境：接受东吴证券等机构调研</t>
+          <t>天壕环境12月02日获深股通增持31.83万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 17:35</t>
+          <t>12-03 07:57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1254324899.html</t>
+          <t>/news,300332,1254513245.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计4668.45万元（12-01）</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 08:48</t>
+          <t>12-02 21:34</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1253920257.html</t>
+          <t>/news,300332,1254413587.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安管道全线贯通 稀缺资产有望持续贡献业绩增量</t>
+          <t>天壕环境：接受东吴证券等机构调研</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 08:40</t>
+          <t>12-02 17:35</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1253919008.html</t>
+          <t>/news,300332,1254324899.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,167 +851,167 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>天壕环境：连续4日融资净买入累计4668.45万元（12-01）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 08:38</t>
+          <t>12-02 08:48</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1253918384.html</t>
+          <t>/news,300332,1253920257.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>724</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>德邦证券给予天壕环境增持评级 神安管道全线贯通 稀缺资产有望持续贡献业绩增量</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 08:33</t>
+          <t>12-02 08:40</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1253917819.html</t>
+          <t>/news,300332,1253919008.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天壕环境12月01日被深股通减持106.14万股</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-02 07:51</t>
+          <t>12-02 08:38</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1253913454.html</t>
+          <t>/news,300332,1253918384.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>824</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：神安线管道全线贯通 下游分销持续拓展</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-02 07:19</t>
+          <t>12-02 08:33</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1253908820.html</t>
+          <t>/news,300332,1253917819.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长99.38%</t>
+          <t>天壕环境12月01日被深股通减持106.14万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-02 06:58</t>
+          <t>12-02 07:51</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1253907204.html</t>
+          <t>/news,300332,1253913454.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>832</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天壕环境：神安线管道项目陕西-山西段正式通气</t>
+          <t>东亚前海证券给予天壕环境推荐评级：神安线管道全线贯通 下游分销持续拓展</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,51 +1021,51 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-01 11:14</t>
+          <t>12-02 07:19</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1253517481.html</t>
+          <t>/news,300332,1253908820.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2094</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天壕环境对外投资项目神安线管道全线贯通</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长99.38%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 09:27</t>
+          <t>12-02 06:58</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1253328904.html</t>
+          <t>/news,300332,1253907204.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>756</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天壕环境：神安线管道实现全线贯通</t>
+          <t>天壕环境：神安线管道项目陕西-山西段正式通气</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 09:08</t>
+          <t>12-01 11:14</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1253314614.html</t>
+          <t>/news,300332,1253517481.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>2096</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2801.42万元（11-30）</t>
+          <t>天壕环境对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 08:47</t>
+          <t>12-01 09:27</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1253310008.html</t>
+          <t>/news,300332,1253328904.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2558</t>
+          <t>681</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>早间公告：天壕环境对外投资项目神安线管道全线贯通</t>
+          <t>天壕环境：神安线管道实现全线贯通</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 08:22</t>
+          <t>12-01 09:08</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1253306049.html</t>
+          <t>/news,300332,1253314614.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天壕环境：对外投资项目神安线管道全线贯通</t>
+          <t>天壕环境：连续3日融资净买入累计2801.42万元（11-30）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-01 08:47</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1253302871.html</t>
+          <t>/news,300332,1253310008.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>2563</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天壕环境11月30日获深股通增持27.03万股</t>
+          <t>早间公告：天壕环境对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-01 08:22</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1253301858.html</t>
+          <t>/news,300332,1253306049.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1117.23万元，融资余额1.24亿元（11-29）</t>
+          <t>天壕环境：对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-30 08:57</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1252788004.html</t>
+          <t>/news,300332,1253302871.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天壕环境11月29日被深股通减持70.8万股</t>
+          <t>天壕环境11月30日获深股通增持27.03万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-30 07:45</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1252777359.html</t>
+          <t>/news,300332,1253301858.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入643.13万元，融资余额1.13亿元（11-28）</t>
+          <t>天壕环境：融资净买入1117.23万元，融资余额1.24亿元（11-29）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-29 08:46</t>
+          <t>11-30 08:57</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1252221985.html</t>
+          <t>/news,300332,1252788004.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天壕环境11月28日获深股通增持47.48万股</t>
+          <t>天壕环境11月29日被深股通减持70.8万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-29 07:47</t>
+          <t>11-30 07:45</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1252212181.html</t>
+          <t>/news,300332,1252777359.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1795</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天壕环境：我公司持有中联华瑞49%的股权 中联华瑞不在公司的合并报表范围内</t>
+          <t>天壕环境：融资净买入643.13万元，融资余额1.13亿元（11-28）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-28 15:44</t>
+          <t>11-29 08:46</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1252043032.html</t>
+          <t>/news,300332,1252221985.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还16.7万元，融资余额1.07亿元（11-25）</t>
+          <t>天壕环境11月28日获深股通增持47.48万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,51 +1405,51 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-28 08:56</t>
+          <t>11-29 07:47</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1251736216.html</t>
+          <t>/news,300332,1252212181.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>1798</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1331.01万元，居燃气板块第一</t>
+          <t>天壕环境：我公司持有中联华瑞49%的股权 中联华瑞不在公司的合并报表范围内</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-27 15:05</t>
+          <t>11-28 15:44</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1251589649.html</t>
+          <t>/news,300332,1252043032.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,61 +1459,61 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2854.94万元，居燃气板块第二</t>
+          <t>天壕环境：融资净偿还16.7万元，融资余额1.07亿元（11-25）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-27 14:04</t>
+          <t>11-28 08:56</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1251583660.html</t>
+          <t>/news,300332,1251736216.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天壕环境11月25日获深股通增持23.27万股</t>
+          <t>天壕环境本周融资净买入1331.01万元，居燃气板块第一</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-26 07:56</t>
+          <t>11-27 15:05</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1251434804.html</t>
+          <t>/news,300332,1251589649.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,39 +1523,39 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天壕环境：连续6日融资净买入累计2701.38万元（11-24）</t>
+          <t>天壕环境本周深股通持股市值增加2854.94万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-25 08:49</t>
+          <t>11-27 14:04</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1250951072.html</t>
+          <t>/news,300332,1251583660.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天壕环境11月24日获深股通增持102.8万股</t>
+          <t>天壕环境11月25日获深股通增持23.27万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,61 +1565,61 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-25 07:57</t>
+          <t>11-26 07:56</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1250944687.html</t>
+          <t>/news,300332,1251434804.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中信证券首次给予天壕环境买入评级 目标价17元</t>
+          <t>天壕环境：连续6日融资净买入累计2701.38万元（11-24）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-24 19:37</t>
+          <t>11-25 08:49</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1250795876.html</t>
+          <t>/news,300332,1250951072.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
+          <t>天壕环境11月24日获深股通增持102.8万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,61 +1629,61 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-24 08:53</t>
+          <t>11-25 07:57</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1250429887.html</t>
+          <t>/news,300332,1250944687.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>1347</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天壕环境11月23日获深股通增持68.03万股</t>
+          <t>中信证券首次给予天壕环境买入评级 目标价17元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-24 07:54</t>
+          <t>11-24 19:37</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1250421100.html</t>
+          <t>/news,300332,1250795876.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
+          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>11-24 08:53</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1249883362.html</t>
+          <t>/news,300332,1250429887.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天壕环境11月22日获深股通增持5.76万股</t>
+          <t>天壕环境11月23日获深股通增持68.03万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-24 07:54</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1249875643.html</t>
+          <t>/news,300332,1250421100.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
+          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1249356759.html</t>
+          <t>/news,300332,1249883362.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境11月21日获深股通增持17.27万股</t>
+          <t>天壕环境11月22日获深股通增持5.76万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1249348886.html</t>
+          <t>/news,300332,1249875643.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
+          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,147 +1821,147 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-21 08:52</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1248872863.html</t>
+          <t>/news,300332,1249356759.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
+          <t>天壕环境11月21日获深股通增持17.27万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1248768258.html</t>
+          <t>/news,300332,1249348886.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
+          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-20 14:03</t>
+          <t>11-21 08:52</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1248762241.html</t>
+          <t>/news,300332,1248872863.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天壕环境11月18日获深股通增持52.04万股</t>
+          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1248639123.html</t>
+          <t>/news,300332,1248768258.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
+          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-18 08:44</t>
+          <t>11-20 14:03</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1248161488.html</t>
+          <t>/news,300332,1248762241.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天壕环境11月17日被深股通减持11.85万股</t>
+          <t>天壕环境11月18日获深股通增持52.04万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1248151600.html</t>
+          <t>/news,300332,1248639123.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
+          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-17 08:46</t>
+          <t>11-18 08:44</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1247676194.html</t>
+          <t>/news,300332,1248161488.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境11月16日被深股通减持16.06万股</t>
+          <t>天壕环境11月17日被深股通减持11.85万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1247664267.html</t>
+          <t>/news,300332,1248151600.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
+          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-16 08:51</t>
+          <t>11-17 08:46</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1247184272.html</t>
+          <t>/news,300332,1247676194.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天壕环境11月15日获深股通增持24.7万股</t>
+          <t>天壕环境11月16日被深股通减持16.06万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-16 08:00</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1247177109.html</t>
+          <t>/news,300332,1247664267.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
+          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-15 18:00</t>
+          <t>11-16 08:51</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1247068898.html</t>
+          <t>/news,300332,1247184272.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
+          <t>天壕环境11月15日获深股通增持24.7万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-15 09:00</t>
+          <t>11-16 08:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1246700508.html</t>
+          <t>/news,300332,1247177109.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天壕环境11月14日被深股通减持59.73万股</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-15 07:45</t>
+          <t>11-15 18:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1246689367.html</t>
+          <t>/news,300332,1247068898.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
+          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-14 18:00</t>
+          <t>11-15 09:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1246572597.html</t>
+          <t>/news,300332,1246700508.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
+          <t>天壕环境11月14日被深股通减持59.73万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,51 +2269,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-15 07:45</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1246197232.html</t>
+          <t>/news,300332,1246689367.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>913</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-13 15:03</t>
+          <t>11-14 18:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1246098041.html</t>
+          <t>/news,300332,1246572597.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,61 +2323,61 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
+          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-13 14:04</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1246093182.html</t>
+          <t>/news,300332,1246197232.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>654</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天壕环境11月11日被深股通减持39.15万股</t>
+          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-12 07:50</t>
+          <t>11-13 15:03</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1245986756.html</t>
+          <t>/news,300332,1246098041.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>641</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,39 +2387,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
+          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-11 08:46</t>
+          <t>11-13 14:04</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1245423620.html</t>
+          <t>/news,300332,1246093182.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天壕环境11月10日被深股通减持21.01万股</t>
+          <t>天壕环境11月11日被深股通减持39.15万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-11 07:58</t>
+          <t>11-12 07:50</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1245414409.html</t>
+          <t>/news,300332,1245986756.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
+          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-11 08:46</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1245274849.html</t>
+          <t>/news,300332,1245423620.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
+          <t>天壕环境11月10日被深股通减持21.01万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 07:58</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1244901110.html</t>
+          <t>/news,300332,1245414409.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>870</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天壕环境11月09日被深股通减持5.04万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-10 07:52</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1244891594.html</t>
+          <t>/news,300332,1245274849.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
+          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-09 18:00</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1244788399.html</t>
+          <t>/news,300332,1244901110.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
+          <t>天壕环境11月09日被深股通减持5.04万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-09 08:48</t>
+          <t>11-10 07:52</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1244436172.html</t>
+          <t>/news,300332,1244891594.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天壕环境11月08日被深股通减持43.85万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-09 18:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1244426484.html</t>
+          <t>/news,300332,1244788399.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
+          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-09 08:48</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1243984572.html</t>
+          <t>/news,300332,1244436172.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境11月07日获深股通增持90.51万股</t>
+          <t>天壕环境11月08日被深股通减持43.85万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1243976303.html</t>
+          <t>/news,300332,1244426484.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
+          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1243513721.html</t>
+          <t>/news,300332,1243984572.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
+          <t>天壕环境11月07日获深股通增持90.51万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1243408938.html</t>
+          <t>/news,300332,1243976303.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1243403871.html</t>
+          <t>/news,300332,1243513721.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>835</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天壕环境11月04日获深股通增持96.88万股</t>
+          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1243317870.html</t>
+          <t>/news,300332,1243408938.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>844</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
+          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1242826526.html</t>
+          <t>/news,300332,1243403871.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境11月03日获深股通增持46.33万股</t>
+          <t>天壕环境11月04日获深股通增持96.88万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1242815770.html</t>
+          <t>/news,300332,1243317870.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
+          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-03 08:54</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1242334790.html</t>
+          <t>/news,300332,1242826526.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境11月02日获深股通增持48.01万股</t>
+          <t>天壕环境11月03日获深股通增持46.33万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1242326444.html</t>
+          <t>/news,300332,1242815770.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入498.1万元，融资余额3781.59万元（11-01）</t>
+          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-02 09:01</t>
+          <t>11-03 08:54</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1241811394.html</t>
+          <t>/news,300332,1242334790.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境11月01日获深股通增持1.71万股</t>
+          <t>天壕环境11月02日获深股通增持48.01万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-02 07:54</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1241801859.html</t>
+          <t>/news,300332,1242326444.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>114</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入747.63万元，融资余额1.54亿元（12-07）</t>
+          <t>天壕环境：融资净偿还217.48万元，融资余额1.51亿元（12-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-08 08:45</t>
+          <t>12-09 09:07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1256765242.html</t>
+          <t>/news,300332,1257406655.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境12月07日被深股通减持11.77万股</t>
+          <t>天壕环境12月08日获深股通增持3.47万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-08 07:51</t>
+          <t>12-09 07:55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1256756407.html</t>
+          <t>/news,300332,1257394589.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还607.77万元，融资余额1.46亿元（12-06）</t>
+          <t>天壕环境：融资净买入747.63万元，融资余额1.54亿元（12-07）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-07 09:01</t>
+          <t>12-08 08:45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1256101773.html</t>
+          <t>/news,300332,1256765242.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境12月06日获深股通增持28.15万股</t>
+          <t>天壕环境12月07日被深股通减持11.77万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-07 07:52</t>
+          <t>12-08 07:51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1256091546.html</t>
+          <t>/news,300332,1256756407.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还585.76万元，融资余额1.52亿元（12-05）</t>
+          <t>天壕环境：融资净偿还607.77万元，融资余额1.46亿元（12-06）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-06 08:49</t>
+          <t>12-07 09:01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1255457315.html</t>
+          <t>/news,300332,1256101773.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境12月05日被深股通减持20.57万股</t>
+          <t>天壕环境12月06日获深股通增持28.15万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-06 07:57</t>
+          <t>12-07 07:52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1255449685.html</t>
+          <t>/news,300332,1256091546.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计5121.81万元（12-02）</t>
+          <t>天壕环境：融资净偿还585.76万元，融资余额1.52亿元（12-05）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-05 08:54</t>
+          <t>12-06 08:49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1254803303.html</t>
+          <t>/news,300332,1255457315.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入4668.45万元，居燃气板块第一</t>
+          <t>天壕环境12月05日被深股通减持20.57万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-06 07:57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1254648841.html</t>
+          <t>/news,300332,1255449685.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少931.03万元，居燃气板块第七</t>
+          <t>天壕环境：连续5日融资净买入累计5121.81万元（12-02）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-04 14:03</t>
+          <t>12-05 08:54</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1254642137.html</t>
+          <t>/news,300332,1254803303.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,61 +755,61 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天壕环境12月02日获深股通增持31.83万股</t>
+          <t>天壕环境本周融资净买入4668.45万元，居燃气板块第一</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-03 07:57</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1254513245.html</t>
+          <t>/news,300332,1254648841.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境本周深股通持股市值减少931.03万元，居燃气板块第七</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 21:34</t>
+          <t>12-04 14:03</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1254413587.html</t>
+          <t>/news,300332,1254642137.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境：接受东吴证券等机构调研</t>
+          <t>天壕环境12月02日获深股通增持31.83万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 17:35</t>
+          <t>12-03 07:57</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1254324899.html</t>
+          <t>/news,300332,1254513245.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>642</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计4668.45万元（12-01）</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 08:48</t>
+          <t>12-02 21:34</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1253920257.html</t>
+          <t>/news,300332,1254413587.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安管道全线贯通 稀缺资产有望持续贡献业绩增量</t>
+          <t>天壕环境：接受东吴证券等机构调研</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 08:40</t>
+          <t>12-02 17:35</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1253919008.html</t>
+          <t>/news,300332,1254324899.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,167 +915,167 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>天壕环境：连续4日融资净买入累计4668.45万元（12-01）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-02 08:38</t>
+          <t>12-02 08:48</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1253918384.html</t>
+          <t>/news,300332,1253920257.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>727</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>德邦证券给予天壕环境增持评级 神安管道全线贯通 稀缺资产有望持续贡献业绩增量</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-02 08:33</t>
+          <t>12-02 08:40</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1253917819.html</t>
+          <t>/news,300332,1253919008.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天壕环境12月01日被深股通减持106.14万股</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-02 07:51</t>
+          <t>12-02 08:38</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1253913454.html</t>
+          <t>/news,300332,1253918384.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：神安线管道全线贯通 下游分销持续拓展</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-02 07:19</t>
+          <t>12-02 08:33</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1253908820.html</t>
+          <t>/news,300332,1253917819.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长99.38%</t>
+          <t>天壕环境12月01日被深股通减持106.14万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-02 06:58</t>
+          <t>12-02 07:51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1253907204.html</t>
+          <t>/news,300332,1253913454.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>836</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天壕环境：神安线管道项目陕西-山西段正式通气</t>
+          <t>东亚前海证券给予天壕环境推荐评级：神安线管道全线贯通 下游分销持续拓展</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,51 +1085,51 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 11:14</t>
+          <t>12-02 07:19</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1253517481.html</t>
+          <t>/news,300332,1253908820.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2096</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天壕环境对外投资项目神安线管道全线贯通</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长99.38%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 09:27</t>
+          <t>12-02 06:58</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1253328904.html</t>
+          <t>/news,300332,1253907204.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>761</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天壕环境：神安线管道实现全线贯通</t>
+          <t>天壕环境：神安线管道项目陕西-山西段正式通气</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 09:08</t>
+          <t>12-01 11:14</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1253314614.html</t>
+          <t>/news,300332,1253517481.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2801.42万元（11-30）</t>
+          <t>天壕环境对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 08:47</t>
+          <t>12-01 09:27</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1253310008.html</t>
+          <t>/news,300332,1253328904.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2563</t>
+          <t>684</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>早间公告：天壕环境对外投资项目神安线管道全线贯通</t>
+          <t>天壕环境：神安线管道实现全线贯通</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 08:22</t>
+          <t>12-01 09:08</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1253306049.html</t>
+          <t>/news,300332,1253314614.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天壕环境：对外投资项目神安线管道全线贯通</t>
+          <t>天壕环境：连续3日融资净买入累计2801.42万元（11-30）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-01 08:47</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1253302871.html</t>
+          <t>/news,300332,1253310008.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>2567</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天壕环境11月30日获深股通增持27.03万股</t>
+          <t>早间公告：天壕环境对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-01 08:22</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1253301858.html</t>
+          <t>/news,300332,1253306049.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1117.23万元，融资余额1.24亿元（11-29）</t>
+          <t>天壕环境：对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-30 08:57</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1252788004.html</t>
+          <t>/news,300332,1253302871.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天壕环境11月29日被深股通减持70.8万股</t>
+          <t>天壕环境11月30日获深股通增持27.03万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-30 07:45</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1252777359.html</t>
+          <t>/news,300332,1253301858.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入643.13万元，融资余额1.13亿元（11-28）</t>
+          <t>天壕环境：融资净买入1117.23万元，融资余额1.24亿元（11-29）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-29 08:46</t>
+          <t>11-30 08:57</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1252221985.html</t>
+          <t>/news,300332,1252788004.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天壕环境11月28日获深股通增持47.48万股</t>
+          <t>天壕环境11月29日被深股通减持70.8万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-29 07:47</t>
+          <t>11-30 07:45</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1252212181.html</t>
+          <t>/news,300332,1252777359.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1798</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天壕环境：我公司持有中联华瑞49%的股权 中联华瑞不在公司的合并报表范围内</t>
+          <t>天壕环境：融资净买入643.13万元，融资余额1.13亿元（11-28）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-28 15:44</t>
+          <t>11-29 08:46</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1252043032.html</t>
+          <t>/news,300332,1252221985.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还16.7万元，融资余额1.07亿元（11-25）</t>
+          <t>天壕环境11月28日获深股通增持47.48万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,51 +1469,51 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-28 08:56</t>
+          <t>11-29 07:47</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1251736216.html</t>
+          <t>/news,300332,1252212181.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>1801</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1331.01万元，居燃气板块第一</t>
+          <t>天壕环境：我公司持有中联华瑞49%的股权 中联华瑞不在公司的合并报表范围内</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-27 15:05</t>
+          <t>11-28 15:44</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1251589649.html</t>
+          <t>/news,300332,1252043032.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,61 +1523,61 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2854.94万元，居燃气板块第二</t>
+          <t>天壕环境：融资净偿还16.7万元，融资余额1.07亿元（11-25）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-27 14:04</t>
+          <t>11-28 08:56</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1251583660.html</t>
+          <t>/news,300332,1251736216.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天壕环境11月25日获深股通增持23.27万股</t>
+          <t>天壕环境本周融资净买入1331.01万元，居燃气板块第一</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-26 07:56</t>
+          <t>11-27 15:05</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1251434804.html</t>
+          <t>/news,300332,1251589649.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,39 +1587,39 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天壕环境：连续6日融资净买入累计2701.38万元（11-24）</t>
+          <t>天壕环境本周深股通持股市值增加2854.94万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-25 08:49</t>
+          <t>11-27 14:04</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1250951072.html</t>
+          <t>/news,300332,1251583660.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天壕环境11月24日获深股通增持102.8万股</t>
+          <t>天壕环境11月25日获深股通增持23.27万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,61 +1629,61 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-25 07:57</t>
+          <t>11-26 07:56</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1250944687.html</t>
+          <t>/news,300332,1251434804.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中信证券首次给予天壕环境买入评级 目标价17元</t>
+          <t>天壕环境：连续6日融资净买入累计2701.38万元（11-24）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-24 19:37</t>
+          <t>11-25 08:49</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1250795876.html</t>
+          <t>/news,300332,1250951072.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
+          <t>天壕环境11月24日获深股通增持102.8万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,61 +1693,61 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-24 08:53</t>
+          <t>11-25 07:57</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1250429887.html</t>
+          <t>/news,300332,1250944687.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>1347</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天壕环境11月23日获深股通增持68.03万股</t>
+          <t>中信证券首次给予天壕环境买入评级 目标价17元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-24 07:54</t>
+          <t>11-24 19:37</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1250421100.html</t>
+          <t>/news,300332,1250795876.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
+          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>11-24 08:53</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1249883362.html</t>
+          <t>/news,300332,1250429887.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境11月22日获深股通增持5.76万股</t>
+          <t>天壕环境11月23日获深股通增持68.03万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-24 07:54</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1249875643.html</t>
+          <t>/news,300332,1250421100.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
+          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1249356759.html</t>
+          <t>/news,300332,1249883362.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天壕环境11月21日获深股通增持17.27万股</t>
+          <t>天壕环境11月22日获深股通增持5.76万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1249348886.html</t>
+          <t>/news,300332,1249875643.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
+          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,147 +1885,147 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-21 08:52</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1248872863.html</t>
+          <t>/news,300332,1249356759.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
+          <t>天壕环境11月21日获深股通增持17.27万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1248768258.html</t>
+          <t>/news,300332,1249348886.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
+          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-20 14:03</t>
+          <t>11-21 08:52</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1248762241.html</t>
+          <t>/news,300332,1248872863.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天壕环境11月18日获深股通增持52.04万股</t>
+          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1248639123.html</t>
+          <t>/news,300332,1248768258.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
+          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-18 08:44</t>
+          <t>11-20 14:03</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1248161488.html</t>
+          <t>/news,300332,1248762241.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境11月17日被深股通减持11.85万股</t>
+          <t>天壕环境11月18日获深股通增持52.04万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1248151600.html</t>
+          <t>/news,300332,1248639123.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
+          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-17 08:46</t>
+          <t>11-18 08:44</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1247676194.html</t>
+          <t>/news,300332,1248161488.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天壕环境11月16日被深股通减持16.06万股</t>
+          <t>天壕环境11月17日被深股通减持11.85万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1247664267.html</t>
+          <t>/news,300332,1248151600.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
+          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-16 08:51</t>
+          <t>11-17 08:46</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1247184272.html</t>
+          <t>/news,300332,1247676194.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天壕环境11月15日获深股通增持24.7万股</t>
+          <t>天壕环境11月16日被深股通减持16.06万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-16 08:00</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1247177109.html</t>
+          <t>/news,300332,1247664267.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
+          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-15 18:00</t>
+          <t>11-16 08:51</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1247068898.html</t>
+          <t>/news,300332,1247184272.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
+          <t>天壕环境11月15日获深股通增持24.7万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-15 09:00</t>
+          <t>11-16 08:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1246700508.html</t>
+          <t>/news,300332,1247177109.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天壕环境11月14日被深股通减持59.73万股</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-15 07:45</t>
+          <t>11-15 18:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1246689367.html</t>
+          <t>/news,300332,1247068898.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
+          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-14 18:00</t>
+          <t>11-15 09:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1246572597.html</t>
+          <t>/news,300332,1246700508.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
+          <t>天壕环境11月14日被深股通减持59.73万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,51 +2333,51 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-15 07:45</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1246197232.html</t>
+          <t>/news,300332,1246689367.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>916</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-13 15:03</t>
+          <t>11-14 18:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1246098041.html</t>
+          <t>/news,300332,1246572597.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,61 +2387,61 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
+          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-13 14:04</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1246093182.html</t>
+          <t>/news,300332,1246197232.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>654</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天壕环境11月11日被深股通减持39.15万股</t>
+          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-12 07:50</t>
+          <t>11-13 15:03</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1245986756.html</t>
+          <t>/news,300332,1246098041.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>641</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,39 +2451,39 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
+          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-11 08:46</t>
+          <t>11-13 14:04</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1245423620.html</t>
+          <t>/news,300332,1246093182.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天壕环境11月10日被深股通减持21.01万股</t>
+          <t>天壕环境11月11日被深股通减持39.15万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-11 07:58</t>
+          <t>11-12 07:50</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1245414409.html</t>
+          <t>/news,300332,1245986756.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
+          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-11 08:46</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1245274849.html</t>
+          <t>/news,300332,1245423620.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
+          <t>天壕环境11月10日被深股通减持21.01万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 07:58</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1244901110.html</t>
+          <t>/news,300332,1245414409.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>873</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境11月09日被深股通减持5.04万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-10 07:52</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1244891594.html</t>
+          <t>/news,300332,1245274849.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
+          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-09 18:00</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1244788399.html</t>
+          <t>/news,300332,1244901110.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
+          <t>天壕环境11月09日被深股通减持5.04万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-09 08:48</t>
+          <t>11-10 07:52</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1244436172.html</t>
+          <t>/news,300332,1244891594.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>610</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境11月08日被深股通减持43.85万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-09 18:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1244426484.html</t>
+          <t>/news,300332,1244788399.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
+          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-09 08:48</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1243984572.html</t>
+          <t>/news,300332,1244436172.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境11月07日获深股通增持90.51万股</t>
+          <t>天壕环境11月08日被深股通减持43.85万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1243976303.html</t>
+          <t>/news,300332,1244426484.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
+          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1243513721.html</t>
+          <t>/news,300332,1243984572.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
+          <t>天壕环境11月07日获深股通增持90.51万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1243408938.html</t>
+          <t>/news,300332,1243976303.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1243403871.html</t>
+          <t>/news,300332,1243513721.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>835</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境11月04日获深股通增持96.88万股</t>
+          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1243317870.html</t>
+          <t>/news,300332,1243408938.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>844</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
+          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-06 14:03</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1242826526.html</t>
+          <t>/news,300332,1243403871.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境11月03日获深股通增持46.33万股</t>
+          <t>天壕环境11月04日获深股通增持96.88万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:44</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1242815770.html</t>
+          <t>/news,300332,1243317870.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还635.72万元，融资余额3145.87万元（11-02）</t>
+          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-03 08:54</t>
+          <t>11-04 08:51</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1242334790.html</t>
+          <t>/news,300332,1242826526.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境11月02日获深股通增持48.01万股</t>
+          <t>天壕环境11月03日获深股通增持46.33万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1242326444.html</t>
+          <t>/news,300332,1242815770.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还217.48万元，融资余额1.51亿元（12-08）</t>
+          <t>天壕环境：融资净偿还678.09万元，融资余额1.45亿元（12-09）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-09 09:07</t>
+          <t>12-12 08:58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1257406655.html</t>
+          <t>/news,300332,1258215083.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境12月08日获深股通增持3.47万股</t>
+          <t>天壕环境本周融资净偿还663.38万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-09 07:55</t>
+          <t>12-11 15:03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1257394589.html</t>
+          <t>/news,300332,1258087375.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,39 +531,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入747.63万元，融资余额1.54亿元（12-07）</t>
+          <t>天壕环境本周深股通持股市值减少2055.26万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-08 08:45</t>
+          <t>12-11 14:03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1256765242.html</t>
+          <t>/news,300332,1258080707.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境12月07日被深股通减持11.77万股</t>
+          <t>天壕环境12月09日被深股通减持168.9万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-08 07:51</t>
+          <t>12-10 07:55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1256756407.html</t>
+          <t>/news,300332,1257965783.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还607.77万元，融资余额1.46亿元（12-06）</t>
+          <t>天壕环境：融资净偿还217.48万元，融资余额1.51亿元（12-08）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-07 09:01</t>
+          <t>12-09 09:07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1256101773.html</t>
+          <t>/news,300332,1257406655.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境12月06日获深股通增持28.15万股</t>
+          <t>天壕环境12月08日获深股通增持3.47万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-07 07:52</t>
+          <t>12-09 07:55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1256091546.html</t>
+          <t>/news,300332,1257394589.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还585.76万元，融资余额1.52亿元（12-05）</t>
+          <t>天壕环境：融资净买入747.63万元，融资余额1.54亿元（12-07）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-06 08:49</t>
+          <t>12-08 08:45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1255457315.html</t>
+          <t>/news,300332,1256765242.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境12月05日被深股通减持20.57万股</t>
+          <t>天壕环境12月07日被深股通减持11.77万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-06 07:57</t>
+          <t>12-08 07:51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1255449685.html</t>
+          <t>/news,300332,1256756407.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计5121.81万元（12-02）</t>
+          <t>天壕环境：融资净偿还607.77万元，融资余额1.46亿元（12-06）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-05 08:54</t>
+          <t>12-07 09:01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1254803303.html</t>
+          <t>/news,300332,1256101773.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入4668.45万元，居燃气板块第一</t>
+          <t>天壕环境12月06日获深股通增持28.15万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-07 07:52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1254648841.html</t>
+          <t>/news,300332,1256091546.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少931.03万元，居燃气板块第七</t>
+          <t>天壕环境：融资净偿还585.76万元，融资余额1.52亿元（12-05）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-04 14:03</t>
+          <t>12-06 08:49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1254642137.html</t>
+          <t>/news,300332,1255457315.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境12月02日获深股通增持31.83万股</t>
+          <t>天壕环境12月05日被深股通减持20.57万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-03 07:57</t>
+          <t>12-06 07:57</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1254513245.html</t>
+          <t>/news,300332,1255449685.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境：连续5日融资净买入累计5121.81万元（12-02）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 21:34</t>
+          <t>12-05 08:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1254413587.html</t>
+          <t>/news,300332,1254803303.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天壕环境：接受东吴证券等机构调研</t>
+          <t>天壕环境本周融资净买入4668.45万元，居燃气板块第一</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 17:35</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1254324899.html</t>
+          <t>/news,300332,1254648841.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,39 +915,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计4668.45万元（12-01）</t>
+          <t>天壕环境本周深股通持股市值减少931.03万元，居燃气板块第七</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-02 08:48</t>
+          <t>12-04 14:03</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1253920257.html</t>
+          <t>/news,300332,1254642137.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安管道全线贯通 稀缺资产有望持续贡献业绩增量</t>
+          <t>天壕环境12月02日获深股通增持31.83万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,51 +957,51 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-02 08:40</t>
+          <t>12-03 07:57</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1253919008.html</t>
+          <t>/news,300332,1254513245.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-02 08:38</t>
+          <t>12-02 21:34</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1253918384.html</t>
+          <t>/news,300332,1254413587.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,39 +1011,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境：接受东吴证券等机构调研</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-02 08:33</t>
+          <t>12-02 17:35</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1253917819.html</t>
+          <t>/news,300332,1254324899.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天壕环境12月01日被深股通减持106.14万股</t>
+          <t>天壕环境：连续4日融资净买入累计4668.45万元（12-01）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-02 07:51</t>
+          <t>12-02 08:48</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1253913454.html</t>
+          <t>/news,300332,1253920257.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>836</t>
+          <t>740</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：神安线管道全线贯通 下游分销持续拓展</t>
+          <t>德邦证券给予天壕环境增持评级 神安管道全线贯通 稀缺资产有望持续贡献业绩增量</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-02 07:19</t>
+          <t>12-02 08:40</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1253908820.html</t>
+          <t>/news,300332,1253919008.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长99.38%</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-02 06:58</t>
+          <t>12-02 08:38</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1253907204.html</t>
+          <t>/news,300332,1253918384.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,39 +1139,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天壕环境：神安线管道项目陕西-山西段正式通气</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 11:14</t>
+          <t>12-02 08:33</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1253517481.html</t>
+          <t>/news,300332,1253917819.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天壕环境对外投资项目神安线管道全线贯通</t>
+          <t>天壕环境12月01日被深股通减持106.14万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 09:27</t>
+          <t>12-02 07:51</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1253328904.html</t>
+          <t>/news,300332,1253913454.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>849</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天壕环境：神安线管道实现全线贯通</t>
+          <t>东亚前海证券给予天壕环境推荐评级：神安线管道全线贯通 下游分销持续拓展</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 09:08</t>
+          <t>12-02 07:19</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1253314614.html</t>
+          <t>/news,300332,1253908820.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2801.42万元（11-30）</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长99.38%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-01 08:47</t>
+          <t>12-02 06:58</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1253310008.html</t>
+          <t>/news,300332,1253907204.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2567</t>
+          <t>768</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>早间公告：天壕环境对外投资项目神安线管道全线贯通</t>
+          <t>天壕环境：神安线管道项目陕西-山西段正式通气</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-01 08:22</t>
+          <t>12-01 11:14</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1253306049.html</t>
+          <t>/news,300332,1253517481.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天壕环境：对外投资项目神安线管道全线贯通</t>
+          <t>天壕环境对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-01 09:27</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1253302871.html</t>
+          <t>/news,300332,1253328904.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>687</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天壕环境11月30日获深股通增持27.03万股</t>
+          <t>天壕环境：神安线管道实现全线贯通</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-01 09:08</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1253301858.html</t>
+          <t>/news,300332,1253314614.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1117.23万元，融资余额1.24亿元（11-29）</t>
+          <t>天壕环境：连续3日融资净买入累计2801.42万元（11-30）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-30 08:57</t>
+          <t>12-01 08:47</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1252788004.html</t>
+          <t>/news,300332,1253310008.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>2571</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天壕环境11月29日被深股通减持70.8万股</t>
+          <t>早间公告：天壕环境对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-30 07:45</t>
+          <t>12-01 08:22</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1252777359.html</t>
+          <t>/news,300332,1253306049.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入643.13万元，融资余额1.13亿元（11-28）</t>
+          <t>天壕环境：对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-29 08:46</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1252221985.html</t>
+          <t>/news,300332,1253302871.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天壕环境11月28日获深股通增持47.48万股</t>
+          <t>天壕环境11月30日获深股通增持27.03万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-29 07:47</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1252212181.html</t>
+          <t>/news,300332,1253301858.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1801</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天壕环境：我公司持有中联华瑞49%的股权 中联华瑞不在公司的合并报表范围内</t>
+          <t>天壕环境：融资净买入1117.23万元，融资余额1.24亿元（11-29）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-28 15:44</t>
+          <t>11-30 08:57</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1252043032.html</t>
+          <t>/news,300332,1252788004.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还16.7万元，融资余额1.07亿元（11-25）</t>
+          <t>天壕环境11月29日被深股通减持70.8万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-28 08:56</t>
+          <t>11-30 07:45</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1251736216.html</t>
+          <t>/news,300332,1252777359.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1331.01万元，居燃气板块第一</t>
+          <t>天壕环境：融资净买入643.13万元，融资余额1.13亿元（11-28）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-27 15:05</t>
+          <t>11-29 08:46</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1251589649.html</t>
+          <t>/news,300332,1252221985.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,39 +1587,39 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2854.94万元，居燃气板块第二</t>
+          <t>天壕环境11月28日获深股通增持47.48万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-27 14:04</t>
+          <t>11-29 07:47</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1251583660.html</t>
+          <t>/news,300332,1252212181.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天壕环境11月25日获深股通增持23.27万股</t>
+          <t>天壕环境：我公司持有中联华瑞49%的股权 中联华瑞不在公司的合并报表范围内</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-26 07:56</t>
+          <t>11-28 15:44</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1251434804.html</t>
+          <t>/news,300332,1252043032.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天壕环境：连续6日融资净买入累计2701.38万元（11-24）</t>
+          <t>天壕环境：融资净偿还16.7万元，融资余额1.07亿元（11-25）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-25 08:49</t>
+          <t>11-28 08:56</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1250951072.html</t>
+          <t>/news,300332,1251736216.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,61 +1683,61 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天壕环境11月24日获深股通增持102.8万股</t>
+          <t>天壕环境本周融资净买入1331.01万元，居燃气板块第一</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-25 07:57</t>
+          <t>11-27 15:05</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1250944687.html</t>
+          <t>/news,300332,1251589649.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中信证券首次给予天壕环境买入评级 目标价17元</t>
+          <t>天壕环境本周深股通持股市值增加2854.94万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-24 19:37</t>
+          <t>11-27 14:04</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1250795876.html</t>
+          <t>/news,300332,1251583660.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
+          <t>天壕环境11月25日获深股通增持23.27万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-24 08:53</t>
+          <t>11-26 07:56</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1250429887.html</t>
+          <t>/news,300332,1251434804.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境11月23日获深股通增持68.03万股</t>
+          <t>天壕环境：连续6日融资净买入累计2701.38万元（11-24）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-24 07:54</t>
+          <t>11-25 08:49</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1250421100.html</t>
+          <t>/news,300332,1250951072.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
+          <t>天壕环境11月24日获深股通增持102.8万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,61 +1821,61 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>11-25 07:57</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1249883362.html</t>
+          <t>/news,300332,1250944687.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>1348</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天壕环境11月22日获深股通增持5.76万股</t>
+          <t>中信证券首次给予天壕环境买入评级 目标价17元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-24 19:37</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1249875643.html</t>
+          <t>/news,300332,1250795876.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
+          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-24 08:53</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1249356759.html</t>
+          <t>/news,300332,1250429887.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天壕环境11月21日获深股通增持17.27万股</t>
+          <t>天壕环境11月23日获深股通增持68.03万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-24 07:54</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1249348886.html</t>
+          <t>/news,300332,1250421100.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
+          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,83 +1949,83 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-21 08:52</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1248872863.html</t>
+          <t>/news,300332,1249883362.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
+          <t>天壕环境11月22日获深股通增持5.76万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1248768258.html</t>
+          <t>/news,300332,1249875643.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
+          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-20 14:03</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1248762241.html</t>
+          <t>/news,300332,1249356759.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境11月18日获深股通增持52.04万股</t>
+          <t>天壕环境11月21日获深股通增持17.27万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1248639123.html</t>
+          <t>/news,300332,1249348886.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
+          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,83 +2077,83 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-18 08:44</t>
+          <t>11-21 08:52</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1248161488.html</t>
+          <t>/news,300332,1248872863.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天壕环境11月17日被深股通减持11.85万股</t>
+          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1248151600.html</t>
+          <t>/news,300332,1248768258.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
+          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-17 08:46</t>
+          <t>11-20 14:03</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1247676194.html</t>
+          <t>/news,300332,1248762241.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天壕环境11月16日被深股通减持16.06万股</t>
+          <t>天壕环境11月18日获深股通增持52.04万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1247664267.html</t>
+          <t>/news,300332,1248639123.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
+          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-16 08:51</t>
+          <t>11-18 08:44</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1247184272.html</t>
+          <t>/news,300332,1248161488.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天壕环境11月15日获深股通增持24.7万股</t>
+          <t>天壕环境11月17日被深股通减持11.85万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-16 08:00</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1247177109.html</t>
+          <t>/news,300332,1248151600.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1008</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
+          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-15 18:00</t>
+          <t>11-17 08:46</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1247068898.html</t>
+          <t>/news,300332,1247676194.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
+          <t>天壕环境11月16日被深股通减持16.06万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-15 09:00</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1246700508.html</t>
+          <t>/news,300332,1247664267.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天壕环境11月14日被深股通减持59.73万股</t>
+          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-15 07:45</t>
+          <t>11-16 08:51</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1246689367.html</t>
+          <t>/news,300332,1247184272.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>916</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
+          <t>天壕环境11月15日获深股通增持24.7万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-14 18:00</t>
+          <t>11-16 08:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1246572597.html</t>
+          <t>/news,300332,1247177109.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,51 +2397,51 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-15 18:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1246197232.html</t>
+          <t>/news,300332,1247068898.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-13 15:03</t>
+          <t>11-15 09:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1246098041.html</t>
+          <t>/news,300332,1246700508.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,39 +2451,39 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
+          <t>天壕环境11月14日被深股通减持59.73万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-13 14:04</t>
+          <t>11-15 07:45</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1246093182.html</t>
+          <t>/news,300332,1246689367.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>919</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天壕环境11月11日被深股通减持39.15万股</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-12 07:50</t>
+          <t>11-14 18:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1245986756.html</t>
+          <t>/news,300332,1246572597.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
+          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-11 08:46</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1245423620.html</t>
+          <t>/news,300332,1246197232.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,71 +2547,71 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天壕环境11月10日被深股通减持21.01万股</t>
+          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-11 07:58</t>
+          <t>11-13 15:03</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1245414409.html</t>
+          <t>/news,300332,1246098041.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>641</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
+          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-13 14:04</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1245274849.html</t>
+          <t>/news,300332,1246093182.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
+          <t>天壕环境11月11日被深股通减持39.15万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-12 07:50</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1244901110.html</t>
+          <t>/news,300332,1245986756.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境11月09日被深股通减持5.04万股</t>
+          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-10 07:52</t>
+          <t>11-11 08:46</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1244891594.html</t>
+          <t>/news,300332,1245423620.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
+          <t>天壕环境11月10日被深股通减持21.01万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-09 18:00</t>
+          <t>11-11 07:58</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1244788399.html</t>
+          <t>/news,300332,1245414409.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>873</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
+          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-09 08:48</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1244436172.html</t>
+          <t>/news,300332,1245274849.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境11月08日被深股通减持43.85万股</t>
+          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1244426484.html</t>
+          <t>/news,300332,1244901110.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
+          <t>天壕环境11月09日被深股通减持5.04万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-10 07:52</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1243984572.html</t>
+          <t>/news,300332,1244891594.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天壕环境11月07日获深股通增持90.51万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 18:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1243976303.html</t>
+          <t>/news,300332,1244788399.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
+          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-09 08:48</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1243513721.html</t>
+          <t>/news,300332,1244436172.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
+          <t>天壕环境11月08日被深股通减持43.85万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1243408938.html</t>
+          <t>/news,300332,1244426484.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2109.18万元，居燃气板块第二</t>
+          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-06 14:03</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1243403871.html</t>
+          <t>/news,300332,1243984572.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境11月04日获深股通增持96.88万股</t>
+          <t>天壕环境11月07日获深股通增持90.51万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-05 07:44</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1243317870.html</t>
+          <t>/news,300332,1243976303.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入348.21万元，融资余额3494.08万元（11-03）</t>
+          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-04 08:51</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1242826526.html</t>
+          <t>/news,300332,1243513721.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>835</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境11月03日获深股通增持46.33万股</t>
+          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 15:03</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1242815770.html</t>
+          <t>/news,300332,1243408938.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还678.09万元，融资余额1.45亿元（12-09）</t>
+          <t>天壕环境：融资净买入488.45万元，融资余额1.5亿元（12-12）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-12 08:58</t>
+          <t>12-13 09:01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1258215083.html</t>
+          <t>/news,300332,1258771524.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净偿还663.38万元，居燃气板块第六</t>
+          <t>天壕环境12月12日被深股通减持84.89万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-11 15:03</t>
+          <t>12-13 07:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1258087375.html</t>
+          <t>/news,300332,1258761465.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,61 +531,61 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少2055.26万元，居燃气板块第二</t>
+          <t>天壕环境：融资净偿还678.09万元，融资余额1.45亿元（12-09）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-11 14:03</t>
+          <t>12-12 08:58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1258080707.html</t>
+          <t>/news,300332,1258215083.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境12月09日被深股通减持168.9万股</t>
+          <t>天壕环境本周融资净偿还663.38万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-10 07:55</t>
+          <t>12-11 15:03</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1257965783.html</t>
+          <t>/news,300332,1258087375.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还217.48万元，融资余额1.51亿元（12-08）</t>
+          <t>天壕环境本周深股通持股市值减少2055.26万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-09 09:07</t>
+          <t>12-11 14:03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1257406655.html</t>
+          <t>/news,300332,1258080707.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境12月08日获深股通增持3.47万股</t>
+          <t>天壕环境12月09日被深股通减持168.9万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-09 07:55</t>
+          <t>12-10 07:55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1257394589.html</t>
+          <t>/news,300332,1257965783.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入747.63万元，融资余额1.54亿元（12-07）</t>
+          <t>天壕环境：融资净偿还217.48万元，融资余额1.51亿元（12-08）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-08 08:45</t>
+          <t>12-09 09:07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1256765242.html</t>
+          <t>/news,300332,1257406655.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境12月07日被深股通减持11.77万股</t>
+          <t>天壕环境12月08日获深股通增持3.47万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-08 07:51</t>
+          <t>12-09 07:55</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1256756407.html</t>
+          <t>/news,300332,1257394589.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还607.77万元，融资余额1.46亿元（12-06）</t>
+          <t>天壕环境：融资净买入747.63万元，融资余额1.54亿元（12-07）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-07 09:01</t>
+          <t>12-08 08:45</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1256101773.html</t>
+          <t>/news,300332,1256765242.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天壕环境12月06日获深股通增持28.15万股</t>
+          <t>天壕环境12月07日被深股通减持11.77万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-07 07:52</t>
+          <t>12-08 07:51</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1256091546.html</t>
+          <t>/news,300332,1256756407.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还585.76万元，融资余额1.52亿元（12-05）</t>
+          <t>天壕环境：融资净偿还607.77万元，融资余额1.46亿元（12-06）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-06 08:49</t>
+          <t>12-07 09:01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1255457315.html</t>
+          <t>/news,300332,1256101773.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境12月05日被深股通减持20.57万股</t>
+          <t>天壕环境12月06日获深股通增持28.15万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-06 07:57</t>
+          <t>12-07 07:52</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1255449685.html</t>
+          <t>/news,300332,1256091546.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计5121.81万元（12-02）</t>
+          <t>天壕环境：融资净偿还585.76万元，融资余额1.52亿元（12-05）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-05 08:54</t>
+          <t>12-06 08:49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1254803303.html</t>
+          <t>/news,300332,1255457315.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入4668.45万元，居燃气板块第一</t>
+          <t>天壕环境12月05日被深股通减持20.57万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-06 07:57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1254648841.html</t>
+          <t>/news,300332,1255449685.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少931.03万元，居燃气板块第七</t>
+          <t>天壕环境：连续5日融资净买入累计5121.81万元（12-02）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-04 14:03</t>
+          <t>12-05 08:54</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1254642137.html</t>
+          <t>/news,300332,1254803303.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,61 +947,61 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天壕环境12月02日获深股通增持31.83万股</t>
+          <t>天壕环境本周融资净买入4668.45万元，居燃气板块第一</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-03 07:57</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1254513245.html</t>
+          <t>/news,300332,1254648841.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境本周深股通持股市值减少931.03万元，居燃气板块第七</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-02 21:34</t>
+          <t>12-04 14:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1254413587.html</t>
+          <t>/news,300332,1254642137.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天壕环境：接受东吴证券等机构调研</t>
+          <t>天壕环境12月02日获深股通增持31.83万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-02 17:35</t>
+          <t>12-03 07:57</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1254324899.html</t>
+          <t>/news,300332,1254513245.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>664</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计4668.45万元（12-01）</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-02 08:48</t>
+          <t>12-02 21:34</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1253920257.html</t>
+          <t>/news,300332,1254413587.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>582</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安管道全线贯通 稀缺资产有望持续贡献业绩增量</t>
+          <t>天壕环境：接受东吴证券等机构调研</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-02 08:40</t>
+          <t>12-02 17:35</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1253919008.html</t>
+          <t>/news,300332,1254324899.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,167 +1107,167 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>天壕环境：连续4日融资净买入累计4668.45万元（12-01）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-02 08:38</t>
+          <t>12-02 08:48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1253918384.html</t>
+          <t>/news,300332,1253920257.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>742</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>德邦证券给予天壕环境增持评级 神安管道全线贯通 稀缺资产有望持续贡献业绩增量</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-02 08:33</t>
+          <t>12-02 08:40</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1253917819.html</t>
+          <t>/news,300332,1253919008.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天壕环境12月01日被深股通减持106.14万股</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-02 07:51</t>
+          <t>12-02 08:38</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1253913454.html</t>
+          <t>/news,300332,1253918384.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：神安线管道全线贯通 下游分销持续拓展</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-02 07:19</t>
+          <t>12-02 08:33</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1253908820.html</t>
+          <t>/news,300332,1253917819.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长99.38%</t>
+          <t>天壕环境12月01日被深股通减持106.14万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-02 06:58</t>
+          <t>12-02 07:51</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1253907204.html</t>
+          <t>/news,300332,1253913454.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>850</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天壕环境：神安线管道项目陕西-山西段正式通气</t>
+          <t>东亚前海证券给予天壕环境推荐评级：神安线管道全线贯通 下游分销持续拓展</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-01 11:14</t>
+          <t>12-02 07:19</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1253517481.html</t>
+          <t>/news,300332,1253908820.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天壕环境对外投资项目神安线管道全线贯通</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长99.38%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-01 09:27</t>
+          <t>12-02 06:58</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1253328904.html</t>
+          <t>/news,300332,1253907204.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天壕环境：神安线管道实现全线贯通</t>
+          <t>天壕环境：神安线管道项目陕西-山西段正式通气</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-01 09:08</t>
+          <t>12-01 11:14</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1253314614.html</t>
+          <t>/news,300332,1253517481.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2801.42万元（11-30）</t>
+          <t>天壕环境对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-01 08:47</t>
+          <t>12-01 09:27</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1253310008.html</t>
+          <t>/news,300332,1253328904.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2571</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>早间公告：天壕环境对外投资项目神安线管道全线贯通</t>
+          <t>天壕环境：神安线管道实现全线贯通</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-01 08:22</t>
+          <t>12-01 09:08</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1253306049.html</t>
+          <t>/news,300332,1253314614.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天壕环境：对外投资项目神安线管道全线贯通</t>
+          <t>天壕环境：连续3日融资净买入累计2801.42万元（11-30）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-01 08:47</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1253302871.html</t>
+          <t>/news,300332,1253310008.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>2573</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天壕环境11月30日获深股通增持27.03万股</t>
+          <t>早间公告：天壕环境对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-01 08:22</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1253301858.html</t>
+          <t>/news,300332,1253306049.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1117.23万元，融资余额1.24亿元（11-29）</t>
+          <t>天壕环境：对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-30 08:57</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1252788004.html</t>
+          <t>/news,300332,1253302871.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天壕环境11月29日被深股通减持70.8万股</t>
+          <t>天壕环境11月30日获深股通增持27.03万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-30 07:45</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1252777359.html</t>
+          <t>/news,300332,1253301858.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入643.13万元，融资余额1.13亿元（11-28）</t>
+          <t>天壕环境：融资净买入1117.23万元，融资余额1.24亿元（11-29）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-29 08:46</t>
+          <t>11-30 08:57</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1252221985.html</t>
+          <t>/news,300332,1252788004.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天壕环境11月28日获深股通增持47.48万股</t>
+          <t>天壕环境11月29日被深股通减持70.8万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-29 07:47</t>
+          <t>11-30 07:45</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1252212181.html</t>
+          <t>/news,300332,1252777359.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天壕环境：我公司持有中联华瑞49%的股权 中联华瑞不在公司的合并报表范围内</t>
+          <t>天壕环境：融资净买入643.13万元，融资余额1.13亿元（11-28）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-28 15:44</t>
+          <t>11-29 08:46</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1252043032.html</t>
+          <t>/news,300332,1252221985.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还16.7万元，融资余额1.07亿元（11-25）</t>
+          <t>天壕环境11月28日获深股通增持47.48万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,51 +1661,51 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-28 08:56</t>
+          <t>11-29 07:47</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1251736216.html</t>
+          <t>/news,300332,1252212181.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1331.01万元，居燃气板块第一</t>
+          <t>天壕环境：我公司持有中联华瑞49%的股权 中联华瑞不在公司的合并报表范围内</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-27 15:05</t>
+          <t>11-28 15:44</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1251589649.html</t>
+          <t>/news,300332,1252043032.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,61 +1715,61 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2854.94万元，居燃气板块第二</t>
+          <t>天壕环境：融资净偿还16.7万元，融资余额1.07亿元（11-25）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-27 14:04</t>
+          <t>11-28 08:56</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1251583660.html</t>
+          <t>/news,300332,1251736216.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天壕环境11月25日获深股通增持23.27万股</t>
+          <t>天壕环境本周融资净买入1331.01万元，居燃气板块第一</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-26 07:56</t>
+          <t>11-27 15:05</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1251434804.html</t>
+          <t>/news,300332,1251589649.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,39 +1779,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境：连续6日融资净买入累计2701.38万元（11-24）</t>
+          <t>天壕环境本周深股通持股市值增加2854.94万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-25 08:49</t>
+          <t>11-27 14:04</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1250951072.html</t>
+          <t>/news,300332,1251583660.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天壕环境11月24日获深股通增持102.8万股</t>
+          <t>天壕环境11月25日获深股通增持23.27万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,61 +1821,61 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-25 07:57</t>
+          <t>11-26 07:56</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1250944687.html</t>
+          <t>/news,300332,1251434804.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1348</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中信证券首次给予天壕环境买入评级 目标价17元</t>
+          <t>天壕环境：连续6日融资净买入累计2701.38万元（11-24）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-24 19:37</t>
+          <t>11-25 08:49</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1250795876.html</t>
+          <t>/news,300332,1250951072.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
+          <t>天壕环境11月24日获深股通增持102.8万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,61 +1885,61 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-24 08:53</t>
+          <t>11-25 07:57</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1250429887.html</t>
+          <t>/news,300332,1250944687.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天壕环境11月23日获深股通增持68.03万股</t>
+          <t>中信证券首次给予天壕环境买入评级 目标价17元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-24 07:54</t>
+          <t>11-24 19:37</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1250421100.html</t>
+          <t>/news,300332,1250795876.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
+          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>11-24 08:53</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1249883362.html</t>
+          <t>/news,300332,1250429887.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天壕环境11月22日获深股通增持5.76万股</t>
+          <t>天壕环境11月23日获深股通增持68.03万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-24 07:54</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1249875643.html</t>
+          <t>/news,300332,1250421100.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
+          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1249356759.html</t>
+          <t>/news,300332,1249883362.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境11月21日获深股通增持17.27万股</t>
+          <t>天壕环境11月22日获深股通增持5.76万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1249348886.html</t>
+          <t>/news,300332,1249875643.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
+          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,147 +2077,147 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-21 08:52</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1248872863.html</t>
+          <t>/news,300332,1249356759.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
+          <t>天壕环境11月21日获深股通增持17.27万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1248768258.html</t>
+          <t>/news,300332,1249348886.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
+          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-20 14:03</t>
+          <t>11-21 08:52</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1248762241.html</t>
+          <t>/news,300332,1248872863.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天壕环境11月18日获深股通增持52.04万股</t>
+          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1248639123.html</t>
+          <t>/news,300332,1248768258.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
+          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-18 08:44</t>
+          <t>11-20 14:03</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1248161488.html</t>
+          <t>/news,300332,1248762241.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天壕环境11月17日被深股通减持11.85万股</t>
+          <t>天壕环境11月18日获深股通增持52.04万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1248151600.html</t>
+          <t>/news,300332,1248639123.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
+          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-17 08:46</t>
+          <t>11-18 08:44</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1247676194.html</t>
+          <t>/news,300332,1248161488.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天壕环境11月16日被深股通减持16.06万股</t>
+          <t>天壕环境11月17日被深股通减持11.85万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1247664267.html</t>
+          <t>/news,300332,1248151600.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
+          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-16 08:51</t>
+          <t>11-17 08:46</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1247184272.html</t>
+          <t>/news,300332,1247676194.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天壕环境11月15日获深股通增持24.7万股</t>
+          <t>天壕环境11月16日被深股通减持16.06万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-16 08:00</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1247177109.html</t>
+          <t>/news,300332,1247664267.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1008</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
+          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-15 18:00</t>
+          <t>11-16 08:51</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1247068898.html</t>
+          <t>/news,300332,1247184272.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
+          <t>天壕环境11月15日获深股通增持24.7万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-15 09:00</t>
+          <t>11-16 08:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1246700508.html</t>
+          <t>/news,300332,1247177109.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天壕环境11月14日被深股通减持59.73万股</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-15 07:45</t>
+          <t>11-15 18:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1246689367.html</t>
+          <t>/news,300332,1247068898.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
+          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-14 18:00</t>
+          <t>11-15 09:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1246572597.html</t>
+          <t>/news,300332,1246700508.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
+          <t>天壕环境11月14日被深股通减持59.73万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,51 +2525,51 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-15 07:45</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1246197232.html</t>
+          <t>/news,300332,1246689367.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>920</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-13 15:03</t>
+          <t>11-14 18:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1246098041.html</t>
+          <t>/news,300332,1246572597.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,61 +2579,61 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
+          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-13 14:04</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1246093182.html</t>
+          <t>/news,300332,1246197232.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天壕环境11月11日被深股通减持39.15万股</t>
+          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-12 07:50</t>
+          <t>11-13 15:03</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1245986756.html</t>
+          <t>/news,300332,1246098041.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>641</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,39 +2643,39 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
+          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-11 08:46</t>
+          <t>11-13 14:04</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1245423620.html</t>
+          <t>/news,300332,1246093182.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境11月10日被深股通减持21.01万股</t>
+          <t>天壕环境11月11日被深股通减持39.15万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-11 07:58</t>
+          <t>11-12 07:50</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1245414409.html</t>
+          <t>/news,300332,1245986756.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
+          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-11 08:46</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1245274849.html</t>
+          <t>/news,300332,1245423620.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
+          <t>天壕环境11月10日被深股通减持21.01万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 07:58</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1244901110.html</t>
+          <t>/news,300332,1245414409.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>874</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境11月09日被深股通减持5.04万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-10 07:52</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1244891594.html</t>
+          <t>/news,300332,1245274849.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
+          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-09 18:00</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1244788399.html</t>
+          <t>/news,300332,1244901110.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
+          <t>天壕环境11月09日被深股通减持5.04万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-09 08:48</t>
+          <t>11-10 07:52</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1244436172.html</t>
+          <t>/news,300332,1244891594.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境11月08日被深股通减持43.85万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-09 18:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1244426484.html</t>
+          <t>/news,300332,1244788399.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
+          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-09 08:48</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1243984572.html</t>
+          <t>/news,300332,1244436172.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境11月07日获深股通增持90.51万股</t>
+          <t>天壕环境11月08日被深股通减持43.85万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1243976303.html</t>
+          <t>/news,300332,1244426484.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1602.74万元，融资余额5096.82万元（11-04）</t>
+          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1243513721.html</t>
+          <t>/news,300332,1243984572.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入197.17万元，居燃气板块第六</t>
+          <t>天壕环境11月07日获深股通增持90.51万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-06 15:03</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1243408938.html</t>
+          <t>/news,300332,1243976303.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入488.45万元，融资余额1.5亿元（12-12）</t>
+          <t>天壕环境：融资净买入330.21万元，融资余额1.53亿元（12-13）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-13 09:01</t>
+          <t>12-14 09:11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1258771524.html</t>
+          <t>/news,300332,1259359542.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境12月12日被深股通减持84.89万股</t>
+          <t>天壕环境12月13日获深股通增持1.16万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-13 07:51</t>
+          <t>12-14 07:47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1258761465.html</t>
+          <t>/news,300332,1259346455.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还678.09万元，融资余额1.45亿元（12-09）</t>
+          <t>天壕环境：融资净买入488.45万元，融资余额1.5亿元（12-12）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-12 08:58</t>
+          <t>12-13 09:01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1258215083.html</t>
+          <t>/news,300332,1258771524.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净偿还663.38万元，居燃气板块第六</t>
+          <t>天壕环境12月12日被深股通减持84.89万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-11 15:03</t>
+          <t>12-13 07:51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1258087375.html</t>
+          <t>/news,300332,1258761465.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,61 +595,61 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少2055.26万元，居燃气板块第二</t>
+          <t>天壕环境：融资净偿还678.09万元，融资余额1.45亿元（12-09）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-11 14:03</t>
+          <t>12-12 08:58</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1258080707.html</t>
+          <t>/news,300332,1258215083.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境12月09日被深股通减持168.9万股</t>
+          <t>天壕环境本周融资净偿还663.38万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-10 07:55</t>
+          <t>12-11 15:03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1257965783.html</t>
+          <t>/news,300332,1258087375.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还217.48万元，融资余额1.51亿元（12-08）</t>
+          <t>天壕环境本周深股通持股市值减少2055.26万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-09 09:07</t>
+          <t>12-11 14:03</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1257406655.html</t>
+          <t>/news,300332,1258080707.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境12月08日获深股通增持3.47万股</t>
+          <t>天壕环境12月09日被深股通减持168.9万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-09 07:55</t>
+          <t>12-10 07:55</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1257394589.html</t>
+          <t>/news,300332,1257965783.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入747.63万元，融资余额1.54亿元（12-07）</t>
+          <t>天壕环境：融资净偿还217.48万元，融资余额1.51亿元（12-08）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-08 08:45</t>
+          <t>12-09 09:07</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1256765242.html</t>
+          <t>/news,300332,1257406655.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天壕环境12月07日被深股通减持11.77万股</t>
+          <t>天壕环境12月08日获深股通增持3.47万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-08 07:51</t>
+          <t>12-09 07:55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1256756407.html</t>
+          <t>/news,300332,1257394589.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还607.77万元，融资余额1.46亿元（12-06）</t>
+          <t>天壕环境：融资净买入747.63万元，融资余额1.54亿元（12-07）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-07 09:01</t>
+          <t>12-08 08:45</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1256101773.html</t>
+          <t>/news,300332,1256765242.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境12月06日获深股通增持28.15万股</t>
+          <t>天壕环境12月07日被深股通减持11.77万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-07 07:52</t>
+          <t>12-08 07:51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1256091546.html</t>
+          <t>/news,300332,1256756407.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还585.76万元，融资余额1.52亿元（12-05）</t>
+          <t>天壕环境：融资净偿还607.77万元，融资余额1.46亿元（12-06）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-06 08:49</t>
+          <t>12-07 09:01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1255457315.html</t>
+          <t>/news,300332,1256101773.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天壕环境12月05日被深股通减持20.57万股</t>
+          <t>天壕环境12月06日获深股通增持28.15万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-06 07:57</t>
+          <t>12-07 07:52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1255449685.html</t>
+          <t>/news,300332,1256091546.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计5121.81万元（12-02）</t>
+          <t>天壕环境：融资净偿还585.76万元，融资余额1.52亿元（12-05）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-05 08:54</t>
+          <t>12-06 08:49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1254803303.html</t>
+          <t>/news,300332,1255457315.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入4668.45万元，居燃气板块第一</t>
+          <t>天壕环境12月05日被深股通减持20.57万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-06 07:57</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1254648841.html</t>
+          <t>/news,300332,1255449685.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少931.03万元，居燃气板块第七</t>
+          <t>天壕环境：连续5日融资净买入累计5121.81万元（12-02）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-04 14:03</t>
+          <t>12-05 08:54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1254642137.html</t>
+          <t>/news,300332,1254803303.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,61 +1011,61 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天壕环境12月02日获深股通增持31.83万股</t>
+          <t>天壕环境本周融资净买入4668.45万元，居燃气板块第一</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-03 07:57</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1254513245.html</t>
+          <t>/news,300332,1254648841.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境本周深股通持股市值减少931.03万元，居燃气板块第七</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-02 21:34</t>
+          <t>12-04 14:03</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1254413587.html</t>
+          <t>/news,300332,1254642137.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天壕环境：接受东吴证券等机构调研</t>
+          <t>天壕环境12月02日获深股通增持31.83万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-02 17:35</t>
+          <t>12-03 07:57</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1254324899.html</t>
+          <t>/news,300332,1254513245.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>671</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计4668.45万元（12-01）</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-02 08:48</t>
+          <t>12-02 21:34</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1253920257.html</t>
+          <t>/news,300332,1254413587.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安管道全线贯通 稀缺资产有望持续贡献业绩增量</t>
+          <t>天壕环境：接受东吴证券等机构调研</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-02 08:40</t>
+          <t>12-02 17:35</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1253919008.html</t>
+          <t>/news,300332,1254324899.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,167 +1171,167 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>天壕环境：连续4日融资净买入累计4668.45万元（12-01）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-02 08:38</t>
+          <t>12-02 08:48</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1253918384.html</t>
+          <t>/news,300332,1253920257.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>747</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>德邦证券给予天壕环境增持评级 神安管道全线贯通 稀缺资产有望持续贡献业绩增量</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-02 08:33</t>
+          <t>12-02 08:40</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1253917819.html</t>
+          <t>/news,300332,1253919008.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天壕环境12月01日被深股通减持106.14万股</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-02 07:51</t>
+          <t>12-02 08:38</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1253913454.html</t>
+          <t>/news,300332,1253918384.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：神安线管道全线贯通 下游分销持续拓展</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-02 07:19</t>
+          <t>12-02 08:33</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1253908820.html</t>
+          <t>/news,300332,1253917819.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长99.38%</t>
+          <t>天壕环境12月01日被深股通减持106.14万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-02 06:58</t>
+          <t>12-02 07:51</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1253907204.html</t>
+          <t>/news,300332,1253913454.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>853</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天壕环境：神安线管道项目陕西-山西段正式通气</t>
+          <t>东亚前海证券给予天壕环境推荐评级：神安线管道全线贯通 下游分销持续拓展</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,51 +1341,51 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-01 11:14</t>
+          <t>12-02 07:19</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1253517481.html</t>
+          <t>/news,300332,1253908820.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天壕环境对外投资项目神安线管道全线贯通</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长99.38%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-01 09:27</t>
+          <t>12-02 06:58</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1253328904.html</t>
+          <t>/news,300332,1253907204.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天壕环境：神安线管道实现全线贯通</t>
+          <t>天壕环境：神安线管道项目陕西-山西段正式通气</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-01 09:08</t>
+          <t>12-01 11:14</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1253314614.html</t>
+          <t>/news,300332,1253517481.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>2105</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2801.42万元（11-30）</t>
+          <t>天壕环境对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-01 08:47</t>
+          <t>12-01 09:27</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1253310008.html</t>
+          <t>/news,300332,1253328904.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2573</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>早间公告：天壕环境对外投资项目神安线管道全线贯通</t>
+          <t>天壕环境：神安线管道实现全线贯通</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-01 08:22</t>
+          <t>12-01 09:08</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1253306049.html</t>
+          <t>/news,300332,1253314614.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天壕环境：对外投资项目神安线管道全线贯通</t>
+          <t>天壕环境：连续3日融资净买入累计2801.42万元（11-30）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-01 08:47</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1253302871.html</t>
+          <t>/news,300332,1253310008.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>2574</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天壕环境11月30日获深股通增持27.03万股</t>
+          <t>早间公告：天壕环境对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-01 08:22</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1253301858.html</t>
+          <t>/news,300332,1253306049.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1117.23万元，融资余额1.24亿元（11-29）</t>
+          <t>天壕环境：对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-30 08:57</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1252788004.html</t>
+          <t>/news,300332,1253302871.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天壕环境11月29日被深股通减持70.8万股</t>
+          <t>天壕环境11月30日获深股通增持27.03万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-30 07:45</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1252777359.html</t>
+          <t>/news,300332,1253301858.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入643.13万元，融资余额1.13亿元（11-28）</t>
+          <t>天壕环境：融资净买入1117.23万元，融资余额1.24亿元（11-29）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-29 08:46</t>
+          <t>11-30 08:57</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1252221985.html</t>
+          <t>/news,300332,1252788004.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天壕环境11月28日获深股通增持47.48万股</t>
+          <t>天壕环境11月29日被深股通减持70.8万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-29 07:47</t>
+          <t>11-30 07:45</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1252212181.html</t>
+          <t>/news,300332,1252777359.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天壕环境：我公司持有中联华瑞49%的股权 中联华瑞不在公司的合并报表范围内</t>
+          <t>天壕环境：融资净买入643.13万元，融资余额1.13亿元（11-28）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-28 15:44</t>
+          <t>11-29 08:46</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1252043032.html</t>
+          <t>/news,300332,1252221985.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还16.7万元，融资余额1.07亿元（11-25）</t>
+          <t>天壕环境11月28日获深股通增持47.48万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,51 +1725,51 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-28 08:56</t>
+          <t>11-29 07:47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1251736216.html</t>
+          <t>/news,300332,1252212181.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1331.01万元，居燃气板块第一</t>
+          <t>天壕环境：我公司持有中联华瑞49%的股权 中联华瑞不在公司的合并报表范围内</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-27 15:05</t>
+          <t>11-28 15:44</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1251589649.html</t>
+          <t>/news,300332,1252043032.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,61 +1779,61 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2854.94万元，居燃气板块第二</t>
+          <t>天壕环境：融资净偿还16.7万元，融资余额1.07亿元（11-25）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-27 14:04</t>
+          <t>11-28 08:56</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1251583660.html</t>
+          <t>/news,300332,1251736216.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天壕环境11月25日获深股通增持23.27万股</t>
+          <t>天壕环境本周融资净买入1331.01万元，居燃气板块第一</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-26 07:56</t>
+          <t>11-27 15:05</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1251434804.html</t>
+          <t>/news,300332,1251589649.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,39 +1843,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天壕环境：连续6日融资净买入累计2701.38万元（11-24）</t>
+          <t>天壕环境本周深股通持股市值增加2854.94万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-25 08:49</t>
+          <t>11-27 14:04</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1250951072.html</t>
+          <t>/news,300332,1251583660.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境11月24日获深股通增持102.8万股</t>
+          <t>天壕环境11月25日获深股通增持23.27万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,61 +1885,61 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-25 07:57</t>
+          <t>11-26 07:56</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1250944687.html</t>
+          <t>/news,300332,1251434804.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中信证券首次给予天壕环境买入评级 目标价17元</t>
+          <t>天壕环境：连续6日融资净买入累计2701.38万元（11-24）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-24 19:37</t>
+          <t>11-25 08:49</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1250795876.html</t>
+          <t>/news,300332,1250951072.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
+          <t>天壕环境11月24日获深股通增持102.8万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,61 +1949,61 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-24 08:53</t>
+          <t>11-25 07:57</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1250429887.html</t>
+          <t>/news,300332,1250944687.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天壕环境11月23日获深股通增持68.03万股</t>
+          <t>中信证券首次给予天壕环境买入评级 目标价17元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-24 07:54</t>
+          <t>11-24 19:37</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1250421100.html</t>
+          <t>/news,300332,1250795876.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
+          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>11-24 08:53</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1249883362.html</t>
+          <t>/news,300332,1250429887.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境11月22日获深股通增持5.76万股</t>
+          <t>天壕环境11月23日获深股通增持68.03万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-24 07:54</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1249875643.html</t>
+          <t>/news,300332,1250421100.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
+          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1249356759.html</t>
+          <t>/news,300332,1249883362.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天壕环境11月21日获深股通增持17.27万股</t>
+          <t>天壕环境11月22日获深股通增持5.76万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1249348886.html</t>
+          <t>/news,300332,1249875643.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
+          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,147 +2141,147 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-21 08:52</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1248872863.html</t>
+          <t>/news,300332,1249356759.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
+          <t>天壕环境11月21日获深股通增持17.27万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1248768258.html</t>
+          <t>/news,300332,1249348886.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
+          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-20 14:03</t>
+          <t>11-21 08:52</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1248762241.html</t>
+          <t>/news,300332,1248872863.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天壕环境11月18日获深股通增持52.04万股</t>
+          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1248639123.html</t>
+          <t>/news,300332,1248768258.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
+          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-18 08:44</t>
+          <t>11-20 14:03</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1248161488.html</t>
+          <t>/news,300332,1248762241.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天壕环境11月17日被深股通减持11.85万股</t>
+          <t>天壕环境11月18日获深股通增持52.04万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1248151600.html</t>
+          <t>/news,300332,1248639123.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
+          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-17 08:46</t>
+          <t>11-18 08:44</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1247676194.html</t>
+          <t>/news,300332,1248161488.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天壕环境11月16日被深股通减持16.06万股</t>
+          <t>天壕环境11月17日被深股通减持11.85万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1247664267.html</t>
+          <t>/news,300332,1248151600.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
+          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-16 08:51</t>
+          <t>11-17 08:46</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1247184272.html</t>
+          <t>/news,300332,1247676194.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天壕环境11月15日获深股通增持24.7万股</t>
+          <t>天壕环境11月16日被深股通减持16.06万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-16 08:00</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1247177109.html</t>
+          <t>/news,300332,1247664267.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1008</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
+          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-15 18:00</t>
+          <t>11-16 08:51</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1247068898.html</t>
+          <t>/news,300332,1247184272.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
+          <t>天壕环境11月15日获深股通增持24.7万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-15 09:00</t>
+          <t>11-16 08:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1246700508.html</t>
+          <t>/news,300332,1247177109.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天壕环境11月14日被深股通减持59.73万股</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-15 07:45</t>
+          <t>11-15 18:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1246689367.html</t>
+          <t>/news,300332,1247068898.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
+          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-14 18:00</t>
+          <t>11-15 09:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1246572597.html</t>
+          <t>/news,300332,1246700508.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
+          <t>天壕环境11月14日被深股通减持59.73万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-15 07:45</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1246197232.html</t>
+          <t>/news,300332,1246689367.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>920</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-13 15:03</t>
+          <t>11-14 18:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1246098041.html</t>
+          <t>/news,300332,1246572597.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,61 +2643,61 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
+          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-13 14:04</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1246093182.html</t>
+          <t>/news,300332,1246197232.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境11月11日被深股通减持39.15万股</t>
+          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-12 07:50</t>
+          <t>11-13 15:03</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1245986756.html</t>
+          <t>/news,300332,1246098041.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>641</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
+          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-11 08:46</t>
+          <t>11-13 14:04</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1245423620.html</t>
+          <t>/news,300332,1246093182.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境11月10日被深股通减持21.01万股</t>
+          <t>天壕环境11月11日被深股通减持39.15万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-11 07:58</t>
+          <t>11-12 07:50</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1245414409.html</t>
+          <t>/news,300332,1245986756.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>874</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
+          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-11 08:46</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1245274849.html</t>
+          <t>/news,300332,1245423620.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
+          <t>天壕环境11月10日被深股通减持21.01万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 07:58</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1244901110.html</t>
+          <t>/news,300332,1245414409.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>874</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境11月09日被深股通减持5.04万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-10 07:52</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1244891594.html</t>
+          <t>/news,300332,1245274849.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
+          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-09 18:00</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1244788399.html</t>
+          <t>/news,300332,1244901110.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
+          <t>天壕环境11月09日被深股通减持5.04万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-09 08:48</t>
+          <t>11-10 07:52</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1244436172.html</t>
+          <t>/news,300332,1244891594.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>616</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境11月08日被深股通减持43.85万股</t>
+          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-09 18:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1244426484.html</t>
+          <t>/news,300332,1244788399.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2504.58万元（11-07）</t>
+          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-09 08:48</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1243984572.html</t>
+          <t>/news,300332,1244436172.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境11月07日获深股通增持90.51万股</t>
+          <t>天壕环境11月08日被深股通减持43.85万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:41</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1243976303.html</t>
+          <t>/news,300332,1244426484.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>73</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入330.21万元，融资余额1.53亿元（12-13）</t>
+          <t>天壕环境12月19日被深股通减持6.05万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-14 09:11</t>
+          <t>12-20 07:32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1259359542.html</t>
+          <t>/news,300332,1261721250.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境12月13日获深股通增持1.16万股</t>
+          <t>天壕环境：融资净买入86.59万元，融资余额1.53亿元（12-16）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-14 07:47</t>
+          <t>12-19 08:56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1259346455.html</t>
+          <t>/news,300332,1261208231.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入488.45万元，融资余额1.5亿元（12-12）</t>
+          <t>天壕环境本周融资净买入712万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-13 09:01</t>
+          <t>12-18 15:03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1258771524.html</t>
+          <t>/news,300332,1261085629.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境12月12日被深股通减持84.89万股</t>
+          <t>天壕环境本周深股通持股市值减少1715.08万元，居燃气板块第一</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-13 07:51</t>
+          <t>12-18 14:04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1258761465.html</t>
+          <t>/news,300332,1261080229.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还678.09万元，融资余额1.45亿元（12-09）</t>
+          <t>天壕环境12月16日被深股通减持56.77万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-12 08:58</t>
+          <t>12-17 07:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1258215083.html</t>
+          <t>/news,300332,1260974992.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净偿还663.38万元，居燃气板块第六</t>
+          <t>天壕环境：融资净偿还84.64万元，融资余额1.52亿元（12-15）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-11 15:03</t>
+          <t>12-16 09:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1258087375.html</t>
+          <t>/news,300332,1260488147.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少2055.26万元，居燃气板块第二</t>
+          <t>天壕环境12月15日获深股通增持26.69万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-11 14:03</t>
+          <t>12-16 07:59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1258080707.html</t>
+          <t>/news,300332,1260479054.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境12月09日被深股通减持168.9万股</t>
+          <t>天壕环境：融资净偿还22.01万元，融资余额1.53亿元（12-14）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-10 07:55</t>
+          <t>12-15 08:53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1257965783.html</t>
+          <t>/news,300332,1259942966.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还217.48万元，融资余额1.51亿元（12-08）</t>
+          <t>天壕环境12月14日被深股通减持30.54万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-09 09:07</t>
+          <t>12-15 07:46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1257406655.html</t>
+          <t>/news,300332,1259932635.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天壕环境12月08日获深股通增持3.47万股</t>
+          <t>天壕环境：融资净买入330.21万元，融资余额1.53亿元（12-13）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-09 07:55</t>
+          <t>12-14 09:11</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1257394589.html</t>
+          <t>/news,300332,1259359542.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入747.63万元，融资余额1.54亿元（12-07）</t>
+          <t>天壕环境12月13日获深股通增持1.16万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-08 08:45</t>
+          <t>12-14 07:47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1256765242.html</t>
+          <t>/news,300332,1259346455.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境12月07日被深股通减持11.77万股</t>
+          <t>天壕环境：融资净买入488.45万元，融资余额1.5亿元（12-12）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-08 07:51</t>
+          <t>12-13 09:01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1256756407.html</t>
+          <t>/news,300332,1258771524.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还607.77万元，融资余额1.46亿元（12-06）</t>
+          <t>天壕环境12月12日被深股通减持84.89万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-07 09:01</t>
+          <t>12-13 07:51</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1256101773.html</t>
+          <t>/news,300332,1258761465.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天壕环境12月06日获深股通增持28.15万股</t>
+          <t>天壕环境：融资净偿还678.09万元，融资余额1.45亿元（12-09）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-07 07:52</t>
+          <t>12-12 08:58</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1256091546.html</t>
+          <t>/news,300332,1258215083.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还585.76万元，融资余额1.52亿元（12-05）</t>
+          <t>天壕环境本周融资净偿还663.38万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-06 08:49</t>
+          <t>12-11 15:03</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1255457315.html</t>
+          <t>/news,300332,1258087375.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,39 +947,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天壕环境12月05日被深股通减持20.57万股</t>
+          <t>天壕环境本周深股通持股市值减少2055.26万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-06 07:57</t>
+          <t>12-11 14:03</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1255449685.html</t>
+          <t>/news,300332,1258080707.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计5121.81万元（12-02）</t>
+          <t>天壕环境12月09日被深股通减持168.9万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-05 08:54</t>
+          <t>12-10 07:55</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1254803303.html</t>
+          <t>/news,300332,1257965783.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入4668.45万元，居燃气板块第一</t>
+          <t>天壕环境：融资净偿还217.48万元，融资余额1.51亿元（12-08）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-09 09:07</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1254648841.html</t>
+          <t>/news,300332,1257406655.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少931.03万元，居燃气板块第七</t>
+          <t>天壕环境12月08日获深股通增持3.47万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-04 14:03</t>
+          <t>12-09 07:55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1254642137.html</t>
+          <t>/news,300332,1257394589.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天壕环境12月02日获深股通增持31.83万股</t>
+          <t>天壕环境：融资净买入747.63万元，融资余额1.54亿元（12-07）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-03 07:57</t>
+          <t>12-08 08:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1254513245.html</t>
+          <t>/news,300332,1256765242.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境12月07日被深股通减持11.77万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-02 21:34</t>
+          <t>12-08 07:51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1254413587.html</t>
+          <t>/news,300332,1256756407.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天壕环境：接受东吴证券等机构调研</t>
+          <t>天壕环境：融资净偿还607.77万元，融资余额1.46亿元（12-06）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-02 17:35</t>
+          <t>12-07 09:01</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1254324899.html</t>
+          <t>/news,300332,1256101773.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计4668.45万元（12-01）</t>
+          <t>天壕环境12月06日获深股通增持28.15万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-02 08:48</t>
+          <t>12-07 07:52</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1253920257.html</t>
+          <t>/news,300332,1256091546.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安管道全线贯通 稀缺资产有望持续贡献业绩增量</t>
+          <t>天壕环境：融资净偿还585.76万元，融资余额1.52亿元（12-05）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-02 08:40</t>
+          <t>12-06 08:49</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1253919008.html</t>
+          <t>/news,300332,1255457315.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>天壕环境12月05日被深股通减持20.57万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-02 08:38</t>
+          <t>12-06 07:57</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1253918384.html</t>
+          <t>/news,300332,1255449685.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,93 +1267,93 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境：连续5日融资净买入累计5121.81万元（12-02）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-02 08:33</t>
+          <t>12-05 08:54</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1253917819.html</t>
+          <t>/news,300332,1254803303.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天壕环境12月01日被深股通减持106.14万股</t>
+          <t>天壕环境本周融资净买入4668.45万元，居燃气板块第一</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-02 07:51</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1253913454.html</t>
+          <t>/news,300332,1254648841.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：神安线管道全线贯通 下游分销持续拓展</t>
+          <t>天壕环境本周深股通持股市值减少931.03万元，居燃气板块第七</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-02 07:19</t>
+          <t>12-04 14:03</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1253908820.html</t>
+          <t>/news,300332,1254642137.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,39 +1363,39 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长99.38%</t>
+          <t>天壕环境12月02日获深股通增持31.83万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-02 06:58</t>
+          <t>12-03 07:57</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1253907204.html</t>
+          <t>/news,300332,1254513245.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>707</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天壕环境：神安线管道项目陕西-山西段正式通气</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-01 11:14</t>
+          <t>12-02 21:34</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1253517481.html</t>
+          <t>/news,300332,1254413587.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2105</t>
+          <t>602</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天壕环境对外投资项目神安线管道全线贯通</t>
+          <t>天壕环境：接受东吴证券等机构调研</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-01 09:27</t>
+          <t>12-02 17:35</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1253328904.html</t>
+          <t>/news,300332,1254324899.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天壕环境：神安线管道实现全线贯通</t>
+          <t>天壕环境：连续4日融资净买入累计4668.45万元（12-01）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-01 09:08</t>
+          <t>12-02 08:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1253314614.html</t>
+          <t>/news,300332,1253920257.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>776</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2801.42万元（11-30）</t>
+          <t>德邦证券给予天壕环境增持评级 神安管道全线贯通 稀缺资产有望持续贡献业绩增量</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,51 +1501,51 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-01 08:47</t>
+          <t>12-02 08:40</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1253310008.html</t>
+          <t>/news,300332,1253919008.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2574</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>早间公告：天壕环境对外投资项目神安线管道全线贯通</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12-01 08:22</t>
+          <t>12-02 08:38</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1253306049.html</t>
+          <t>/news,300332,1253918384.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,39 +1555,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天壕环境：对外投资项目神安线管道全线贯通</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-02 08:33</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1253302871.html</t>
+          <t>/news,300332,1253917819.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天壕环境11月30日获深股通增持27.03万股</t>
+          <t>天壕环境12月01日被深股通减持106.14万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-02 07:51</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1253301858.html</t>
+          <t>/news,300332,1253913454.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>876</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1117.23万元，融资余额1.24亿元（11-29）</t>
+          <t>东亚前海证券给予天壕环境推荐评级：神安线管道全线贯通 下游分销持续拓展</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-30 08:57</t>
+          <t>12-02 07:19</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1252788004.html</t>
+          <t>/news,300332,1253908820.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>天壕环境11月29日被深股通减持70.8万股</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长99.38%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-30 07:45</t>
+          <t>12-02 06:58</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1252777359.html</t>
+          <t>/news,300332,1253907204.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>781</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入643.13万元，融资余额1.13亿元（11-28）</t>
+          <t>天壕环境：神安线管道项目陕西-山西段正式通气</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-29 08:46</t>
+          <t>12-01 11:14</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1252221985.html</t>
+          <t>/news,300332,1253517481.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天壕环境11月28日获深股通增持47.48万股</t>
+          <t>天壕环境对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-29 07:47</t>
+          <t>12-01 09:27</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1252212181.html</t>
+          <t>/news,300332,1253328904.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>708</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天壕环境：我公司持有中联华瑞49%的股权 中联华瑞不在公司的合并报表范围内</t>
+          <t>天壕环境：神安线管道实现全线贯通</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-28 15:44</t>
+          <t>12-01 09:08</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1252043032.html</t>
+          <t>/news,300332,1253314614.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还16.7万元，融资余额1.07亿元（11-25）</t>
+          <t>天壕环境：连续3日融资净买入累计2801.42万元（11-30）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,51 +1789,51 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-28 08:56</t>
+          <t>12-01 08:47</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1251736216.html</t>
+          <t>/news,300332,1253310008.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>2585</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1331.01万元，居燃气板块第一</t>
+          <t>早间公告：天壕环境对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-27 15:05</t>
+          <t>12-01 08:22</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1251589649.html</t>
+          <t>/news,300332,1253306049.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,39 +1843,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2854.94万元，居燃气板块第二</t>
+          <t>天壕环境：对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-27 14:04</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1251583660.html</t>
+          <t>/news,300332,1253302871.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境11月25日获深股通增持23.27万股</t>
+          <t>天壕环境11月30日获深股通增持27.03万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-26 07:56</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1251434804.html</t>
+          <t>/news,300332,1253301858.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天壕环境：连续6日融资净买入累计2701.38万元（11-24）</t>
+          <t>天壕环境：融资净买入1117.23万元，融资余额1.24亿元（11-29）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-25 08:49</t>
+          <t>11-30 08:57</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1250951072.html</t>
+          <t>/news,300332,1252788004.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天壕环境11月24日获深股通增持102.8万股</t>
+          <t>天壕环境11月29日被深股通减持70.8万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,61 +1949,61 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-25 07:57</t>
+          <t>11-30 07:45</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1250944687.html</t>
+          <t>/news,300332,1252777359.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中信证券首次给予天壕环境买入评级 目标价17元</t>
+          <t>天壕环境：融资净买入643.13万元，融资余额1.13亿元（11-28）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-24 19:37</t>
+          <t>11-29 08:46</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1250795876.html</t>
+          <t>/news,300332,1252221985.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
+          <t>天壕环境11月28日获深股通增持47.48万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-24 08:53</t>
+          <t>11-29 07:47</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1250429887.html</t>
+          <t>/news,300332,1252212181.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>1827</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境11月23日获深股通增持68.03万股</t>
+          <t>天壕环境：我公司持有中联华瑞49%的股权 中联华瑞不在公司的合并报表范围内</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-24 07:54</t>
+          <t>11-28 15:44</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1250421100.html</t>
+          <t>/news,300332,1252043032.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
+          <t>天壕环境：融资净偿还16.7万元，融资余额1.07亿元（11-25）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>11-28 08:56</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1249883362.html</t>
+          <t>/news,300332,1251736216.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天壕环境11月22日获深股通增持5.76万股</t>
+          <t>天壕环境本周融资净买入1331.01万元，居燃气板块第一</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-27 15:05</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1249875643.html</t>
+          <t>/news,300332,1251589649.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
+          <t>天壕环境本周深股通持股市值增加2854.94万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-27 14:04</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1249356759.html</t>
+          <t>/news,300332,1251583660.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天壕环境11月21日获深股通增持17.27万股</t>
+          <t>天壕环境11月25日获深股通增持23.27万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-26 07:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1249348886.html</t>
+          <t>/news,300332,1251434804.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
+          <t>天壕环境：连续6日融资净买入累计2701.38万元（11-24）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,93 +2205,93 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-21 08:52</t>
+          <t>11-25 08:49</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1248872863.html</t>
+          <t>/news,300332,1250951072.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
+          <t>天壕环境11月24日获深股通增持102.8万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-25 07:57</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1248768258.html</t>
+          <t>/news,300332,1250944687.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
+          <t>中信证券首次给予天壕环境买入评级 目标价17元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-20 14:03</t>
+          <t>11-24 19:37</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1248762241.html</t>
+          <t>/news,300332,1250795876.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天壕环境11月18日获深股通增持52.04万股</t>
+          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-24 08:53</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1248639123.html</t>
+          <t>/news,300332,1250429887.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
+          <t>天壕环境11月23日获深股通增持68.03万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-18 08:44</t>
+          <t>11-24 07:54</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1248161488.html</t>
+          <t>/news,300332,1250421100.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天壕环境11月17日被深股通减持11.85万股</t>
+          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1248151600.html</t>
+          <t>/news,300332,1249883362.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
+          <t>天壕环境11月22日获深股通增持5.76万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-17 08:46</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1247676194.html</t>
+          <t>/news,300332,1249875643.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天壕环境11月16日被深股通减持16.06万股</t>
+          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1247664267.html</t>
+          <t>/news,300332,1249356759.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
+          <t>天壕环境11月21日获深股通增持17.27万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-16 08:51</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1247184272.html</t>
+          <t>/news,300332,1249348886.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天壕环境11月15日获深股通增持24.7万股</t>
+          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,51 +2493,51 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-16 08:00</t>
+          <t>11-21 08:52</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1247177109.html</t>
+          <t>/news,300332,1248872863.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
+          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-15 18:00</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1247068898.html</t>
+          <t>/news,300332,1248768258.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
+          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-15 09:00</t>
+          <t>11-20 14:03</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1246700508.html</t>
+          <t>/news,300332,1248762241.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境11月14日被深股通减持59.73万股</t>
+          <t>天壕环境11月18日获深股通增持52.04万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-15 07:45</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1246689367.html</t>
+          <t>/news,300332,1248639123.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
+          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-14 18:00</t>
+          <t>11-18 08:44</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1246572597.html</t>
+          <t>/news,300332,1248161488.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
+          <t>天壕环境11月17日被深股通减持11.85万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1246197232.html</t>
+          <t>/news,300332,1248151600.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
+          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-13 15:03</t>
+          <t>11-17 08:46</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1246098041.html</t>
+          <t>/news,300332,1247676194.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
+          <t>天壕环境11月16日被深股通减持16.06万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-13 14:04</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1246093182.html</t>
+          <t>/news,300332,1247664267.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境11月11日被深股通减持39.15万股</t>
+          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-12 07:50</t>
+          <t>11-16 08:51</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1245986756.html</t>
+          <t>/news,300332,1247184272.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还42.07万元，融资余额6437.1万元（11-10）</t>
+          <t>天壕环境11月15日获深股通增持24.7万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-11 08:46</t>
+          <t>11-16 08:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1245423620.html</t>
+          <t>/news,300332,1247177109.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>天壕环境11月10日被深股通减持21.01万股</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-11 07:58</t>
+          <t>11-15 18:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1245414409.html</t>
+          <t>/news,300332,1247068898.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>874</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价3.89%（11-10）</t>
+          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-15 09:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1245274849.html</t>
+          <t>/news,300332,1246700508.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计3333.3万元（11-09）</t>
+          <t>天壕环境11月14日被深股通减持59.73万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-15 07:45</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1244901110.html</t>
+          <t>/news,300332,1246689367.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>927</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>天壕环境11月09日被深股通减持5.04万股</t>
+          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-10 07:52</t>
+          <t>11-14 18:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1244891594.html</t>
+          <t>/news,300332,1246572597.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3780万元，折价4.98%（11-09）</t>
+          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-09 18:00</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1244788399.html</t>
+          <t>/news,300332,1246197232.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>660</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计2814.02万元（11-08）</t>
+          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-09 08:48</t>
+          <t>11-13 15:03</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1244436172.html</t>
+          <t>/news,300332,1246098041.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境11月08日被深股通减持43.85万股</t>
+          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-09 07:41</t>
+          <t>11-13 14:04</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1244426484.html</t>
+          <t>/news,300332,1246093182.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300332.xlsx
+++ b/news_ann/news/tmp/300332.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天壕环境12月19日被深股通减持6.05万股</t>
+          <t>天壕环境：融资净偿还170.11万元，融资余额1.49亿元（12-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-20 07:32</t>
+          <t>12-23 09:05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300332,1261721250.html</t>
+          <t>/news,300332,1263203404.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入86.59万元，融资余额1.53亿元（12-16）</t>
+          <t>天壕环境12月22日被深股通减持12.33万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-19 08:56</t>
+          <t>12-23 07:32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300332,1261208231.html</t>
+          <t>/news,300332,1263188930.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入712万元，居燃气板块第三</t>
+          <t>天壕环境：融资净买入124.21万元，融资余额1.51亿元（12-21）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-18 15:03</t>
+          <t>12-22 08:41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300332,1261085629.html</t>
+          <t>/news,300332,1262677309.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少1715.08万元，居燃气板块第一</t>
+          <t>天壕环境12月21日被深股通减持11.07万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-18 14:04</t>
+          <t>12-22 07:36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300332,1261080229.html</t>
+          <t>/news,300332,1262669095.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天壕环境12月16日被深股通减持56.77万股</t>
+          <t>天壕环境：融资净偿还162.43万元，融资余额1.49亿元（12-20）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-17 07:45</t>
+          <t>12-21 08:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300332,1260974992.html</t>
+          <t>/news,300332,1262204890.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还84.64万元，融资余额1.52亿元（12-15）</t>
+          <t>天壕环境12月20日获深股通增持19.29万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-16 09:00</t>
+          <t>12-21 07:42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300332,1260488147.html</t>
+          <t>/news,300332,1262197032.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天壕环境12月15日获深股通增持26.69万股</t>
+          <t>天壕环境：融资净偿还149.28万元，融资余额1.51亿元（12-19）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-16 07:59</t>
+          <t>12-20 09:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300332,1260479054.html</t>
+          <t>/news,300332,1261733428.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还22.01万元，融资余额1.53亿元（12-14）</t>
+          <t>天壕环境12月19日被深股通减持6.05万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-15 08:53</t>
+          <t>12-20 07:32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300332,1259942966.html</t>
+          <t>/news,300332,1261721250.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天壕环境12月14日被深股通减持30.54万股</t>
+          <t>天壕环境：融资净买入86.59万元，融资余额1.53亿元（12-16）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-15 07:46</t>
+          <t>12-19 08:56</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300332,1259932635.html</t>
+          <t>/news,300332,1261208231.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入330.21万元，融资余额1.53亿元（12-13）</t>
+          <t>天壕环境本周融资净买入712万元，居燃气板块第三</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-14 09:11</t>
+          <t>12-18 15:03</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300332,1259359542.html</t>
+          <t>/news,300332,1261085629.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天壕环境12月13日获深股通增持1.16万股</t>
+          <t>天壕环境本周深股通持股市值减少1715.08万元，居燃气板块第一</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-14 07:47</t>
+          <t>12-18 14:04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300332,1259346455.html</t>
+          <t>/news,300332,1261080229.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入488.45万元，融资余额1.5亿元（12-12）</t>
+          <t>天壕环境12月16日被深股通减持56.77万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-13 09:01</t>
+          <t>12-17 07:45</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300332,1258771524.html</t>
+          <t>/news,300332,1260974992.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>天壕环境12月12日被深股通减持84.89万股</t>
+          <t>天壕环境：融资净偿还84.64万元，融资余额1.52亿元（12-15）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-13 07:51</t>
+          <t>12-16 09:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300332,1258761465.html</t>
+          <t>/news,300332,1260488147.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还678.09万元，融资余额1.45亿元（12-09）</t>
+          <t>天壕环境12月15日获深股通增持26.69万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-12 08:58</t>
+          <t>12-16 07:59</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300332,1258215083.html</t>
+          <t>/news,300332,1260479054.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,71 +915,71 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净偿还663.38万元，居燃气板块第六</t>
+          <t>天壕环境：融资净偿还22.01万元，融资余额1.53亿元（12-14）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-11 15:03</t>
+          <t>12-15 08:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300332,1258087375.html</t>
+          <t>/news,300332,1259942966.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少2055.26万元，居燃气板块第二</t>
+          <t>天壕环境12月14日被深股通减持30.54万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-11 14:03</t>
+          <t>12-15 07:46</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300332,1258080707.html</t>
+          <t>/news,300332,1259932635.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天壕环境12月09日被深股通减持168.9万股</t>
+          <t>天壕环境：融资净买入330.21万元，融资余额1.53亿元（12-13）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-10 07:55</t>
+          <t>12-14 09:11</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300332,1257965783.html</t>
+          <t>/news,300332,1259359542.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还217.48万元，融资余额1.51亿元（12-08）</t>
+          <t>天壕环境12月13日获深股通增持1.16万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-09 09:07</t>
+          <t>12-14 07:47</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300332,1257406655.html</t>
+          <t>/news,300332,1259346455.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天壕环境12月08日获深股通增持3.47万股</t>
+          <t>天壕环境：融资净买入488.45万元，融资余额1.5亿元（12-12）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-09 07:55</t>
+          <t>12-13 09:01</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300332,1257394589.html</t>
+          <t>/news,300332,1258771524.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入747.63万元，融资余额1.54亿元（12-07）</t>
+          <t>天壕环境12月12日被深股通减持84.89万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-08 08:45</t>
+          <t>12-13 07:51</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300332,1256765242.html</t>
+          <t>/news,300332,1258761465.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天壕环境12月07日被深股通减持11.77万股</t>
+          <t>天壕环境：融资净偿还678.09万元，融资余额1.45亿元（12-09）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,51 +1117,51 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-08 07:51</t>
+          <t>12-12 08:58</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300332,1256756407.html</t>
+          <t>/news,300332,1258215083.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还607.77万元，融资余额1.46亿元（12-06）</t>
+          <t>天壕环境本周融资净偿还663.38万元，居燃气板块第六</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-07 09:01</t>
+          <t>12-11 15:03</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300332,1256101773.html</t>
+          <t>/news,300332,1258087375.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,39 +1171,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天壕环境12月06日获深股通增持28.15万股</t>
+          <t>天壕环境本周深股通持股市值减少2055.26万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-07 07:52</t>
+          <t>12-11 14:03</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300332,1256091546.html</t>
+          <t>/news,300332,1258080707.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还585.76万元，融资余额1.52亿元（12-05）</t>
+          <t>天壕环境12月09日被深股通减持168.9万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-06 08:49</t>
+          <t>12-10 07:55</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300332,1255457315.html</t>
+          <t>/news,300332,1257965783.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天壕环境12月05日被深股通减持20.57万股</t>
+          <t>天壕环境：融资净偿还217.48万元，融资余额1.51亿元（12-08）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-06 07:57</t>
+          <t>12-09 09:07</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300332,1255449685.html</t>
+          <t>/news,300332,1257406655.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计5121.81万元（12-02）</t>
+          <t>天壕环境12月08日获深股通增持3.47万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-05 08:54</t>
+          <t>12-09 07:55</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300332,1254803303.html</t>
+          <t>/news,300332,1257394589.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入4668.45万元，居燃气板块第一</t>
+          <t>天壕环境：融资净买入747.63万元，融资余额1.54亿元（12-07）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-04 15:04</t>
+          <t>12-08 08:45</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300332,1254648841.html</t>
+          <t>/news,300332,1256765242.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,39 +1331,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少931.03万元，居燃气板块第七</t>
+          <t>天壕环境12月07日被深股通减持11.77万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-04 14:03</t>
+          <t>12-08 07:51</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300332,1254642137.html</t>
+          <t>/news,300332,1256756407.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>天壕环境12月02日获深股通增持31.83万股</t>
+          <t>天壕环境：融资净偿还607.77万元，融资余额1.46亿元（12-06）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-03 07:57</t>
+          <t>12-07 09:01</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300332,1254513245.html</t>
+          <t>/news,300332,1256101773.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
+          <t>天壕环境12月06日获深股通增持28.15万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-02 21:34</t>
+          <t>12-07 07:52</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300332,1254413587.html</t>
+          <t>/news,300332,1256091546.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>天壕环境：接受东吴证券等机构调研</t>
+          <t>天壕环境：融资净偿还585.76万元，融资余额1.52亿元（12-05）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-02 17:35</t>
+          <t>12-06 08:49</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300332,1254324899.html</t>
+          <t>/news,300332,1255457315.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计4668.45万元（12-01）</t>
+          <t>天壕环境12月05日被深股通减持20.57万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-02 08:48</t>
+          <t>12-06 07:57</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300332,1253920257.html</t>
+          <t>/news,300332,1255449685.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>德邦证券给予天壕环境增持评级 神安管道全线贯通 稀缺资产有望持续贡献业绩增量</t>
+          <t>天壕环境：连续5日融资净买入累计5121.81万元（12-02）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-02 08:40</t>
+          <t>12-05 08:54</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300332,1253919008.html</t>
+          <t>/news,300332,1254803303.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
+          <t>天壕环境本周融资净买入4668.45万元，居燃气板块第一</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12-02 08:38</t>
+          <t>12-04 15:04</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300332,1253918384.html</t>
+          <t>/news,300332,1254648841.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,39 +1555,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
+          <t>天壕环境本周深股通持股市值减少931.03万元，居燃气板块第七</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12-02 08:33</t>
+          <t>12-04 14:03</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300332,1253917819.html</t>
+          <t>/news,300332,1254642137.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天壕环境12月01日被深股通减持106.14万股</t>
+          <t>天壕环境12月02日获深股通增持31.83万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12-02 07:51</t>
+          <t>12-03 07:57</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300332,1253913454.html</t>
+          <t>/news,300332,1254513245.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>732</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>东亚前海证券给予天壕环境推荐评级：神安线管道全线贯通 下游分销持续拓展</t>
+          <t>【调研快报】天壕环境接待东吴证券等多家机构调研</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12-02 07:19</t>
+          <t>12-02 21:34</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300332,1253908820.html</t>
+          <t>/news,300332,1254413587.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长99.38%</t>
+          <t>天壕环境：接受东吴证券等机构调研</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12-02 06:58</t>
+          <t>12-02 17:35</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300332,1253907204.html</t>
+          <t>/news,300332,1254324899.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天壕环境：神安线管道项目陕西-山西段正式通气</t>
+          <t>天壕环境：连续4日融资净买入累计4668.45万元（12-01）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>12-01 11:14</t>
+          <t>12-02 08:48</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300332,1253517481.html</t>
+          <t>/news,300332,1253920257.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2122</t>
+          <t>799</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天壕环境对外投资项目神安线管道全线贯通</t>
+          <t>德邦证券给予天壕环境增持评级 神安管道全线贯通 稀缺资产有望持续贡献业绩增量</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>12-01 09:27</t>
+          <t>12-02 08:40</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300332,1253328904.html</t>
+          <t>/news,300332,1253919008.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>天壕环境：神安线管道实现全线贯通</t>
+          <t>东吴证券维持天壕环境买入评级 预计2022年净利润同比增长99.58%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>12-01 09:08</t>
+          <t>12-02 08:38</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300332,1253314614.html</t>
+          <t>/news,300332,1253918384.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,39 +1779,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2801.42万元（11-30）</t>
+          <t>德邦证券维持天壕环境增持评级 预计2022年净利润同比增长100.07%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>12-01 08:47</t>
+          <t>12-02 08:33</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300332,1253310008.html</t>
+          <t>/news,300332,1253917819.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2585</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>早间公告：天壕环境对外投资项目神安线管道全线贯通</t>
+          <t>天壕环境12月01日被深股通减持106.14万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>12-01 08:22</t>
+          <t>12-02 07:51</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300332,1253306049.html</t>
+          <t>/news,300332,1253913454.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>894</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>天壕环境：对外投资项目神安线管道全线贯通</t>
+          <t>东亚前海证券给予天壕环境推荐评级：神安线管道全线贯通 下游分销持续拓展</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-02 07:19</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300332,1253302871.html</t>
+          <t>/news,300332,1253908820.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天壕环境11月30日获深股通增持27.03万股</t>
+          <t>东亚前海证券维持天壕环境推荐评级 预计2022年净利润同比增长99.38%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>12-01 07:51</t>
+          <t>12-02 06:58</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300332,1253301858.html</t>
+          <t>/news,300332,1253907204.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>788</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1117.23万元，融资余额1.24亿元（11-29）</t>
+          <t>天壕环境：神安线管道项目陕西-山西段正式通气</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-30 08:57</t>
+          <t>12-01 11:14</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300332,1252788004.html</t>
+          <t>/news,300332,1253517481.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>2126</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天壕环境11月29日被深股通减持70.8万股</t>
+          <t>天壕环境对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-30 07:45</t>
+          <t>12-01 09:27</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300332,1252777359.html</t>
+          <t>/news,300332,1253328904.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>717</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入643.13万元，融资余额1.13亿元（11-28）</t>
+          <t>天壕环境：神安线管道实现全线贯通</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-29 08:46</t>
+          <t>12-01 09:08</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300332,1252221985.html</t>
+          <t>/news,300332,1253314614.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天壕环境11月28日获深股通增持47.48万股</t>
+          <t>天壕环境：连续3日融资净买入累计2801.42万元（11-30）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-29 07:47</t>
+          <t>12-01 08:47</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300332,1252212181.html</t>
+          <t>/news,300332,1253310008.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1827</t>
+          <t>2587</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天壕环境：我公司持有中联华瑞49%的股权 中联华瑞不在公司的合并报表范围内</t>
+          <t>早间公告：天壕环境对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-28 15:44</t>
+          <t>12-01 08:22</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300332,1252043032.html</t>
+          <t>/news,300332,1253306049.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还16.7万元，融资余额1.07亿元（11-25）</t>
+          <t>天壕环境：对外投资项目神安线管道全线贯通</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-28 08:56</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300332,1251736216.html</t>
+          <t>/news,300332,1253302871.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1331.01万元，居燃气板块第一</t>
+          <t>天壕环境11月30日获深股通增持27.03万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-27 15:05</t>
+          <t>12-01 07:51</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300332,1251589649.html</t>
+          <t>/news,300332,1253301858.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值增加2854.94万元，居燃气板块第二</t>
+          <t>天壕环境：融资净买入1117.23万元，融资余额1.24亿元（11-29）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-27 14:04</t>
+          <t>11-30 08:57</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300332,1251583660.html</t>
+          <t>/news,300332,1252788004.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>天壕环境11月25日获深股通增持23.27万股</t>
+          <t>天壕环境11月29日被深股通减持70.8万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-26 07:56</t>
+          <t>11-30 07:45</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300332,1251434804.html</t>
+          <t>/news,300332,1252777359.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天壕环境：连续6日融资净买入累计2701.38万元（11-24）</t>
+          <t>天壕环境：融资净买入643.13万元，融资余额1.13亿元（11-28）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-25 08:49</t>
+          <t>11-29 08:46</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300332,1250951072.html</t>
+          <t>/news,300332,1252221985.html</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天壕环境11月24日获深股通增持102.8万股</t>
+          <t>天壕环境11月28日获深股通增持47.48万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,61 +2237,61 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-25 07:57</t>
+          <t>11-29 07:47</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300332,1250944687.html</t>
+          <t>/news,300332,1252212181.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>1846</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中信证券首次给予天壕环境买入评级 目标价17元</t>
+          <t>天壕环境：我公司持有中联华瑞49%的股权 中联华瑞不在公司的合并报表范围内</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-24 19:37</t>
+          <t>11-28 15:44</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300332,1250795876.html</t>
+          <t>/news,300332,1252043032.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
+          <t>天壕环境：融资净偿还16.7万元，融资余额1.07亿元（11-25）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-24 08:53</t>
+          <t>11-28 08:56</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300332,1250429887.html</t>
+          <t>/news,300332,1251736216.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天壕环境11月23日获深股通增持68.03万股</t>
+          <t>天壕环境本周融资净买入1331.01万元，居燃气板块第一</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-24 07:54</t>
+          <t>11-27 15:05</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300332,1250421100.html</t>
+          <t>/news,300332,1251589649.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,39 +2355,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
+          <t>天壕环境本周深股通持股市值增加2854.94万元，居燃气板块第二</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-23 08:46</t>
+          <t>11-27 14:04</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300332,1249883362.html</t>
+          <t>/news,300332,1251583660.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>天壕环境11月22日获深股通增持5.76万股</t>
+          <t>天壕环境11月25日获深股通增持23.27万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-26 07:56</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300332,1249875643.html</t>
+          <t>/news,300332,1251434804.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
+          <t>天壕环境：连续6日融资净买入累计2701.38万元（11-24）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-25 08:49</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300332,1249356759.html</t>
+          <t>/news,300332,1250951072.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>天壕环境11月21日获深股通增持17.27万股</t>
+          <t>天壕环境11月24日获深股通增持102.8万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,51 +2461,51 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-25 07:57</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300332,1249348886.html</t>
+          <t>/news,300332,1250944687.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>1358</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
+          <t>中信证券首次给予天壕环境买入评级 目标价17元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-21 08:52</t>
+          <t>11-24 19:37</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300332,1248872863.html</t>
+          <t>/news,300332,1250795876.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,61 +2515,61 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
+          <t>天壕环境：连续5日融资净买入累计2522.67万元（11-23）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-20 15:04</t>
+          <t>11-24 08:53</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300332,1248768258.html</t>
+          <t>/news,300332,1250429887.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
+          <t>天壕环境11月23日获深股通增持68.03万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-20 14:03</t>
+          <t>11-24 07:54</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300332,1248762241.html</t>
+          <t>/news,300332,1250421100.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天壕环境11月18日获深股通增持52.04万股</t>
+          <t>天壕环境：连续4日融资净买入累计1790.89万元（11-22）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-19 07:56</t>
+          <t>11-23 08:46</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300332,1248639123.html</t>
+          <t>/news,300332,1249883362.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
+          <t>天壕环境11月22日获深股通增持5.76万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-18 08:44</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300332,1248161488.html</t>
+          <t>/news,300332,1249875643.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>天壕环境11月17日被深股通减持11.85万股</t>
+          <t>天壕环境：连续3日融资净买入累计1672.25万元（11-21）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-18 07:41</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300332,1248151600.html</t>
+          <t>/news,300332,1249356759.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
+          <t>天壕环境11月21日获深股通增持17.27万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-17 08:46</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300332,1247676194.html</t>
+          <t>/news,300332,1249348886.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>天壕环境11月16日被深股通减持16.06万股</t>
+          <t>天壕环境：融资净买入1201.56万元，融资余额9368.15万元（11-18）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,93 +2717,93 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-21 08:52</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300332,1247664267.html</t>
+          <t>/news,300332,1248872863.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
+          <t>天壕环境本周融资净买入701.44万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-16 08:51</t>
+          <t>11-20 15:04</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300332,1247184272.html</t>
+          <t>/news,300332,1248768258.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天壕环境11月15日获深股通增持24.7万股</t>
+          <t>天壕环境本周深股通持股市值减少157.71万元，居燃气板块第五</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>天壕环境资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-16 08:00</t>
+          <t>11-20 14:03</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300332,1247177109.html</t>
+          <t>/news,300332,1248762241.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价3.00%（11-15）</t>
+          <t>天壕环境11月18日获深股通增持52.04万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-15 18:00</t>
+          <t>11-19 07:56</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300332,1247068898.html</t>
+          <t>/news,300332,1248639123.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入724.9万元，融资余额8190.05万元（11-14）</t>
+          <t>天壕环境：融资净买入168.8万元，融资余额8166.59万元（11-17）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-15 09:00</t>
+          <t>11-18 08:44</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300332,1246700508.html</t>
+          <t>/news,300332,1248161488.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>天壕环境11月14日被深股通减持59.73万股</t>
+          <t>天壕环境11月17日被深股通减持11.85万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-15 07:45</t>
+          <t>11-18 07:41</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300332,1246689367.html</t>
+          <t>/news,300332,1248151600.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>大宗交易：天壕环境成交3480.37万元，折价2.40%（11-14）</t>
+          <t>天壕环境：融资净偿还574.38万元，融资余额7997.79万元（11-16）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-14 18:00</t>
+          <t>11-17 08:46</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300332,1246572597.html</t>
+          <t>/news,300332,1247676194.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>天壕环境：融资净买入1028.05万元，融资余额7465.15万元（11-11）</t>
+          <t>天壕环境11月16日被深股通减持16.06万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300332,1246197232.html</t>
+          <t>/news,300332,1247664267.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>天壕环境本周融资净买入1340.29万元，居燃气板块第二</t>
+          <t>天壕环境：连续3日融资净买入累计2135.06万元（11-15）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-13 15:03</t>
+          <t>11-16 08:51</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300332,1246098041.html</t>
+          <t>/news,300332,1247184272.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>天壕环境本周深股通持股市值减少246.45万元，居燃气板块第六</t>
+          <t>天壕环境11月15日获深股通增持24.7万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>天壕环境资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-13 14:04</t>
+          <t>11-16 08:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300332,1246093182.html</t>
+          <t>/news,300332,1247177109.html</t>
         </is>
       </c>
     </row>
